--- a/AlgoDB/AlgoDB_Management.xlsx
+++ b/AlgoDB/AlgoDB_Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\AlgoDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\AAA\AlgoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,46 +28,54 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'SQLLoader-Fut+Ind'!$A$2:$H$286</definedName>
     <definedName name="Query_from_AlgoDB" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$2:$E$2</definedName>
     <definedName name="Query_from_AlgoDB_1" localSheetId="4" hidden="1">DB_Monitor_NEW!#REF!</definedName>
-    <definedName name="Query_from_AlgoDB_10" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$12:$E$12</definedName>
-    <definedName name="Query_from_AlgoDB_11" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$13:$E$13</definedName>
-    <definedName name="Query_from_AlgoDB_12" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$14:$E$14</definedName>
-    <definedName name="Query_from_AlgoDB_13" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$16:$E$16</definedName>
-    <definedName name="Query_from_AlgoDB_14" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$15:$E$15</definedName>
-    <definedName name="Query_from_AlgoDB_15" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$17:$E$17</definedName>
-    <definedName name="Query_from_AlgoDB_16" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$18:$E$18</definedName>
-    <definedName name="Query_from_AlgoDB_17" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$20:$E$20</definedName>
-    <definedName name="Query_from_AlgoDB_18" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$30:$E$30</definedName>
-    <definedName name="Query_from_AlgoDB_19" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$28:$E$28</definedName>
+    <definedName name="Query_from_AlgoDB_10" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$14:$E$14</definedName>
+    <definedName name="Query_from_AlgoDB_11" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$15:$E$15</definedName>
+    <definedName name="Query_from_AlgoDB_12" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$16:$E$16</definedName>
+    <definedName name="Query_from_AlgoDB_13" localSheetId="4" hidden="1">DB_Monitor_NEW!#REF!</definedName>
+    <definedName name="Query_from_AlgoDB_14" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$17:$E$17</definedName>
+    <definedName name="Query_from_AlgoDB_15" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$18:$E$18</definedName>
+    <definedName name="Query_from_AlgoDB_16" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$19:$E$19</definedName>
+    <definedName name="Query_from_AlgoDB_17" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$21:$E$21</definedName>
+    <definedName name="Query_from_AlgoDB_18" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$32:$E$32</definedName>
+    <definedName name="Query_from_AlgoDB_19" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$30:$E$30</definedName>
     <definedName name="Query_from_AlgoDB_2" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$3:$E$3</definedName>
-    <definedName name="Query_from_AlgoDB_20" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$27:$E$27</definedName>
-    <definedName name="Query_from_AlgoDB_21" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$25:$E$25</definedName>
-    <definedName name="Query_from_AlgoDB_22" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$26:$E$26</definedName>
-    <definedName name="Query_from_AlgoDB_23" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$24:$E$24</definedName>
-    <definedName name="Query_from_AlgoDB_24" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$23:$E$23</definedName>
-    <definedName name="Query_from_AlgoDB_25" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$22:$E$22</definedName>
-    <definedName name="Query_from_AlgoDB_26" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$32:$E$32</definedName>
-    <definedName name="Query_from_AlgoDB_27" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$33:$E$33</definedName>
-    <definedName name="Query_from_AlgoDB_28" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$34:$E$34</definedName>
-    <definedName name="Query_from_AlgoDB_29" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$36:$E$36</definedName>
+    <definedName name="Query_from_AlgoDB_20" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$29:$E$29</definedName>
+    <definedName name="Query_from_AlgoDB_21" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$28:$E$28</definedName>
+    <definedName name="Query_from_AlgoDB_22" localSheetId="4" hidden="1">DB_Monitor_NEW!#REF!</definedName>
+    <definedName name="Query_from_AlgoDB_23" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$27:$E$27</definedName>
+    <definedName name="Query_from_AlgoDB_24" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$26:$E$26</definedName>
+    <definedName name="Query_from_AlgoDB_25" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$25:$E$25</definedName>
+    <definedName name="Query_from_AlgoDB_26" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$36:$E$36</definedName>
+    <definedName name="Query_from_AlgoDB_27" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$37:$E$37</definedName>
+    <definedName name="Query_from_AlgoDB_28" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$38:$E$38</definedName>
+    <definedName name="Query_from_AlgoDB_29" localSheetId="4" hidden="1">DB_Monitor_NEW!#REF!</definedName>
     <definedName name="Query_from_AlgoDB_3" localSheetId="4" hidden="1">DB_Monitor_NEW!#REF!</definedName>
-    <definedName name="Query_from_AlgoDB_30" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$35:$E$35</definedName>
-    <definedName name="Query_from_AlgoDB_31" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$37:$E$37</definedName>
-    <definedName name="Query_from_AlgoDB_32" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$38:$E$38</definedName>
-    <definedName name="Query_from_AlgoDB_33" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$40:$E$40</definedName>
-    <definedName name="Query_from_AlgoDB_34" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$9:$E$9</definedName>
-    <definedName name="Query_from_AlgoDB_35" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$19:$E$19</definedName>
-    <definedName name="Query_from_AlgoDB_36" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$29:$E$29</definedName>
-    <definedName name="Query_from_AlgoDB_37" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$39:$E$39</definedName>
+    <definedName name="Query_from_AlgoDB_30" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$39:$E$39</definedName>
+    <definedName name="Query_from_AlgoDB_31" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$40:$E$40</definedName>
+    <definedName name="Query_from_AlgoDB_32" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$41:$E$41</definedName>
+    <definedName name="Query_from_AlgoDB_33" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$43:$E$43</definedName>
+    <definedName name="Query_from_AlgoDB_34" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$8:$E$8</definedName>
+    <definedName name="Query_from_AlgoDB_35" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$20:$E$20</definedName>
+    <definedName name="Query_from_AlgoDB_36" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$31:$E$31</definedName>
+    <definedName name="Query_from_AlgoDB_37" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$42:$E$42</definedName>
+    <definedName name="Query_from_AlgoDB_38" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$10:$E$10</definedName>
+    <definedName name="Query_from_AlgoDB_39" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$11:$E$11</definedName>
     <definedName name="Query_from_AlgoDB_4" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$4:$E$4</definedName>
+    <definedName name="Query_from_AlgoDB_40" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$22:$E$22</definedName>
+    <definedName name="Query_from_AlgoDB_41" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$23:$E$23</definedName>
+    <definedName name="Query_from_AlgoDB_42" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$33:$E$33</definedName>
+    <definedName name="Query_from_AlgoDB_43" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$34:$E$34</definedName>
+    <definedName name="Query_from_AlgoDB_44" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$45:$E$45</definedName>
+    <definedName name="Query_from_AlgoDB_45" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$44:$E$44</definedName>
     <definedName name="Query_from_AlgoDB_5" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$5:$E$5</definedName>
-    <definedName name="Query_from_AlgoDB_6" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$6:$E$6</definedName>
-    <definedName name="Query_from_AlgoDB_7" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$7:$E$7</definedName>
-    <definedName name="Query_from_AlgoDB_8" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$8:$E$8</definedName>
-    <definedName name="Query_from_AlgoDB_9" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$10:$E$10</definedName>
+    <definedName name="Query_from_AlgoDB_6" localSheetId="4" hidden="1">DB_Monitor_NEW!#REF!</definedName>
+    <definedName name="Query_from_AlgoDB_7" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$6:$E$6</definedName>
+    <definedName name="Query_from_AlgoDB_8" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$7:$E$7</definedName>
+    <definedName name="Query_from_AlgoDB_9" localSheetId="4" hidden="1">DB_Monitor_NEW!$C$9:$E$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -92,209 +100,233 @@
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="4" name="Query from AlgoDB111111112" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="4" name="Query from AlgoDB11111111121" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from ETXEUR_H1"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="5" name="Query from AlgoDB111111111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from WTIUSD_H1"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="6" name="Query from AlgoDB1111111112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from WTIUSD_H4"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="7" name="Query from AlgoDB11111111121111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from WTIUSD_D1"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="8" name="Query from AlgoDB111111111212" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from ETXEUR_H4"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="9" name="Query from AlgoDB1111111112121" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from ETXEUR_D1"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="10" name="Query from AlgoDB111111112" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from GBPNZD_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="5" name="Query from AlgoDB1111111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="11" name="Query from AlgoDB1111111121" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from ETXEUR_M1"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="12" name="Query from AlgoDB11111111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from WTIUSD_M1"/>
+    <parameters count="1">
+      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
+    </parameters>
+  </connection>
+  <connection id="13" name="Query from AlgoDB1111111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from USDJPY_H4"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="6" name="Query from AlgoDB11111112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="14" name="Query from AlgoDB11111112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from USDJPY_D1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="7" name="Query from AlgoDB111111121111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="15" name="Query from AlgoDB111111121111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from NZDUSD_D1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="8" name="Query from AlgoDB11111112112" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="16" name="Query from AlgoDB11111112112" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from NZDUSD_H4"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="9" name="Query from AlgoDB111111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="17" name="Query from AlgoDB111111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from USDJPY_H1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="10" name="Query from AlgoDB1111111221" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="18" name="Query from AlgoDB1111111221" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from NZDUSD_H1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="11" name="Query from AlgoDB11111113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="19" name="Query from AlgoDB11111113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from USDJPY_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="12" name="Query from AlgoDB111111131" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="20" name="Query from AlgoDB111111131" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from NZDUSD_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="13" name="Query from AlgoDB111111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="21" name="Query from AlgoDB111111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from SPX_H4"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="14" name="Query from AlgoDB1111112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="22" name="Query from AlgoDB1111112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from SPX_D1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="15" name="Query from AlgoDB11111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="23" name="Query from AlgoDB11111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from SPX_H1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="16" name="Query from AlgoDB1111113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="24" name="Query from AlgoDB1111113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from SPX_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="17" name="Query from AlgoDB11111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
-    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from OIL_H4"/>
-    <parameters count="1">
-      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
-    </parameters>
-  </connection>
-  <connection id="18" name="Query from AlgoDB111112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
-    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from OIL_D1"/>
-    <parameters count="1">
-      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
-    </parameters>
-  </connection>
-  <connection id="19" name="Query from AlgoDB1111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
-    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from OIL_H1"/>
-    <parameters count="1">
-      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
-    </parameters>
-  </connection>
-  <connection id="20" name="Query from AlgoDB111113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
-    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from OIL_M1"/>
-    <parameters count="1">
-      <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
-    </parameters>
-  </connection>
-  <connection id="21" name="Query from AlgoDB1111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="25" name="Query from AlgoDB1111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from XAUUSD_H4"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="22" name="Query from AlgoDB11112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="26" name="Query from AlgoDB11112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from XAUUSD_D1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="23" name="Query from AlgoDB111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="27" name="Query from AlgoDB111122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from XAUUSD_H1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="24" name="Query from AlgoDB11113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="28" name="Query from AlgoDB11113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from XAUUSD_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="25" name="Query from AlgoDB111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="29" name="Query from AlgoDB111211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from GBPUSD_H4"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="26" name="Query from AlgoDB1112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="30" name="Query from AlgoDB1112111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from GBPUSD_D1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="27" name="Query from AlgoDB11122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="31" name="Query from AlgoDB11122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from GBPUSD_H1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="28" name="Query from AlgoDB1113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="32" name="Query from AlgoDB1113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from GBPUSD_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="29" name="Query from AlgoDB11211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="33" name="Query from AlgoDB11211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from EURUSD_D1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="30" name="Query from AlgoDB1122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="34" name="Query from AlgoDB1122" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from EURUSD_H4"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="31" name="Query from AlgoDB113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="35" name="Query from AlgoDB113" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from EURUSD_H1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="32" name="Query from AlgoDB13" type="1" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="Query from AlgoDB13" type="1" refreshedVersion="5" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from EURUSD_M1"/>
     <parameters count="1">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="33" name="Query from AlgoDB211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="37" name="Query from AlgoDB211" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from AUDUSD_H4"/>
     <parameters count="2">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
       <parameter name="Parameter2" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="34" name="Query from AlgoDB2111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="38" name="Query from AlgoDB2111" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from AUDUSD_D1"/>
     <parameters count="2">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
       <parameter name="Parameter2" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="35" name="Query from AlgoDB22" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="39" name="Query from AlgoDB22" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from AUDUSD_H1"/>
     <parameters count="2">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
       <parameter name="Parameter2" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="36" name="Query from AlgoDB3" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
+  <connection id="40" name="Query from AlgoDB3" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=History;PWD=HistoryPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=ification.;" command="select max(newdatetime), count(newdatetime), min(newdatetime) from AUDUSD_M1"/>
     <parameters count="2">
       <parameter name="Parameter1" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
       <parameter name="Parameter2" parameterType="cell" cell="DB_Monitor_NEW!$A$2"/>
     </parameters>
   </connection>
-  <connection id="37" name="Query from MyNN1" type="1" refreshedVersion="5" saveData="1">
+  <connection id="41" name="Query from MyNN1" type="1" refreshedVersion="5" saveData="1">
     <dbPr connection="DSN=MyNN;UID=History;DBQ=MYNN;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;" command="select * from table(RecordCount)"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -306,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="470">
   <si>
     <t>GBPUSD</t>
   </si>
@@ -1586,9 +1618,6 @@
     <t>SPX_D1</t>
   </si>
   <si>
-    <t>OIL_D1</t>
-  </si>
-  <si>
     <t>XAUUSD_D1</t>
   </si>
   <si>
@@ -1610,9 +1639,6 @@
     <t>SPX_H4</t>
   </si>
   <si>
-    <t>OIL_H4</t>
-  </si>
-  <si>
     <t>XAUUSD_H4</t>
   </si>
   <si>
@@ -1634,9 +1660,6 @@
     <t>SPX_H1</t>
   </si>
   <si>
-    <t>OIL_H1</t>
-  </si>
-  <si>
     <t>XAUUSD_H1</t>
   </si>
   <si>
@@ -1658,9 +1681,6 @@
     <t>SPX_M1</t>
   </si>
   <si>
-    <t>OIL_M1</t>
-  </si>
-  <si>
     <t>XAUUSD_M1</t>
   </si>
   <si>
@@ -1695,6 +1715,39 @@
   </si>
   <si>
     <t>NZDUSD_D1</t>
+  </si>
+  <si>
+    <t>History/HistoryPwd@Algo</t>
+  </si>
+  <si>
+    <t>ETXEUR_M1</t>
+  </si>
+  <si>
+    <t>WTIUSD_M1</t>
+  </si>
+  <si>
+    <t>ETXEUR_H1</t>
+  </si>
+  <si>
+    <t>WTIUSD_H1</t>
+  </si>
+  <si>
+    <t>ETXEUR_H4</t>
+  </si>
+  <si>
+    <t>WTIUSD_H4</t>
+  </si>
+  <si>
+    <t>ETXEUR_D1</t>
+  </si>
+  <si>
+    <t>WTIUSD_D1</t>
+  </si>
+  <si>
+    <t>ETXEUR</t>
+  </si>
+  <si>
+    <t>WTIUSD</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1758,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,8 +1790,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1784,12 +1845,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,10 +1931,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1948,9 +2004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1958,14 +2011,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="260">
+  <dxfs count="285">
     <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
@@ -1976,6 +2031,15 @@
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
@@ -1988,6 +2052,18 @@
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
@@ -2060,6 +2136,21 @@
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
@@ -2069,6 +2160,18 @@
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
@@ -2085,6 +2188,153 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
@@ -2096,6 +2346,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="solid">
@@ -2105,6 +2358,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -2114,6 +2370,152 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -2123,6 +2525,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="solid">
@@ -2132,6 +2537,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -2141,49 +2549,150 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
@@ -2195,6 +2704,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="solid">
@@ -2204,6 +2716,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -2213,13 +2728,141 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
@@ -2231,6 +2874,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
         <patternFill patternType="solid">
@@ -2240,6 +2886,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -2249,645 +2898,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
@@ -2908,60 +2918,61 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
@@ -2996,7 +3007,7 @@
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="gcaglion" refreshedDate="41822.426475115739" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="259">
-  <cacheSource type="external" connectionId="37"/>
+  <cacheSource type="external" connectionId="41"/>
   <cacheFields count="7">
     <cacheField name="TABLENAME" numFmtId="0" sqlType="12">
       <sharedItems/>
@@ -5400,7 +5411,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:V20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5599,7 +5610,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5614,7 +5625,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_11" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_12" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5626,7 +5637,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_12" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_14" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5638,7 +5649,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_13" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_15" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5650,7 +5661,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_14" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_16" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5662,7 +5673,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_15" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_17" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5674,31 +5685,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_16" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
-      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
-      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_17" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
-      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
-      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_25" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_25" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5712,8 +5699,32 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_24" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_23" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_24" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_21" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5725,7 +5736,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_23" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_20" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5737,7 +5748,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_2" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_2" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5749,7 +5760,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_22" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_19" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5761,7 +5772,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_21" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_18" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5773,43 +5784,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_20" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
-      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
-      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_19" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
-      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
-      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_18" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
-      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
-      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_26" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_26" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5823,8 +5798,44 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_27" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_28" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_30" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_27" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_31" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5836,7 +5847,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_28" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_32" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5848,7 +5859,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_29" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_33" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5860,7 +5871,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_30" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_34" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5872,7 +5883,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_4" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_4" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5884,7 +5895,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_31" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_35" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5896,7 +5907,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_32" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_36" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5908,7 +5919,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_33" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_37" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5920,7 +5931,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_34" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_38" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5932,7 +5943,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_35" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_39" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5944,7 +5955,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_36" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_40" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5956,7 +5967,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_37" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_41" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_42" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_43" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_45" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5968,7 +6015,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_5" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_5" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_44" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5980,7 +6039,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_6" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_7" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -5992,7 +6051,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_7" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_8" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -6004,7 +6063,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_8" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_9" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -6016,19 +6075,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_9" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh headersInLastRefresh="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
-      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
-      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_10" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_10" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
@@ -6042,294 +6089,350 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from AlgoDB_11" headers="0" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="MAX(NEWDATETIME)" tableColumnId="1"/>
+      <queryTableField id="2" name="COUNT(NEWDATETIME)" tableColumnId="2"/>
+      <queryTableField id="3" name="MIN(NEWDATETIME)" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table_Query_from_AlgoDB29" displayName="Table_Query_from_AlgoDB29" ref="C2:E2" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="259">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table_Query_from_AlgoDB29" displayName="Table_Query_from_AlgoDB29" ref="C2:E2" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="284">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="258" dataDxfId="30"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="257" dataDxfId="29"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="256" dataDxfId="28"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="283" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="282" dataDxfId="51"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="281" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table_Query_from_AlgoDB53" displayName="Table_Query_from_AlgoDB53" ref="C13:E13" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="221">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table_Query_from_AlgoDB5676" displayName="Table_Query_from_AlgoDB5676" ref="C16:E16" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="226">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="220" dataDxfId="57"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="219" dataDxfId="56"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="218" dataDxfId="55"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="225" dataDxfId="224"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="223" dataDxfId="222"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="221" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table_Query_from_AlgoDB5676" displayName="Table_Query_from_AlgoDB5676" ref="C14:E14" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="217">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Table_Query_from_AlgoDB567814" displayName="Table_Query_from_AlgoDB567814" ref="C17:E17" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="219">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="216" dataDxfId="60"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="215" dataDxfId="59"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="214" dataDxfId="58"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="218" dataDxfId="217"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="216" dataDxfId="215"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="214" dataDxfId="213"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table_Query_from_AlgoDB5678913" displayName="Table_Query_from_AlgoDB5678913" ref="C16:E16" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table_Query_from_AlgoDB567891015" displayName="Table_Query_from_AlgoDB567891015" ref="C18:E18" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="211" dataDxfId="63"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="210" dataDxfId="62"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="209" dataDxfId="61"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="210" dataDxfId="209"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="208" dataDxfId="207"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="206" dataDxfId="205"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Table_Query_from_AlgoDB567814" displayName="Table_Query_from_AlgoDB567814" ref="C15:E15" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table_Query_from_AlgoDB56789101116" displayName="Table_Query_from_AlgoDB56789101116" ref="C19:E19" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="204">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="207" dataDxfId="66"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="206" dataDxfId="65"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="205" dataDxfId="64"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="203" dataDxfId="202"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="201" dataDxfId="200"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="199" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table_Query_from_AlgoDB567891015" displayName="Table_Query_from_AlgoDB567891015" ref="C17:E17" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="204" dataDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table_Query_from_AlgoDB5678910111217" displayName="Table_Query_from_AlgoDB5678910111217" ref="C21:E21" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="197">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="202" dataDxfId="69"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="201" dataDxfId="68"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="200" dataDxfId="67"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="196" dataDxfId="195"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="194" dataDxfId="193"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="192" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table_Query_from_AlgoDB56789101116" displayName="Table_Query_from_AlgoDB56789101116" ref="C18:E18" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table_Query_from_AlgoDB218" displayName="Table_Query_from_AlgoDB218" ref="C25:E25" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="190">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="198" dataDxfId="72"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="197" dataDxfId="71"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="196" dataDxfId="70"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="189" dataDxfId="188"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="187" dataDxfId="186"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="185" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table_Query_from_AlgoDB5678910111217" displayName="Table_Query_from_AlgoDB5678910111217" ref="C20:E20" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Table_Query_from_AlgoDB5319" displayName="Table_Query_from_AlgoDB5319" ref="C26:E26" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="183">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="194" dataDxfId="75"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="193" dataDxfId="74"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="192" dataDxfId="73"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="182" dataDxfId="181"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="180" dataDxfId="179"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="178" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table_Query_from_AlgoDB218" displayName="Table_Query_from_AlgoDB218" ref="C22:E22" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table_Query_from_AlgoDB567620" displayName="Table_Query_from_AlgoDB567620" ref="C27:E27" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="176">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="190" dataDxfId="78"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="189" dataDxfId="77"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="188" dataDxfId="76"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="175" dataDxfId="174"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="173" dataDxfId="172"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="171" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Table_Query_from_AlgoDB5319" displayName="Table_Query_from_AlgoDB5319" ref="C23:E23" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table_Query_from_AlgoDB56781422" displayName="Table_Query_from_AlgoDB56781422" ref="C28:E28" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="169">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="186" dataDxfId="81"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="185" dataDxfId="80"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="184" dataDxfId="79"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="168" dataDxfId="167"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="166" dataDxfId="165"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="164" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table_Query_from_AlgoDB567620" displayName="Table_Query_from_AlgoDB567620" ref="C24:E24" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table_Query_from_AlgoDB56789101523" displayName="Table_Query_from_AlgoDB56789101523" ref="C29:E29" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="182" dataDxfId="84"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="181" dataDxfId="83"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="180" dataDxfId="82"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="160" dataDxfId="159"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="158" dataDxfId="157"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="156" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table_Query_from_AlgoDB5" displayName="Table_Query_from_AlgoDB5" ref="C3:E3" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table_Query_from_AlgoDB5" displayName="Table_Query_from_AlgoDB5" ref="C3:E3" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="280">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="254" dataDxfId="33"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="253" dataDxfId="32"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="252" dataDxfId="31"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="279" dataDxfId="278"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="277" dataDxfId="276"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="275" dataDxfId="274"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table_Query_from_AlgoDB567891321" displayName="Table_Query_from_AlgoDB567891321" ref="C26:E26" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table_Query_from_AlgoDB5678910111624" displayName="Table_Query_from_AlgoDB5678910111624" ref="C30:E30" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="154">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="177" dataDxfId="87"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="176" dataDxfId="86"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="175" dataDxfId="85"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="153" dataDxfId="152"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="151" dataDxfId="150"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="149" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table_Query_from_AlgoDB56781422" displayName="Table_Query_from_AlgoDB56781422" ref="C25:E25" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table_Query_from_AlgoDB567891011121725" displayName="Table_Query_from_AlgoDB567891011121725" ref="C32:E32" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="147">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="173" dataDxfId="90"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="172" dataDxfId="89"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="171" dataDxfId="88"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="146" dataDxfId="145"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="144" dataDxfId="143"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="142" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table_Query_from_AlgoDB56789101523" displayName="Table_Query_from_AlgoDB56789101523" ref="C27:E27" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Table_Query_from_AlgoDB21826" displayName="Table_Query_from_AlgoDB21826" ref="C36:E36" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="168" dataDxfId="93"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="167" dataDxfId="92"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="166" dataDxfId="91"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="139" dataDxfId="138"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="137" dataDxfId="136"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="135" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table_Query_from_AlgoDB5678910111624" displayName="Table_Query_from_AlgoDB5678910111624" ref="C28:E28" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Table_Query_from_AlgoDB531927" displayName="Table_Query_from_AlgoDB531927" ref="C37:E37" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="133">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="164" dataDxfId="96"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="163" dataDxfId="95"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="162" dataDxfId="94"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="132" dataDxfId="131"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="130" dataDxfId="129"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="128" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table_Query_from_AlgoDB567891011121725" displayName="Table_Query_from_AlgoDB567891011121725" ref="C30:E30" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Table_Query_from_AlgoDB56762028" displayName="Table_Query_from_AlgoDB56762028" ref="C38:E38" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="160" dataDxfId="99"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="159" dataDxfId="98"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="158" dataDxfId="97"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="125" dataDxfId="124"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="123" dataDxfId="122"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="121" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Table_Query_from_AlgoDB21826" displayName="Table_Query_from_AlgoDB21826" ref="C32:E32" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Table_Query_from_AlgoDB5678142230" displayName="Table_Query_from_AlgoDB5678142230" ref="C39:E39" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="119">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="156" dataDxfId="102"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="155" dataDxfId="101"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="154" dataDxfId="100"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="118" dataDxfId="117"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="116" dataDxfId="115"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="114" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Table_Query_from_AlgoDB531927" displayName="Table_Query_from_AlgoDB531927" ref="C33:E33" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Table_Query_from_AlgoDB5678910152331" displayName="Table_Query_from_AlgoDB5678910152331" ref="C40:E40" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="152" dataDxfId="105"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="151" dataDxfId="104"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="150" dataDxfId="103"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="110" dataDxfId="109"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="108" dataDxfId="107"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="106" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Table_Query_from_AlgoDB56762028" displayName="Table_Query_from_AlgoDB56762028" ref="C34:E34" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Table_Query_from_AlgoDB567891011162432" displayName="Table_Query_from_AlgoDB567891011162432" ref="C41:E41" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="104">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="148" dataDxfId="108"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="147" dataDxfId="107"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="146" dataDxfId="106"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="103" dataDxfId="102"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="99" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Table_Query_from_AlgoDB56789132129" displayName="Table_Query_from_AlgoDB56789132129" ref="C36:E36" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Table_Query_from_AlgoDB56789101112172533" displayName="Table_Query_from_AlgoDB56789101112172533" ref="C43:E43" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="97">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="143" dataDxfId="111"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="142" dataDxfId="110"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="141" dataDxfId="109"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="92" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Table_Query_from_AlgoDB5678142230" displayName="Table_Query_from_AlgoDB5678142230" ref="C35:E35" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_AlgoDB5678910112" displayName="Table_Query_from_AlgoDB5678910112" ref="C8:E8" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="90">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="139" dataDxfId="114"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="138" dataDxfId="113"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="137" dataDxfId="112"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="87" dataDxfId="86"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="85" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table_Query_from_AlgoDB567" displayName="Table_Query_from_AlgoDB567" ref="C4:E4" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table_Query_from_AlgoDB567" displayName="Table_Query_from_AlgoDB567" ref="C4:E4" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="273">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="250" dataDxfId="36"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="249" dataDxfId="35"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="248" dataDxfId="34"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="272" dataDxfId="271"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="270" dataDxfId="269"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="268" dataDxfId="267"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Table_Query_from_AlgoDB5678910152331" displayName="Table_Query_from_AlgoDB5678910152331" ref="C37:E37" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Query_from_AlgoDB567891011163" displayName="Table_Query_from_AlgoDB567891011163" ref="C20:E20" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="83">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="134" dataDxfId="117"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="133" dataDxfId="116"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="132" dataDxfId="115"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Table_Query_from_AlgoDB567891011162432" displayName="Table_Query_from_AlgoDB567891011162432" ref="C38:E38" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Query_from_AlgoDB56789101116244" displayName="Table_Query_from_AlgoDB56789101116244" ref="C31:E31" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="76">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="130" dataDxfId="120"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="129" dataDxfId="119"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="128" dataDxfId="118"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="71" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Table_Query_from_AlgoDB56789101112172533" displayName="Table_Query_from_AlgoDB56789101112172533" ref="C40:E40" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Query_from_AlgoDB5678910111624325" displayName="Table_Query_from_AlgoDB5678910111624325" ref="C42:E42" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="126" dataDxfId="123"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="125" dataDxfId="122"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="124" dataDxfId="121"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="68" dataDxfId="67"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="66" dataDxfId="65"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="64" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_AlgoDB5678910112" displayName="Table_Query_from_AlgoDB5678910112" ref="C9:E9" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_Query_from_AlgoDB567891011126" displayName="Table_Query_from_AlgoDB567891011126" ref="C10:E10" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="62">
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="61" dataDxfId="58"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="60" dataDxfId="57"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="59" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_Query_from_AlgoDB5678910111267" displayName="Table_Query_from_AlgoDB5678910111267" ref="C11:E11" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="49">
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="48" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="47" dataDxfId="44"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="46" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_Query_from_AlgoDB56789101112178" displayName="Table_Query_from_AlgoDB56789101112178" ref="C22:E22" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="42">
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="41" dataDxfId="37"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="40" dataDxfId="36"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="39" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_Query_from_AlgoDB5678910111217810" displayName="Table_Query_from_AlgoDB5678910111217810" ref="C23:E23" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="33" dataDxfId="30"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="32" dataDxfId="29"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="31" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_Query_from_AlgoDB5678910111217811" displayName="Table_Query_from_AlgoDB5678910111217811" ref="C33:E33" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="26" dataDxfId="23"/>
     <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="25" dataDxfId="22"/>
@@ -6339,8 +6442,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_Query_from_AlgoDB567891011163" displayName="Table_Query_from_AlgoDB567891011163" ref="C19:E19" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20">
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_Query_from_AlgoDB567891011121781012" displayName="Table_Query_from_AlgoDB567891011121781012" ref="C34:E34" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20">
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="19" dataDxfId="16"/>
     <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="18" dataDxfId="15"/>
@@ -6350,89 +6453,89 @@
 </table>
 </file>
 
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_Query_from_AlgoDB56789101116244" displayName="Table_Query_from_AlgoDB56789101116244" ref="C29:E29" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13">
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_Query_from_AlgoDB567891011121781113" displayName="Table_Query_from_AlgoDB567891011121781113" ref="C44:E44" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="12" dataDxfId="9"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="11" dataDxfId="8"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="10" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_Query_from_AlgoDB5678910111624325" displayName="Table_Query_from_AlgoDB5678910111624325" ref="C39:E39" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6">
-  <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="5" dataDxfId="2"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="4" dataDxfId="1"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="3" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="12" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="11" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="10" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table_Query_from_AlgoDB5678" displayName="Table_Query_from_AlgoDB5678" ref="C5:E5" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="247">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table_Query_from_AlgoDB5678" displayName="Table_Query_from_AlgoDB5678" ref="C5:E5" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="266">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="246" dataDxfId="39"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="245" dataDxfId="38"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="244" dataDxfId="37"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="265" dataDxfId="264"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="263" dataDxfId="262"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="261" dataDxfId="260"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_Query_from_AlgoDB56789101112178101214" displayName="Table_Query_from_AlgoDB56789101112178101214" ref="C45:E45" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9">
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="8" dataDxfId="2"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="7" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table_Query_from_AlgoDB56789" displayName="Table_Query_from_AlgoDB56789" ref="C6:E6" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="243" dataDxfId="242">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table_Query_from_AlgoDB5678910" displayName="Table_Query_from_AlgoDB5678910" ref="C6:E6" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="259" dataDxfId="258">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="241" dataDxfId="42"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="240" dataDxfId="41"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="239" dataDxfId="40"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="257" dataDxfId="256"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="255" dataDxfId="254"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="253" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table_Query_from_AlgoDB5678910" displayName="Table_Query_from_AlgoDB5678910" ref="C7:E7" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="238" dataDxfId="237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table_Query_from_AlgoDB567891011" displayName="Table_Query_from_AlgoDB567891011" ref="C7:E7" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="251">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="236" dataDxfId="45"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="235" dataDxfId="44"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="234" dataDxfId="43"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="250" dataDxfId="249"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="248" dataDxfId="247"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="246" dataDxfId="245"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table_Query_from_AlgoDB567891011" displayName="Table_Query_from_AlgoDB567891011" ref="C8:E8" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table_Query_from_AlgoDB56789101112" displayName="Table_Query_from_AlgoDB56789101112" ref="C9:E9" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="244">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="232" dataDxfId="48"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="231" dataDxfId="47"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="230" dataDxfId="46"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="243" dataDxfId="55"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="242" dataDxfId="54"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="241" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table_Query_from_AlgoDB56789101112" displayName="Table_Query_from_AlgoDB56789101112" ref="C10:E10" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="229">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table_Query_from_AlgoDB2" displayName="Table_Query_from_AlgoDB2" ref="C14:E14" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="240">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="228" dataDxfId="51"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="227" dataDxfId="50"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="226" dataDxfId="49"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="239" dataDxfId="238"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="237" dataDxfId="236"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="235" dataDxfId="234"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table_Query_from_AlgoDB2" displayName="Table_Query_from_AlgoDB2" ref="C12:E12" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="225">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table_Query_from_AlgoDB53" displayName="Table_Query_from_AlgoDB53" ref="C15:E15" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="233">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="224" dataDxfId="54"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="223" dataDxfId="53"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="222" dataDxfId="52"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="232" dataDxfId="231"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="230" dataDxfId="229"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="228" dataDxfId="227"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10235,15 +10338,15 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -10428,8 +10531,8 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -11607,8 +11710,8 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
@@ -15100,10 +15203,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15119,548 +15222,490 @@
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" s="52"/>
+      <c r="C1" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C2" s="47">
-        <v>43035.706944444442</v>
+        <v>43465.706944444442</v>
       </c>
       <c r="D2" s="18">
-        <v>5093117</v>
+        <v>5525543</v>
       </c>
       <c r="E2" s="47">
         <v>36682.502083333333</v>
       </c>
-      <c r="G2" t="str">
-        <f>"delete from "&amp;A2&amp;" where to_char(newdatetime,'YYYY')='2017';"</f>
-        <v>delete from AUDUSD_M1 where to_char(newdatetime,'YYYY')='2017';</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C3" s="47">
-        <v>43035.706944444442</v>
+        <v>43098.706250000003</v>
       </c>
       <c r="D3" s="18">
-        <v>5725097</v>
+        <v>5788261</v>
       </c>
       <c r="E3" s="47">
         <v>36676.727083333331</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G10" si="0">"delete from "&amp;A3&amp;" where to_char(newdatetime,'YYYY')='2017';"</f>
-        <v>delete from EURUSD_M1 where to_char(newdatetime,'YYYY')='2017';</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C4" s="47">
-        <v>43035.706250000003</v>
+        <v>43098.706250000003</v>
       </c>
       <c r="D4" s="18">
-        <v>5610876</v>
+        <v>5673932</v>
       </c>
       <c r="E4" s="47">
         <v>36676.749305555553</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>delete from GBPUSD_M1 where to_char(newdatetime,'YYYY')='2017';</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C5" s="47">
-        <v>43035.706944444442</v>
+        <v>43098.706944444442</v>
       </c>
       <c r="D5" s="18">
-        <v>3027815</v>
+        <v>3088068</v>
       </c>
       <c r="E5" s="47">
         <v>39887.708333333336</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>delete from XAUUSD_M1 where to_char(newdatetime,'YYYY')='2017';</v>
-      </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>450</v>
+      <c r="A6" t="s">
+        <v>446</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49">
-        <v>0</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="51"/>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>delete from OIL_M1 where to_char(newdatetime,'YYYY')='2017';</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="47">
+        <v>43098.706944444442</v>
+      </c>
+      <c r="D6" s="18">
+        <v>4050805</v>
+      </c>
+      <c r="E6" s="47">
+        <v>34936.396527777775</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7"/>
+        <v>445</v>
+      </c>
       <c r="C7" s="47">
-        <v>43035.706944444442</v>
+        <v>43098.706944444442</v>
       </c>
       <c r="D7" s="18">
-        <v>4009330</v>
+        <v>5752161</v>
       </c>
       <c r="E7" s="47">
-        <v>34936.396527777775</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>delete from SPX_M1 where to_char(newdatetime,'YYYY')='2017';</v>
+        <v>36676.748611111114</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C8" s="47">
-        <v>43035.706944444442</v>
+        <v>43098.705555555556</v>
       </c>
       <c r="D8" s="18">
-        <v>5689012</v>
+        <v>3837426</v>
       </c>
       <c r="E8" s="47">
-        <v>36676.748611111114</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>delete from USDJPY_M1 where to_char(newdatetime,'YYYY')='2017';</v>
+        <v>38576.709027777775</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C9" s="47">
-        <v>43035.706944444442</v>
+        <v>43465.706944444442</v>
       </c>
       <c r="D9" s="18">
-        <v>3774992</v>
+        <v>3957732</v>
       </c>
       <c r="E9" s="47">
-        <v>38576.709027777775</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ref="G9" si="1">"delete from "&amp;A9&amp;" where to_char(newdatetime,'YYYY')='2017';"</f>
-        <v>delete from NZDUSD_M1 where to_char(newdatetime,'YYYY')='2017';</v>
+        <v>39537.708333333336</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C10" s="47">
-        <v>43035.706250000003</v>
+        <v>43465.331944444442</v>
       </c>
       <c r="D10" s="18">
-        <v>3522329</v>
+        <v>1277846</v>
       </c>
       <c r="E10" s="47">
-        <v>39537.708333333336</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>delete from GBPNZD_M1 where to_char(newdatetime,'YYYY')='2017';</v>
+        <v>40497.083333333336</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="47">
+        <v>43465.677777777775</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2555385</v>
+      </c>
+      <c r="E11" s="47">
+        <v>40496.84375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" s="47">
-        <v>42362.5</v>
-      </c>
-      <c r="D12" s="18">
-        <v>88174</v>
-      </c>
-      <c r="E12" s="47">
-        <v>36682.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="47">
-        <v>42734.625</v>
-      </c>
-      <c r="D13" s="18">
-        <v>100500</v>
-      </c>
-      <c r="E13" s="47">
-        <v>36676.708333333336</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13:G20" si="2">"truncate table "&amp;A13&amp;";"</f>
-        <v>truncate table EURUSD_H1;</v>
-      </c>
-      <c r="H13" t="str">
-        <f>"execute DataCompact('"&amp;A3&amp;"','"&amp;A13&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('EURUSD_M1','EURUSD_H1',60);</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="47">
-        <v>42734.625</v>
+        <v>42362.5</v>
       </c>
       <c r="D14" s="18">
-        <v>100507</v>
+        <v>88174</v>
       </c>
       <c r="E14" s="47">
-        <v>36676.708333333336</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>truncate table GBPUSD_H1;</v>
-      </c>
-      <c r="H14" t="str">
-        <f>"execute DataCompact('"&amp;A4&amp;"','"&amp;A14&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('GBPUSD_M1','GBPUSD_H1',60);</v>
+        <v>36682.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="47">
-        <v>42734.625</v>
+        <v>43098.625</v>
       </c>
       <c r="D15" s="18">
-        <v>47271</v>
+        <v>106707</v>
       </c>
       <c r="E15" s="47">
-        <v>39887.708333333336</v>
+        <v>36676.708333333336</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>truncate table XAUUSD_H1;</v>
+        <f t="shared" ref="G15:G21" si="0">"truncate table "&amp;A15&amp;";"</f>
+        <v>truncate table EURUSD_H1;</v>
       </c>
       <c r="H15" t="str">
-        <f>"execute DataCompact('"&amp;A5&amp;"','"&amp;A15&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('XAUUSD_M1','XAUUSD_H1',60);</v>
+        <f>"execute DataCompact('"&amp;A3&amp;"','"&amp;A15&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('EURUSD_M1','EURUSD_H1',60);</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49">
-        <v>0</v>
-      </c>
-      <c r="E16" s="48"/>
+      <c r="A16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="47">
+        <v>43098.625</v>
+      </c>
+      <c r="D16" s="18">
+        <v>106714</v>
+      </c>
+      <c r="E16" s="47">
+        <v>36676.708333333336</v>
+      </c>
       <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>truncate table OIL_H1;</v>
+        <f t="shared" si="0"/>
+        <v>truncate table GBPUSD_H1;</v>
       </c>
       <c r="H16" t="str">
-        <f>"execute DataCompact('"&amp;A6&amp;"','"&amp;A16&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('OIL_M1','OIL_H1',60);</v>
+        <f>"execute DataCompact('"&amp;A4&amp;"','"&amp;A16&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('GBPUSD_M1','GBPUSD_H1',60);</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C17" s="47">
-        <v>42734.625</v>
+        <v>43098.625</v>
       </c>
       <c r="D17" s="18">
-        <v>103548</v>
+        <v>53215</v>
       </c>
       <c r="E17" s="47">
-        <v>34936.375</v>
+        <v>39887.708333333336</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>truncate table SPX_H1;</v>
+        <f t="shared" si="0"/>
+        <v>truncate table XAUUSD_H1;</v>
       </c>
       <c r="H17" t="str">
-        <f>"execute DataCompact('"&amp;A7&amp;"','"&amp;A17&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('SPX_M1','SPX_H1',60);</v>
+        <f>"execute DataCompact('"&amp;A5&amp;"','"&amp;A17&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('XAUUSD_M1','XAUUSD_H1',60);</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C18" s="47">
-        <v>42734.625</v>
+        <v>43098.625</v>
       </c>
       <c r="D18" s="18">
-        <v>100594</v>
+        <v>109381</v>
       </c>
       <c r="E18" s="47">
-        <v>36676.708333333336</v>
+        <v>34936.375</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>truncate table USDJPY_H1;</v>
+        <f t="shared" si="0"/>
+        <v>truncate table SPX_H1;</v>
       </c>
       <c r="H18" t="str">
-        <f>"execute DataCompact('"&amp;A8&amp;"','"&amp;A18&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('USDJPY_M1','USDJPY_H1',60);</v>
+        <f>"execute DataCompact('"&amp;A6&amp;"','"&amp;A18&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('SPX_M1','SPX_H1',60);</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C19" s="47">
-        <v>42362.5</v>
+        <v>43098.625</v>
       </c>
       <c r="D19" s="18">
-        <v>64348</v>
+        <v>106801</v>
       </c>
       <c r="E19" s="47">
-        <v>38576.708333333336</v>
+        <v>36676.708333333336</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19" si="3">"truncate table "&amp;A19&amp;";"</f>
-        <v>truncate table NZDUSD_H1;</v>
+        <f t="shared" si="0"/>
+        <v>truncate table USDJPY_H1;</v>
       </c>
       <c r="H19" t="str">
-        <f>"execute DataCompact('"&amp;A9&amp;"','"&amp;A19&amp;"',"&amp;A$11&amp;");"</f>
-        <v>execute DataCompact('NZDUSD_M1','NZDUSD_H1',60);</v>
+        <f>"execute DataCompact('"&amp;A7&amp;"','"&amp;A19&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('USDJPY_M1','USDJPY_H1',60);</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C20" s="47">
-        <v>42734.625</v>
+        <v>43098.625</v>
       </c>
       <c r="D20" s="18">
-        <v>54271</v>
+        <v>73075</v>
       </c>
       <c r="E20" s="47">
+        <v>38576.708333333336</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20" si="1">"truncate table "&amp;A20&amp;";"</f>
+        <v>truncate table NZDUSD_H1;</v>
+      </c>
+      <c r="H20" t="str">
+        <f>"execute DataCompact('"&amp;A8&amp;"','"&amp;A20&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('NZDUSD_M1','NZDUSD_H1',60);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="47">
+        <v>43098.625</v>
+      </c>
+      <c r="D21" s="18">
+        <v>60478</v>
+      </c>
+      <c r="E21" s="47">
         <v>39537.708333333336</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="2"/>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
         <v>truncate table GBPNZD_H1;</v>
       </c>
-      <c r="H20" t="str">
-        <f>"execute DataCompact('"&amp;A10&amp;"','"&amp;A20&amp;"',"&amp;A$11&amp;");"</f>
+      <c r="H21" t="str">
+        <f>"execute DataCompact('"&amp;A9&amp;"','"&amp;A21&amp;"',"&amp;A$13&amp;");"</f>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_H1',60);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C22" s="47">
-        <v>42734.5</v>
+        <v>43465.25</v>
       </c>
       <c r="D22" s="18">
-        <v>24541</v>
+        <v>29065</v>
       </c>
       <c r="E22" s="47">
-        <v>36682.5</v>
+        <v>40497.083333333336</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G30" si="4">"truncate table "&amp;A22&amp;";"</f>
-        <v>truncate table AUDUSD_H4;</v>
+        <f t="shared" ref="G22" si="2">"truncate table "&amp;A22&amp;";"</f>
+        <v>truncate table ETXEUR_H1;</v>
       </c>
       <c r="H22" t="str">
-        <f>"execute DataCompact('"&amp;A2&amp;"','"&amp;A22&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('AUDUSD_M1','AUDUSD_H4',240);</v>
+        <f t="shared" ref="H22" si="3">"execute DataCompact('"&amp;A10&amp;"','"&amp;A22&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_H1',60);</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C23" s="47">
-        <v>42734.5</v>
+        <v>43465.625</v>
       </c>
       <c r="D23" s="18">
-        <v>26070</v>
+        <v>48486</v>
       </c>
       <c r="E23" s="47">
-        <v>36676.666666666664</v>
+        <v>40496.833333333336</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table EURUSD_H4;</v>
+        <f t="shared" ref="G23" si="4">"truncate table "&amp;A23&amp;";"</f>
+        <v>truncate table WTIUSD_H1;</v>
       </c>
       <c r="H23" t="str">
-        <f>"execute DataCompact('"&amp;A3&amp;"','"&amp;A23&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('EURUSD_M1','EURUSD_H4',240);</v>
+        <f t="shared" ref="H23" si="5">"execute DataCompact('"&amp;A11&amp;"','"&amp;A23&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_H1',60);</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" s="47">
-        <v>42734.5</v>
-      </c>
-      <c r="D24" s="18">
-        <v>26075</v>
-      </c>
-      <c r="E24" s="47">
-        <v>36676.666666666664</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table GBPUSD_H4;</v>
-      </c>
-      <c r="H24" t="str">
-        <f>"execute DataCompact('"&amp;A4&amp;"','"&amp;A24&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('GBPUSD_M1','GBPUSD_H4',240);</v>
+      <c r="A24">
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="47">
+        <v>43098.5</v>
+      </c>
+      <c r="D25" s="18">
+        <v>26145</v>
+      </c>
+      <c r="E25" s="47">
+        <v>36682.5</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:G34" si="6">"truncate table "&amp;A25&amp;";"</f>
+        <v>truncate table AUDUSD_H4;</v>
+      </c>
+      <c r="H25" t="str">
+        <f>"execute DataCompact('"&amp;A2&amp;"','"&amp;A25&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('AUDUSD_M1','AUDUSD_H4',240);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>435</v>
       </c>
-      <c r="C25" s="47">
-        <v>42734.5</v>
-      </c>
-      <c r="D25" s="18">
-        <v>12469</v>
-      </c>
-      <c r="E25" s="47">
-        <v>39887.666666666664</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table XAUUSD_H4;</v>
-      </c>
-      <c r="H25" t="str">
-        <f>"execute DataCompact('"&amp;A5&amp;"','"&amp;A25&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('XAUUSD_M1','XAUUSD_H4',240);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49">
-        <v>0</v>
-      </c>
-      <c r="E26" s="48"/>
+      <c r="C26" s="47">
+        <v>43098.5</v>
+      </c>
+      <c r="D26" s="18">
+        <v>27674</v>
+      </c>
+      <c r="E26" s="47">
+        <v>36676.666666666664</v>
+      </c>
       <c r="G26" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table OIL_H4;</v>
+        <f t="shared" si="6"/>
+        <v>truncate table EURUSD_H4;</v>
       </c>
       <c r="H26" t="str">
-        <f>"execute DataCompact('"&amp;A6&amp;"','"&amp;A26&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('OIL_M1','OIL_H4',240);</v>
+        <f>"execute DataCompact('"&amp;A3&amp;"','"&amp;A26&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('EURUSD_M1','EURUSD_H4',240);</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C27" s="47">
-        <v>42734.5</v>
+        <v>43098.5</v>
       </c>
       <c r="D27" s="18">
-        <v>28617</v>
+        <v>27679</v>
       </c>
       <c r="E27" s="47">
-        <v>34936.333333333336</v>
+        <v>36676.666666666664</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table SPX_H4;</v>
+        <f t="shared" si="6"/>
+        <v>truncate table GBPUSD_H4;</v>
       </c>
       <c r="H27" t="str">
-        <f>"execute DataCompact('"&amp;A7&amp;"','"&amp;A27&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('SPX_M1','SPX_H4',240);</v>
+        <f>"execute DataCompact('"&amp;A4&amp;"','"&amp;A27&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('GBPUSD_M1','GBPUSD_H4',240);</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C28" s="47">
-        <v>42734.5</v>
+        <v>43098.5</v>
       </c>
       <c r="D28" s="18">
-        <v>26093</v>
+        <v>14062</v>
       </c>
       <c r="E28" s="47">
-        <v>36676.666666666664</v>
+        <v>39887.666666666664</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table USDJPY_H4;</v>
+        <f t="shared" si="6"/>
+        <v>truncate table XAUUSD_H4;</v>
       </c>
       <c r="H28" t="str">
-        <f>"execute DataCompact('"&amp;A8&amp;"','"&amp;A28&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('USDJPY_M1','USDJPY_H4',240);</v>
+        <f>"execute DataCompact('"&amp;A5&amp;"','"&amp;A28&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('XAUUSD_M1','XAUUSD_H4',240);</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C29" s="47">
-        <v>42362.333333333336</v>
+        <v>43098.5</v>
       </c>
       <c r="D29" s="18">
-        <v>16637</v>
+        <v>30179</v>
       </c>
       <c r="E29" s="47">
-        <v>38576.666666666664</v>
+        <v>34936.333333333336</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29" si="5">"truncate table "&amp;A29&amp;";"</f>
-        <v>truncate table NZDUSD_H4;</v>
+        <f t="shared" si="6"/>
+        <v>truncate table SPX_H4;</v>
       </c>
       <c r="H29" t="str">
-        <f>"execute DataCompact('"&amp;A9&amp;"','"&amp;A29&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('NZDUSD_M1','NZDUSD_H4',240);</v>
+        <f>"execute DataCompact('"&amp;A6&amp;"','"&amp;A29&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('SPX_M1','SPX_H4',240);</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15668,26 +15713,43 @@
         <v>431</v>
       </c>
       <c r="C30" s="47">
-        <v>42734.5</v>
+        <v>43098.5</v>
       </c>
       <c r="D30" s="18">
-        <v>14030</v>
+        <v>27697</v>
       </c>
       <c r="E30" s="47">
-        <v>39537.666666666664</v>
+        <v>36676.666666666664</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="4"/>
-        <v>truncate table GBPNZD_H4;</v>
+        <f t="shared" si="6"/>
+        <v>truncate table USDJPY_H4;</v>
       </c>
       <c r="H30" t="str">
-        <f>"execute DataCompact('"&amp;A10&amp;"','"&amp;A30&amp;"',"&amp;A$21&amp;");"</f>
-        <v>execute DataCompact('GBPNZD_M1','GBPNZD_H4',240);</v>
+        <f>"execute DataCompact('"&amp;A7&amp;"','"&amp;A30&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('USDJPY_M1','USDJPY_H4',240);</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1440</v>
+      <c r="A31" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" s="47">
+        <v>43098.5</v>
+      </c>
+      <c r="D31" s="18">
+        <v>18892</v>
+      </c>
+      <c r="E31" s="47">
+        <v>38576.666666666664</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ref="G31" si="7">"truncate table "&amp;A31&amp;";"</f>
+        <v>truncate table NZDUSD_H4;</v>
+      </c>
+      <c r="H31" t="str">
+        <f>"execute DataCompact('"&amp;A8&amp;"','"&amp;A31&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('NZDUSD_M1','NZDUSD_H4',240);</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15695,199 +15757,296 @@
         <v>430</v>
       </c>
       <c r="C32" s="47">
-        <v>42733</v>
+        <v>43098.5</v>
       </c>
       <c r="D32" s="18">
-        <v>4829</v>
+        <v>15634</v>
       </c>
       <c r="E32" s="47">
-        <v>36682</v>
+        <v>39537.666666666664</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ref="G32:G40" si="6">"truncate table "&amp;A32&amp;";"</f>
-        <v>truncate table AUDUSD_D1;</v>
+        <f t="shared" si="6"/>
+        <v>truncate table GBPNZD_H4;</v>
       </c>
       <c r="H32" t="str">
-        <f>"execute DataCompact('"&amp;A2&amp;"','"&amp;A32&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('AUDUSD_M1','AUDUSD_D1',1440);</v>
+        <f>"execute DataCompact('"&amp;A9&amp;"','"&amp;A32&amp;"',"&amp;A$24&amp;");"</f>
+        <v>execute DataCompact('GBPNZD_M1','GBPNZD_H4',240);</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="C33" s="47">
-        <v>42733</v>
+        <v>43465</v>
       </c>
       <c r="D33" s="18">
-        <v>5073</v>
+        <v>8544</v>
       </c>
       <c r="E33" s="47">
-        <v>36676</v>
+        <v>40497</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="6"/>
-        <v>truncate table EURUSD_D1;</v>
+        <v>truncate table ETXEUR_H4;</v>
       </c>
       <c r="H33" t="str">
-        <f>"execute DataCompact('"&amp;A3&amp;"','"&amp;A33&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('EURUSD_M1','EURUSD_D1',1440);</v>
+        <f t="shared" ref="H33:H34" si="8">"execute DataCompact('"&amp;A21&amp;"','"&amp;A33&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('GBPNZD_H1','ETXEUR_H4',60);</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="C34" s="47">
-        <v>42733</v>
+        <v>43465.5</v>
       </c>
       <c r="D34" s="18">
-        <v>5076</v>
+        <v>12882</v>
       </c>
       <c r="E34" s="47">
-        <v>36676</v>
+        <v>40496.833333333336</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="6"/>
-        <v>truncate table GBPUSD_D1;</v>
+        <v>truncate table WTIUSD_H4;</v>
       </c>
       <c r="H34" t="str">
-        <f>"execute DataCompact('"&amp;A4&amp;"','"&amp;A34&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('GBPUSD_M1','GBPUSD_D1',1440);</v>
+        <f t="shared" si="8"/>
+        <v>execute DataCompact('ETXEUR_H1','WTIUSD_H4',60);</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>427</v>
-      </c>
-      <c r="C35" s="47">
-        <v>42733</v>
-      </c>
-      <c r="D35" s="18">
-        <v>2424</v>
-      </c>
-      <c r="E35" s="47">
-        <v>39887</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="6"/>
-        <v>truncate table XAUUSD_D1;</v>
-      </c>
-      <c r="H35" t="str">
-        <f>"execute DataCompact('"&amp;A5&amp;"','"&amp;A35&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('XAUUSD_M1','XAUUSD_D1',1440);</v>
+      <c r="A35">
+        <v>1440</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49">
-        <v>0</v>
-      </c>
-      <c r="E36" s="48"/>
+      <c r="A36" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="47">
+        <v>43097</v>
+      </c>
+      <c r="D36" s="18">
+        <v>5139</v>
+      </c>
+      <c r="E36" s="47">
+        <v>36682</v>
+      </c>
       <c r="G36" t="str">
-        <f t="shared" si="6"/>
-        <v>truncate table OIL_D1;</v>
+        <f t="shared" ref="G36:G45" si="9">"truncate table "&amp;A36&amp;";"</f>
+        <v>truncate table AUDUSD_D1;</v>
       </c>
       <c r="H36" t="str">
-        <f>"execute DataCompact('"&amp;A6&amp;"','"&amp;A36&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('OIL_M1','OIL_D1',1440);</v>
+        <f>"execute DataCompact('"&amp;A2&amp;"','"&amp;A36&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('AUDUSD_M1','AUDUSD_D1',1440);</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C37" s="47">
-        <v>42733</v>
+        <v>43097</v>
       </c>
       <c r="D37" s="18">
-        <v>6235</v>
+        <v>5383</v>
       </c>
       <c r="E37" s="47">
-        <v>34936</v>
+        <v>36676</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="6"/>
-        <v>truncate table SPX_D1;</v>
+        <f t="shared" si="9"/>
+        <v>truncate table EURUSD_D1;</v>
       </c>
       <c r="H37" t="str">
-        <f>"execute DataCompact('"&amp;A7&amp;"','"&amp;A37&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('SPX_M1','SPX_D1',1440);</v>
+        <f>"execute DataCompact('"&amp;A3&amp;"','"&amp;A37&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('EURUSD_M1','EURUSD_D1',1440);</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C38" s="47">
-        <v>42733</v>
+        <v>43097</v>
       </c>
       <c r="D38" s="18">
-        <v>5078</v>
+        <v>5386</v>
       </c>
       <c r="E38" s="47">
         <v>36676</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="6"/>
-        <v>truncate table USDJPY_D1;</v>
+        <f t="shared" si="9"/>
+        <v>truncate table GBPUSD_D1;</v>
       </c>
       <c r="H38" t="str">
-        <f>"execute DataCompact('"&amp;A8&amp;"','"&amp;A38&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('USDJPY_M1','USDJPY_D1',1440);</v>
+        <f>"execute DataCompact('"&amp;A4&amp;"','"&amp;A38&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('GBPUSD_M1','GBPUSD_D1',1440);</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="C39" s="47">
-        <v>42361</v>
+        <v>43097</v>
       </c>
       <c r="D39" s="18">
-        <v>3230</v>
+        <v>2733</v>
       </c>
       <c r="E39" s="47">
-        <v>38576</v>
+        <v>39887</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ref="G39" si="7">"truncate table "&amp;A39&amp;";"</f>
-        <v>truncate table NZDUSD_D1;</v>
+        <f t="shared" si="9"/>
+        <v>truncate table XAUUSD_D1;</v>
       </c>
       <c r="H39" t="str">
-        <f>"execute DataCompact('"&amp;A9&amp;"','"&amp;A39&amp;"',"&amp;A$31&amp;");"</f>
-        <v>execute DataCompact('NZDUSD_M1','NZDUSD_D1',1440);</v>
+        <f>"execute DataCompact('"&amp;A5&amp;"','"&amp;A39&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('XAUUSD_M1','XAUUSD_D1',1440);</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="47">
+        <v>43097</v>
+      </c>
+      <c r="D40" s="18">
+        <v>6538</v>
+      </c>
+      <c r="E40" s="47">
+        <v>34936</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="9"/>
+        <v>truncate table SPX_D1;</v>
+      </c>
+      <c r="H40" t="str">
+        <f>"execute DataCompact('"&amp;A6&amp;"','"&amp;A40&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('SPX_M1','SPX_D1',1440);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>424</v>
+      </c>
+      <c r="C41" s="47">
+        <v>43097</v>
+      </c>
+      <c r="D41" s="18">
+        <v>5388</v>
+      </c>
+      <c r="E41" s="47">
+        <v>36676</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="9"/>
+        <v>truncate table USDJPY_D1;</v>
+      </c>
+      <c r="H41" t="str">
+        <f>"execute DataCompact('"&amp;A7&amp;"','"&amp;A41&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('USDJPY_M1','USDJPY_D1',1440);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" s="47">
+        <v>43097</v>
+      </c>
+      <c r="D42" s="18">
+        <v>3666</v>
+      </c>
+      <c r="E42" s="47">
+        <v>38576</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ref="G42" si="10">"truncate table "&amp;A42&amp;";"</f>
+        <v>truncate table NZDUSD_D1;</v>
+      </c>
+      <c r="H42" t="str">
+        <f>"execute DataCompact('"&amp;A8&amp;"','"&amp;A42&amp;"',"&amp;A$35&amp;");"</f>
+        <v>execute DataCompact('NZDUSD_M1','NZDUSD_D1',1440);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>423</v>
       </c>
-      <c r="C40" s="47">
-        <v>42733</v>
-      </c>
-      <c r="D40" s="18">
-        <v>2726</v>
-      </c>
-      <c r="E40" s="47">
+      <c r="C43" s="47">
+        <v>43097</v>
+      </c>
+      <c r="D43" s="18">
+        <v>3036</v>
+      </c>
+      <c r="E43" s="47">
         <v>39537</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="6"/>
+      <c r="G43" t="str">
+        <f t="shared" si="9"/>
         <v>truncate table GBPNZD_D1;</v>
       </c>
-      <c r="H40" t="str">
-        <f>"execute DataCompact('"&amp;A10&amp;"','"&amp;A40&amp;"',"&amp;A$31&amp;");"</f>
+      <c r="H43" t="str">
+        <f>"execute DataCompact('"&amp;A9&amp;"','"&amp;A43&amp;"',"&amp;A$35&amp;");"</f>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_D1',1440);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="47">
+        <v>43462</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2072</v>
+      </c>
+      <c r="E44" s="47">
+        <v>40497</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="9"/>
+        <v>truncate table ETXEUR_D1;</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" ref="H44:H45" si="11">"execute DataCompact('"&amp;A32&amp;"','"&amp;A44&amp;"',"&amp;A$13&amp;");"</f>
+        <v>execute DataCompact('GBPNZD_H4','ETXEUR_D1',60);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C45" s="47">
+        <v>43464</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2520</v>
+      </c>
+      <c r="E45" s="47">
+        <v>40496</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="9"/>
+        <v>truncate table WTIUSD_D1;</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="11"/>
+        <v>execute DataCompact('ETXEUR_H4','WTIUSD_D1',60);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="36">
+  <tableParts count="40">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -15924,6 +16083,10 @@
     <tablePart r:id="rId35"/>
     <tablePart r:id="rId36"/>
     <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17094,10 +17257,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I36"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17110,23 +17273,23 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="23" t="s">
         <v>212</v>
       </c>
@@ -17154,14 +17317,20 @@
       <c r="L3" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:L4" si="0">"echo load data &gt;"&amp;$B$1&amp;E$3&amp;".ctl"</f>
+        <f t="shared" ref="E4:N4" si="0">"echo load data &gt;"&amp;$B$1&amp;E$3&amp;".ctl"</f>
         <v>echo load data &gt;c:\users\gcaglion\downloads\AUDUSD.ctl</v>
       </c>
       <c r="F4" t="str">
@@ -17192,8 +17361,16 @@
         <f t="shared" si="0"/>
         <v>echo load data &gt;c:\users\gcaglion\downloads\SPXUSD.ctl</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>echo load data &gt;c:\users\gcaglion\downloads\ETXEUR.ctl</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>echo load data &gt;c:\users\gcaglion\downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2000</v>
       </c>
@@ -17202,7 +17379,7 @@
         <v/>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:L5" si="1">IF($D5=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;F$3&amp;"_M1_"&amp;$C5&amp;".csv' &gt;&gt;"&amp;$B$1&amp;F$3&amp;".ctl")</f>
+        <f t="shared" ref="F5:N5" si="1">IF($D5=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;F$3&amp;"_M1_"&amp;$C5&amp;".csv' &gt;&gt;"&amp;$B$1&amp;F$3&amp;".ctl")</f>
         <v/>
       </c>
       <c r="G5" t="str">
@@ -17229,14 +17406,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>+C5+1</f>
         <v>2001</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ref="E6:L33" si="2">IF($D6=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;E$3&amp;"_M1_"&amp;$C6&amp;".csv' &gt;&gt;"&amp;$B$1&amp;E$3&amp;".ctl")</f>
+        <f t="shared" ref="E6:N33" si="2">IF($D6=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;E$3&amp;"_M1_"&amp;$C6&amp;".csv' &gt;&gt;"&amp;$B$1&amp;E$3&amp;".ctl")</f>
         <v/>
       </c>
       <c r="F6" t="str">
@@ -17267,8 +17452,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" ref="C7:C19" si="3">+C6+1</f>
         <v>2002</v>
@@ -17305,8 +17498,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8">
         <f t="shared" si="3"/>
         <v>2003</v>
@@ -17343,8 +17544,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9">
         <f t="shared" si="3"/>
         <v>2004</v>
@@ -17381,8 +17590,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" si="3"/>
         <v>2005</v>
@@ -17419,8 +17636,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>+C10+1</f>
         <v>2006</v>
@@ -17457,8 +17682,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="3"/>
         <v>2007</v>
@@ -17495,8 +17728,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="3"/>
         <v>2008</v>
@@ -17533,8 +17774,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="3"/>
         <v>2009</v>
@@ -17571,8 +17820,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -17609,8 +17866,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>+C15+1</f>
         <v>2011</v>
@@ -17647,8 +17912,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -17685,8 +17958,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -17723,8 +18004,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -17761,8 +18050,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2015</v>
       </c>
@@ -17798,8 +18095,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2016</v>
       </c>
@@ -17835,466 +18140,570 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" ref="M21:N33" si="4">IF($D21=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;N$3&amp;"_M1_"&amp;$C21&amp;".csv' &gt;&gt;"&amp;$B$1&amp;N$3&amp;".ctl")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2017</v>
       </c>
-      <c r="D22">
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" ref="C23:C33" si="5">+C22+1</f>
+        <v>2018</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_AUDUSD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\AUDUSD.ctl</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_EURUSD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\EURUSD.ctl</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_GBPUSD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\GBPUSD.ctl</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_XAUUSD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\XAUUSD.ctl</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_NZDUSD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\NZDUSD.ctl</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_USDJPY_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\USDJPY.ctl</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_GBPNZD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\GBPNZD.ctl</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="2"/>
-        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_SPXUSD_M1_2017.csv' &gt;&gt;c:\users\gcaglion\downloads\SPXUSD.ctl</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f t="shared" ref="C23:C33" si="4">+C22+1</f>
-        <v>2018</v>
-      </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_AUDUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\AUDUSD.ctl</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_EURUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\EURUSD.ctl</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_GBPUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\GBPUSD.ctl</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_XAUUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\XAUUSD.ctl</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_NZDUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\NZDUSD.ctl</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_USDJPY_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\USDJPY.ctl</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_GBPNZD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\GBPNZD.ctl</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_SPXUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\SPXUSD.ctl</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_ETXEUR_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\ETXEUR.ctl</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="4"/>
+        <v>echo infile 'c:\users\gcaglion\downloads\DAT_MT_WTIUSD_M1_2018.csv' &gt;&gt;c:\users\gcaglion\downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>2019</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H23" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J23" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K23" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L23" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24">
+      <c r="M24" t="str">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
+      <c r="N24" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G24" t="str">
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J24" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K24" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L24" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25">
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="4"/>
-        <v>2020</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="2"/>
+      <c r="N25" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G25" t="str">
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>2021</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H25" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J25" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K25" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L25" t="str">
+      <c r="J26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26">
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="4"/>
-        <v>2021</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="2"/>
+      <c r="N26" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G26" t="str">
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>2022</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H26" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J26" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K26" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L26" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27">
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="4"/>
-        <v>2022</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="2"/>
+      <c r="N27" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G27" t="str">
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>2023</v>
+      </c>
+      <c r="E28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H27" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J27" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K27" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L27" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28">
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="4"/>
-        <v>2023</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="2"/>
+      <c r="N28" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G28" t="str">
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>2024</v>
+      </c>
+      <c r="E29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H28" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J28" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K28" t="str">
+      <c r="I29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L28" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29">
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="4"/>
-        <v>2024</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="2"/>
+      <c r="N29" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G29" t="str">
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>2025</v>
+      </c>
+      <c r="E30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H29" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J29" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K29" t="str">
+      <c r="I30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L29" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30">
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" si="4"/>
-        <v>2025</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="2"/>
+      <c r="N30" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G30" t="str">
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>2026</v>
+      </c>
+      <c r="E31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H30" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K30" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L30" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C31">
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="4"/>
-        <v>2026</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="2"/>
+      <c r="N31" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G31" t="str">
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>2027</v>
+      </c>
+      <c r="E32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H31" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J31" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K31" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L31" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32">
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" si="4"/>
-        <v>2027</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="2"/>
+      <c r="N32" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" t="str">
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>2028</v>
+      </c>
+      <c r="E33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H32" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J32" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K32" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33">
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" si="4"/>
-        <v>2028</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="2"/>
+      <c r="N33" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="22" t="s">
         <v>180</v>
       </c>
@@ -18308,69 +18717,85 @@
         <v>echo append into table EURUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\EURUSD.ctl</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:K34" si="5">"echo append into table "&amp;G$3&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;G$3&amp;".ctl"</f>
+        <f t="shared" ref="G34:N34" si="6">"echo append into table "&amp;G$3&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;G$3&amp;".ctl"</f>
         <v>echo append into table GBPUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\GBPUSD.ctl</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>echo append into table XAUUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\XAUUSD.ctl</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>echo append into table NZDUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\NZDUSD.ctl</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>echo append into table USDJPY_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\USDJPY.ctl</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>echo append into table GBPNZD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\GBPNZD.ctl</v>
       </c>
       <c r="L34" t="str">
         <f>"echo append into table SPX"&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;L$3&amp;".ctl"</f>
         <v>echo append into table SPX_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\SPXUSD.ctl</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f t="shared" si="6"/>
+        <v>echo append into table ETXEUR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\ETXEUR.ctl</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="6"/>
+        <v>echo append into table WTIUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;c:\users\gcaglion\downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="22" t="s">
         <v>181</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" t="str">
         <f>"sqlldr "&amp;$B$2&amp;" control="&amp;$B$1&amp;E$3&amp;".ctl log="&amp;$B$1&amp;E$3&amp;".log readsize=2000000 bindsize=2000000"</f>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\AUDUSD.ctl log=c:\users\gcaglion\downloads\AUDUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\AUDUSD.ctl log=c:\users\gcaglion\downloads\AUDUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:L35" si="6">"sqlldr "&amp;$B$2&amp;" control="&amp;$B$1&amp;F$3&amp;".ctl log="&amp;$B$1&amp;F$3&amp;".log readsize=2000000 bindsize=2000000"</f>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\EURUSD.ctl log=c:\users\gcaglion\downloads\EURUSD.log readsize=2000000 bindsize=2000000</v>
+        <f t="shared" ref="F35:N35" si="7">"sqlldr "&amp;$B$2&amp;" control="&amp;$B$1&amp;F$3&amp;".ctl log="&amp;$B$1&amp;F$3&amp;".log readsize=2000000 bindsize=2000000"</f>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\EURUSD.ctl log=c:\users\gcaglion\downloads\EURUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="6"/>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\GBPUSD.ctl log=c:\users\gcaglion\downloads\GBPUSD.log readsize=2000000 bindsize=2000000</v>
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\GBPUSD.ctl log=c:\users\gcaglion\downloads\GBPUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="6"/>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\XAUUSD.ctl log=c:\users\gcaglion\downloads\XAUUSD.log readsize=2000000 bindsize=2000000</v>
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\XAUUSD.ctl log=c:\users\gcaglion\downloads\XAUUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="6"/>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\NZDUSD.ctl log=c:\users\gcaglion\downloads\NZDUSD.log readsize=2000000 bindsize=2000000</v>
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\NZDUSD.ctl log=c:\users\gcaglion\downloads\NZDUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="6"/>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\USDJPY.ctl log=c:\users\gcaglion\downloads\USDJPY.log readsize=2000000 bindsize=2000000</v>
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\USDJPY.ctl log=c:\users\gcaglion\downloads\USDJPY.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="6"/>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\GBPNZD.ctl log=c:\users\gcaglion\downloads\GBPNZD.log readsize=2000000 bindsize=2000000</v>
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\GBPNZD.ctl log=c:\users\gcaglion\downloads\GBPNZD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="6"/>
-        <v>sqlldr History/HistoryPwd control=c:\users\gcaglion\downloads\SPXUSD.ctl log=c:\users\gcaglion\downloads\SPXUSD.log readsize=2000000 bindsize=2000000</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\SPXUSD.ctl log=c:\users\gcaglion\downloads\SPXUSD.log readsize=2000000 bindsize=2000000</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\ETXEUR.ctl log=c:\users\gcaglion\downloads\ETXEUR.log readsize=2000000 bindsize=2000000</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="7"/>
+        <v>sqlldr History/HistoryPwd@Algo control=c:\users\gcaglion\downloads\WTIUSD.ctl log=c:\users\gcaglion\downloads\WTIUSD.log readsize=2000000 bindsize=2000000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="22" t="s">
         <v>199</v>
       </c>
@@ -18380,46 +18805,57 @@
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\AUDUSD.log</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36:L36" si="7">"findstr /c:"&amp;CHAR(34)&amp;"not loaded due to data errors"&amp;CHAR(34)&amp;" "&amp;$B$1&amp;F$3&amp;".log"</f>
+        <f t="shared" ref="F36:N36" si="8">"findstr /c:"&amp;CHAR(34)&amp;"not loaded due to data errors"&amp;CHAR(34)&amp;" "&amp;$B$1&amp;F$3&amp;".log"</f>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\EURUSD.log</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\GBPUSD.log</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\XAUUSD.log</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\NZDUSD.log</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\USDJPY.log</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\GBPNZD.log</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\SPXUSD.log</v>
       </c>
+      <c r="M36" t="str">
+        <f t="shared" si="8"/>
+        <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\ETXEUR.log</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="8"/>
+        <v>findstr /c:"not loaded due to data errors" c:\users\gcaglion\downloads\WTIUSD.log</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X15"/>
+  <dimension ref="A2:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="Y3" sqref="Y3:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18427,7 +18863,7 @@
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -18494,8 +18930,14 @@
       <c r="X2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -18587,11 +19029,19 @@
         <v>execute DataCompact('XRB_M1','XRB_M5',5);</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" ref="X3:X8" si="6">"execute DataCompact('"&amp;X$2&amp;"_M1','"&amp;X$2&amp;"_"&amp;$B3&amp;"',"&amp;$A3&amp;");"</f>
+        <f t="shared" ref="X3:Z8" si="6">"execute DataCompact('"&amp;X$2&amp;"_M1','"&amp;X$2&amp;"_"&amp;$B3&amp;"',"&amp;$A3&amp;");"</f>
         <v>execute DataCompact('FTSE_M1','FTSE_M5',5);</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_M5',5);</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_M5',5);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -18686,8 +19136,16 @@
         <f t="shared" si="6"/>
         <v>execute DataCompact('FTSE_M1','FTSE_M15',15);</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_M15',15);</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_M15',15);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -18782,8 +19240,16 @@
         <f t="shared" si="6"/>
         <v>execute DataCompact('FTSE_M1','FTSE_M30',30);</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_M30',30);</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_M30',30);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -18878,8 +19344,16 @@
         <f t="shared" si="6"/>
         <v>execute DataCompact('FTSE_M1','FTSE_H1',60);</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_H1',60);</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_H1',60);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>240</v>
       </c>
@@ -18974,8 +19448,16 @@
         <f t="shared" si="6"/>
         <v>execute DataCompact('FTSE_M1','FTSE_H4',240);</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_H4',240);</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_H4',240);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1440</v>
       </c>
@@ -19070,8 +19552,16 @@
         <f t="shared" si="6"/>
         <v>execute DataCompact('FTSE_M1','FTSE_D1',1440);</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('ETXEUR_M1','ETXEUR_D1',1440);</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="6"/>
+        <v>execute DataCompact('WTIUSD_M1','WTIUSD_D1',1440);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
         <f>"truncate table "&amp;C$2&amp;"_"&amp;$B3&amp;";"</f>
         <v>truncate table AUDUSD_M5;</v>
@@ -19160,10 +19650,18 @@
         <f t="shared" si="9"/>
         <v>truncate table FTSE_M5;</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="str">
+        <f t="shared" ref="Y10:Z10" si="12">"truncate table "&amp;Y$2&amp;"_"&amp;$B3&amp;";"</f>
+        <v>truncate table ETXEUR_M5;</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="12"/>
+        <v>truncate table WTIUSD_M5;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
-        <f t="shared" ref="C11:S15" si="12">"truncate table "&amp;C$2&amp;"_"&amp;$B4&amp;";"</f>
+        <f t="shared" ref="C11:S15" si="13">"truncate table "&amp;C$2&amp;"_"&amp;$B4&amp;";"</f>
         <v>truncate table AUDUSD_M15;</v>
       </c>
       <c r="D11" t="str">
@@ -19171,7 +19669,7 @@
         <v>truncate table EURUSD_M15;</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table GBPUSD_M15;</v>
       </c>
       <c r="F11" t="str">
@@ -19187,7 +19685,7 @@
         <v>truncate table USDJPY_M15;</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table GBPNZD_M15;</v>
       </c>
       <c r="J11" t="str">
@@ -19195,39 +19693,39 @@
         <v>truncate table SPX_M15;</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table CATTLE_M15;</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table CORN_M15;</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table HOIL_M15;</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table NGAS_M15;</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table OIL_M15;</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table PLATINUM_M15;</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table RICE_M15;</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table SBO_M15;</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table SOYBEANS_M15;</v>
       </c>
       <c r="T11" t="str">
@@ -19250,10 +19748,18 @@
         <f t="shared" si="9"/>
         <v>truncate table FTSE_M15;</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="str">
+        <f t="shared" ref="Y11:Z11" si="14">"truncate table "&amp;Y$2&amp;"_"&amp;$B4&amp;";"</f>
+        <v>truncate table ETXEUR_M15;</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="14"/>
+        <v>truncate table WTIUSD_M15;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table AUDUSD_M30;</v>
       </c>
       <c r="D12" t="str">
@@ -19340,10 +19846,18 @@
         <f t="shared" si="9"/>
         <v>truncate table FTSE_M30;</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="str">
+        <f t="shared" ref="Y12:Z12" si="15">"truncate table "&amp;Y$2&amp;"_"&amp;$B5&amp;";"</f>
+        <v>truncate table ETXEUR_M30;</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="15"/>
+        <v>truncate table WTIUSD_M30;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>truncate table AUDUSD_H1;</v>
       </c>
       <c r="D13" t="str">
@@ -19430,8 +19944,16 @@
         <f t="shared" si="9"/>
         <v>truncate table FTSE_H1;</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="str">
+        <f t="shared" ref="Y13:Z13" si="16">"truncate table "&amp;Y$2&amp;"_"&amp;$B6&amp;";"</f>
+        <v>truncate table ETXEUR_H1;</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="16"/>
+        <v>truncate table WTIUSD_H1;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>"truncate table "&amp;C$2&amp;"_"&amp;$B7&amp;";"</f>
         <v>truncate table AUDUSD_H4;</v>
@@ -19441,7 +19963,7 @@
         <v>truncate table EURUSD_H4;</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14:X14" si="13">"truncate table "&amp;E$2&amp;"_"&amp;$B7&amp;";"</f>
+        <f t="shared" ref="E14:X14" si="17">"truncate table "&amp;E$2&amp;"_"&amp;$B7&amp;";"</f>
         <v>truncate table GBPUSD_H4;</v>
       </c>
       <c r="F14" t="str">
@@ -19457,7 +19979,7 @@
         <v>truncate table USDJPY_H4;</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>truncate table GBPNZD_H4;</v>
       </c>
       <c r="J14" t="str">
@@ -19465,65 +19987,73 @@
         <v>truncate table SPX_H4;</v>
       </c>
       <c r="K14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table CATTLE_H4;</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table CORN_H4;</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table HOIL_H4;</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table NGAS_H4;</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table OIL_H4;</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table PLATINUM_H4;</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table RICE_H4;</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table SBO_H4;</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table SOYBEANS_H4;</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table SUGAR_H4;</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table US10YR_H4;</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table WHEAT_H4;</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table XRB_H4;</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="17"/>
+        <v>truncate table FTSE_H4;</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" ref="Y14:Z14" si="18">"truncate table "&amp;Y$2&amp;"_"&amp;$B7&amp;";"</f>
+        <v>truncate table ETXEUR_H4;</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="18"/>
+        <v>truncate table WTIUSD_H4;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
         <f t="shared" si="13"/>
-        <v>truncate table CATTLE_H4;</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table CORN_H4;</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table HOIL_H4;</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table NGAS_H4;</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table OIL_H4;</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table PLATINUM_H4;</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table RICE_H4;</v>
-      </c>
-      <c r="R14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table SBO_H4;</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table SOYBEANS_H4;</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table SUGAR_H4;</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table US10YR_H4;</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table WHEAT_H4;</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table XRB_H4;</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="13"/>
-        <v>truncate table FTSE_H4;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" t="str">
-        <f t="shared" si="12"/>
         <v>truncate table AUDUSD_D1;</v>
       </c>
       <c r="D15" t="str">
@@ -19609,6 +20139,14 @@
       <c r="X15" t="str">
         <f t="shared" si="9"/>
         <v>truncate table FTSE_D1;</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" ref="Y15:Z15" si="19">"truncate table "&amp;Y$2&amp;"_"&amp;$B8&amp;";"</f>
+        <v>truncate table ETXEUR_D1;</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="19"/>
+        <v>truncate table WTIUSD_D1;</v>
       </c>
     </row>
   </sheetData>

--- a/AlgoDB/AlgoDB_Management.xlsx
+++ b/AlgoDB/AlgoDB_Management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13128" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tablespaces_and_Users" sheetId="24" r:id="rId1"/>
@@ -75,7 +75,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="7" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1759,13 +1759,13 @@
     <t>COMMODITIES</t>
   </si>
   <si>
-    <t>C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\</t>
-  </si>
-  <si>
-    <t>History2/HistoryPwd@Algo</t>
-  </si>
-  <si>
     <t>char(24)</t>
+  </si>
+  <si>
+    <t>History/HistoryPwd@Algo</t>
+  </si>
+  <si>
+    <t>C:\Users\gcaglion\Downloads\</t>
   </si>
 </sst>
 </file>
@@ -2044,301 +2044,301 @@
   </cellStyles>
   <dxfs count="284">
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2347,7 +2347,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2359,10 +2359,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2371,7 +2371,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2382,7 +2382,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2391,133 +2391,133 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2526,7 +2526,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2538,10 +2538,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2550,7 +2550,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2561,7 +2561,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2570,133 +2570,133 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2705,7 +2705,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2717,10 +2717,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2729,7 +2729,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2740,7 +2740,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2749,133 +2749,133 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2884,7 +2884,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2896,10 +2896,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2908,7 +2908,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2919,7 +2919,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2928,88 +2928,88 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5044,7 +5044,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:G18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6002,53 +6002,53 @@
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_Query_from_AlgoDB56789101112178" displayName="Table_Query_from_AlgoDB56789101112178" ref="C22:E22" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="41">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="40" dataDxfId="39"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="38" dataDxfId="37"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="36" dataDxfId="35"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="40" dataDxfId="2"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="39" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="38" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_Query_from_AlgoDB5678910111217810" displayName="Table_Query_from_AlgoDB5678910111217810" ref="C23:E23" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_Query_from_AlgoDB5678910111217810" displayName="Table_Query_from_AlgoDB5678910111217810" ref="C23:E23" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="37">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="31" dataDxfId="30"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="36" dataDxfId="35"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="34" dataDxfId="33"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="32" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_Query_from_AlgoDB5678910111217811" displayName="Table_Query_from_AlgoDB5678910111217811" ref="C33:E33" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_Query_from_AlgoDB5678910111217811" displayName="Table_Query_from_AlgoDB5678910111217811" ref="C33:E33" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="26" dataDxfId="25"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="24" dataDxfId="23"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="25" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_Query_from_AlgoDB567891011121781012" displayName="Table_Query_from_AlgoDB567891011121781012" ref="C34:E34" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_Query_from_AlgoDB567891011121781012" displayName="Table_Query_from_AlgoDB567891011121781012" ref="C34:E34" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="18" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_Query_from_AlgoDB567891011121781113" displayName="Table_Query_from_AlgoDB567891011121781113" ref="C44:E44" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_Query_from_AlgoDB567891011121781113" displayName="Table_Query_from_AlgoDB567891011121781113" ref="C44:E44" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="12" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="10" dataDxfId="9"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="11" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6066,11 +6066,11 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_Query_from_AlgoDB56789101112178101214" displayName="Table_Query_from_AlgoDB56789101112178101214" ref="C45:E45" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_Query_from_AlgoDB56789101112178101214" displayName="Table_Query_from_AlgoDB56789101112178101214" ref="C45:E45" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="MAX(NEWDATETIME)" queryTableFieldId="1" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="2" uniqueName="2" name="COUNT(NEWDATETIME)" queryTableFieldId="2" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="MIN(NEWDATETIME)" queryTableFieldId="3" headerRowDxfId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6424,22 +6424,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f>"drop tablespace "&amp;C3&amp;";"</f>
         <v>drop tablespace HistoryData;</v>
@@ -6476,7 +6476,7 @@
         <v>create tablespace HistoryData datafile 'D:\app\oracle\oradata\algo\HistoryData01.dbf' size 16384M;</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f t="shared" ref="B4:B8" si="1">"drop tablespace "&amp;C4&amp;";"</f>
         <v>drop tablespace HistoryIdx;</v>
@@ -6495,7 +6495,7 @@
         <v>create tablespace HistoryIdx datafile 'D:\app\oracle\oradata\algo\HistoryIdx01.dbf' size 4096M;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GAData;</v>
@@ -6514,7 +6514,7 @@
         <v>create tablespace GAData datafile 'D:\app\oracle\oradata\algo\GAData01.dbf' size 3072M;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GAIdx;</v>
@@ -6533,7 +6533,7 @@
         <v>create tablespace GAIdx datafile 'D:\app\oracle\oradata\algo\GAIdx01.dbf' size 512M;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GridData;</v>
@@ -6552,7 +6552,7 @@
         <v>create tablespace GridData datafile 'D:\app\oracle\oradata\algo\GridData01.dbf' size 4096M;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GridIdx;</v>
@@ -6571,7 +6571,7 @@
         <v>create tablespace GridIdx datafile 'D:\app\oracle\oradata\algo\GridIdx01.dbf' size 2048M;</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>220</v>
       </c>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>"drop user "&amp;C11&amp;" cascade;"</f>
         <v>drop user History cascade;</v>
@@ -6615,7 +6615,7 @@
         <v>grant dba to History;</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f t="shared" ref="B12:B15" si="2">"drop user "&amp;C12&amp;" cascade;"</f>
         <v>drop user GAUser cascade;</v>
@@ -6638,7 +6638,7 @@
         <v>grant dba to GAUser;</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f t="shared" si="2"/>
         <v>drop user NNUser cascade;</v>
@@ -6661,7 +6661,7 @@
         <v>grant dba to NNUser;</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f t="shared" si="2"/>
         <v>drop user CCUser cascade;</v>
@@ -6684,7 +6684,7 @@
         <v>grant dba to CCUser;</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f t="shared" si="2"/>
         <v>drop user GridUser cascade;</v>
@@ -6721,17 +6721,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>121</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>123</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>125</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>127</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
         <v>129</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>131</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>133</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P33" t="s">
         <v>135</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>137</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>139</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>141</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>143</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>146</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>148</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>150</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P41" t="s">
         <v>152</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
         <v>154</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P43" t="s">
         <v>156</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P44" t="s">
         <v>158</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P45" t="s">
         <v>161</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P46" t="s">
         <v>163</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P47" t="s">
         <v>165</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P48" t="s">
         <v>167</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q49" t="s">
         <v>166</v>
       </c>
@@ -7411,13 +7411,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="2" max="4" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>alter table gbpusd_h4_filled drop constraint gbpusd_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>alter table eurusd_h4_filled drop constraint eurusd_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>alter table audusd_h4_filled drop constraint audusd_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>alter table oil_h4_filled drop constraint oil_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>alter table gold_h4_filled drop constraint gold_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>alter table ftse_h4_filled drop constraint ftse_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -7784,10 +7784,10 @@
         <v>alter table spx_h4_filled drop constraint spx_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>41274</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>delete from gbpusd_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>delete from eurusd_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>delete from audusd_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>delete from oil_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>delete from gold_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>delete from ftse_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -8158,28 +8158,28 @@
         <v>delete from spx_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>update gbpusd_m1 set NewDateTime=to_date((origdate||origtime),'YYYY.MM.DDHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>update eurusd_m1 set NewDateTime=to_date((origdate||origtime),'YYYY.MM.DDHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>update audusd_m1 set NewDateTime=to_date((origdate||origtime),'YYYY.MM.DDHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>update oil_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>update gold_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>update ftse_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8242,23 +8242,23 @@
         <v>update spx_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>alter table gbpusd_m1 add constraint gbpusd_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>alter table eurusd_m1 add constraint eurusd_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>alter table audusd_m1 add constraint audusd_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>alter table oil_m1 add constraint oil_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>alter table gold_m1 add constraint gold_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>alter table ftse_m1 add constraint ftse_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -8321,17 +8321,17 @@
         <v>alter table spx_m1 add constraint spx_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>alter table gbpusd_m1_filled drop constraint gbpusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>alter table eurusd_m1_filled drop constraint eurusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>alter table audusd_m1_filled drop constraint audusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>alter table oil_m1_filled drop constraint oil_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>alter table gold_m1_filled drop constraint gold_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>alter table ftse_m1_filled drop constraint ftse_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>alter table spx_m1_filled drop constraint spx_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -8403,17 +8403,17 @@
         <v>alter table nzdusd_m1_filled drop constraint nzdusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>execute DataFill('GBPUSD','M1')</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>execute DataFill('EURUSD','M1')</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>execute DataFill('AUDUSD','M1')</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>execute DataFill('OIL','M1')</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>execute DataFill('GOLD','M1')</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>execute DataFill('FTSE','M1')</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -8476,17 +8476,17 @@
         <v>execute DataFill('SPX','M1')</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>alter table gbpusd_m1_filled add constraint gbpusd_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>alter table eurusd_m1_filled add constraint eurusd_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>alter table audusd_m1_filled add constraint audusd_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>alter table oil_m1_filled add constraint oil_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>alter table gold_m1_filled add constraint gold_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>alter table ftse_m1_filled add constraint ftse_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>alter table spx_m1_filled add constraint spx_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -8570,25 +8570,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>"connect "&amp;Tablespaces_and_Users!C11&amp;"/"&amp;Tablespaces_and_Users!D11</f>
         <v>connect History/HistoryPwd</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>231</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>233</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>237</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>239</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>240</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>241</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>243</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>244</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>245</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>246</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>247</v>
       </c>
@@ -8684,27 +8684,27 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -8722,44 +8722,44 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>"connect "&amp;Tablespaces_and_Users!C11&amp;"/"&amp;Tablespaces_and_Users!D11</f>
         <v>connect History/HistoryPwd</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!C12&amp;";"</f>
         <v>grant select any table to GAUser;</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!C13&amp;";"</f>
         <v>grant select any table to NNUser;</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!C14&amp;";"</f>
         <v>grant select any table to CCUser;</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!C15&amp;";"</f>
         <v>grant select any table to GridUser;</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>267</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>271</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>279</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>283</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>287</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>255</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>257</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>259</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>267</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>269</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>271</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>273</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>275</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>277</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>279</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>281</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>283</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>285</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>287</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>289</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>291</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>259</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>261</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>263</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>269</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>271</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>273</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>275</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>283</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>285</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>287</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>289</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>291</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>293</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>255</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>257</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>265</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>267</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>269</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>271</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>273</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>275</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>277</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>281</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>283</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>285</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>287</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>289</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>291</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>293</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>259</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>261</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>263</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>265</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>267</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>269</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>271</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>273</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>275</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>277</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>281</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>283</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>287</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>289</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>291</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>293</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>257</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>261</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>263</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>267</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>269</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>271</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>273</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>275</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>277</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>279</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>281</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>283</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>285</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>287</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>289</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>291</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>293</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>265</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>267</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>269</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>271</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>273</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>275</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>279</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>281</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>283</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>287</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>289</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>293</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>415</v>
       </c>
@@ -9893,25 +9893,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="13" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="13" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15:I39"/>
+      <selection pane="bottomRight" activeCell="AC24" sqref="AC24:AC39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>10</v>
       </c>
@@ -9938,12 +9938,12 @@
       </c>
       <c r="E4" s="54"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
@@ -9953,12 +9953,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
@@ -9968,7 +9968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="D14" s="1"/>
@@ -10132,7 +10132,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
         <v>466</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>drop table ETXEUR_M1;</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>drop table ETXEUR_M5;</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>168</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>drop table ETXEUR_M15;</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="11"/>
       <c r="D18" s="10"/>
@@ -10546,7 +10546,7 @@
         <v>drop table ETXEUR_M30;</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
       <c r="D19" s="10"/>
@@ -10647,7 +10647,7 @@
         <v>drop table ETXEUR_H1;</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="D20" s="10"/>
@@ -10748,7 +10748,7 @@
         <v>drop table ETXEUR_H4;</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="D21" s="10"/>
@@ -10849,14 +10849,14 @@
         <v>drop table ETXEUR_D1;</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="D23" s="10"/>
@@ -10865,7 +10865,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="13"/>
       <c r="F24" s="1" t="s">
@@ -10964,7 +10964,7 @@
         <v>create table ETXEUR_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="13"/>
       <c r="F25" s="1" t="s">
@@ -11063,7 +11063,7 @@
         <v>create table ETXEUR_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="13"/>
       <c r="F26" s="1" t="s">
@@ -11162,7 +11162,7 @@
         <v>create table ETXEUR_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="13"/>
       <c r="F27" s="1" t="s">
@@ -11261,7 +11261,7 @@
         <v>create table ETXEUR_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="F28" s="1" t="s">
@@ -11360,7 +11360,7 @@
         <v>create table ETXEUR_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="F29" s="1" t="s">
@@ -11459,7 +11459,7 @@
         <v>create table ETXEUR_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="F30" s="1" t="s">
@@ -11558,14 +11558,14 @@
         <v>create table ETXEUR_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="D32" s="10"/>
@@ -11574,7 +11574,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="D33" s="10"/>
@@ -11675,7 +11675,7 @@
         <v>alter table ETXEUR_M1 add constraint ETXEUR_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="D34" s="10"/>
@@ -11776,7 +11776,7 @@
         <v>alter table ETXEUR_M5 add constraint ETXEUR_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="D35" s="10"/>
@@ -11877,7 +11877,7 @@
         <v>alter table ETXEUR_M15 add constraint ETXEUR_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="D36" s="10"/>
@@ -11978,7 +11978,7 @@
         <v>alter table ETXEUR_M30 add constraint ETXEUR_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="D37" s="10"/>
@@ -12079,7 +12079,7 @@
         <v>alter table ETXEUR_H1 add constraint ETXEUR_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="D38" s="10"/>
@@ -12180,7 +12180,7 @@
         <v>alter table ETXEUR_H4 add constraint ETXEUR_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="D39" s="10"/>
@@ -12281,14 +12281,14 @@
         <v>alter table ETXEUR_D1 add constraint ETXEUR_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="D41" s="10"/>
@@ -12297,7 +12297,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="D42" s="10"/>
@@ -12400,7 +12400,7 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_M5',5);</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="D43" s="10"/>
@@ -12503,7 +12503,7 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_M15',15);</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="11"/>
       <c r="D44" s="10"/>
@@ -12606,7 +12606,7 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_M30',30);</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="11"/>
       <c r="D45" s="10"/>
@@ -12709,7 +12709,7 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_H1',60);</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="11"/>
       <c r="D46" s="10"/>
@@ -12812,7 +12812,7 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_H4',240);</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
       <c r="D47" s="10"/>
@@ -12915,21 +12915,21 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_D1',1440);</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="11"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="13"/>
       <c r="D50" s="10"/>
@@ -12948,7 +12948,7 @@
       <c r="AA50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="13"/>
       <c r="F51" s="1" t="s">
@@ -13047,7 +13047,7 @@
         <v>drop table ETXEUR_M1_FILLED;</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="13"/>
       <c r="F52" s="1" t="s">
@@ -13146,7 +13146,7 @@
         <v>drop table ETXEUR_M5_FILLED;</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="F53" s="1" t="s">
@@ -13245,7 +13245,7 @@
         <v>drop table ETXEUR_M15_FILLED;</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="F54" s="1" t="s">
@@ -13344,7 +13344,7 @@
         <v>drop table ETXEUR_H1_FILLED;</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="F55" s="1" t="s">
@@ -13443,7 +13443,7 @@
         <v>drop table ETXEUR_H4_FILLED;</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="F56" s="1" t="s">
@@ -13542,13 +13542,13 @@
         <v>drop table ETXEUR_D1_FILLED;</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E58" s="10"/>
       <c r="F58" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F59" s="1" t="s">
         <v>9</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>create table ETXEUR_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F60" s="1" t="s">
         <v>28</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>create table ETXEUR_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>create table ETXEUR_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F62" s="1" t="s">
         <v>7</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>create table ETXEUR_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F63" s="1" t="s">
         <v>29</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>create table ETXEUR_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F64" s="1" t="s">
         <v>30</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>create table ETXEUR_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="65" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:29" x14ac:dyDescent="0.3">
       <c r="F65" s="1" t="s">
         <v>31</v>
       </c>
@@ -14227,17 +14227,17 @@
         <v>create table ETXEUR_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="66" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E67" s="10"/>
       <c r="F67" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E68" s="10"/>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -14335,7 +14335,7 @@
         <v>alter table ETXEUR_M1_FILLED add constraint ETXEUR_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="69" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E69" s="10"/>
       <c r="F69" s="1" t="s">
         <v>28</v>
@@ -14433,7 +14433,7 @@
         <v>alter table ETXEUR_M5_FILLED add constraint ETXEUR_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="70" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E70" s="10"/>
       <c r="F70" s="1" t="s">
         <v>6</v>
@@ -14531,7 +14531,7 @@
         <v>alter table ETXEUR_M15_FILLED add constraint ETXEUR_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="71" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E71" s="10"/>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -14629,7 +14629,7 @@
         <v>alter table ETXEUR_M30_FILLED add constraint ETXEUR_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="72" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E72" s="10"/>
       <c r="F72" s="1" t="s">
         <v>29</v>
@@ -14727,7 +14727,7 @@
         <v>alter table ETXEUR_H1_FILLED add constraint ETXEUR_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="73" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E73" s="10"/>
       <c r="F73" s="1" t="s">
         <v>30</v>
@@ -14825,7 +14825,7 @@
         <v>alter table ETXEUR_H4_FILLED add constraint ETXEUR_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="74" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E74" s="10"/>
       <c r="F74" s="1" t="s">
         <v>31</v>
@@ -14923,17 +14923,17 @@
         <v>alter table ETXEUR_D1_FILLED add constraint ETXEUR_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="75" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E75" s="10"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E76" s="10"/>
       <c r="F76" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E77" s="10">
         <v>5</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E78" s="10">
         <v>15</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E79" s="10">
         <v>30</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="5:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E80" s="10">
         <v>60</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81" s="10">
         <v>240</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82" s="10">
         <v>1440</v>
       </c>
@@ -14997,20 +14997,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="47" customWidth="1"/>
     <col min="4" max="4" width="13" style="18" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" style="47" customWidth="1"/>
+    <col min="5" max="6" width="19.33203125" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>36682.502083333333</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>36676.727083333331</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>446</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>36676.749305555553</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>445</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>39887.708333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>444</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="F6" s="48"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>443</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>36676.748611111114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>38576.709027777775</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>442</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>39537.708333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>456</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>40497.083333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -15168,12 +15168,12 @@
         <v>40496.84375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>441</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>36682.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>440</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>execute DataCompact('EURUSD_M1','EURUSD_H1',60);</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>439</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_H1',60);</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>438</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_H1',60);</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>437</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>execute DataCompact('SPX_M1','SPX_H1',60);</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>436</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>execute DataCompact('USDJPY_M1','USDJPY_H1',60);</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_H1',60);</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_H1',60);</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>458</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_H1',60);</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>459</v>
       </c>
@@ -15385,12 +15385,12 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_H1',60);</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>434</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_H4',240);</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>433</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>execute DataCompact('EURUSD_M1','EURUSD_H4',240);</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_H4',240);</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>431</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_H4',240);</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>430</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>execute DataCompact('SPX_M1','SPX_H4',240);</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>429</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>execute DataCompact('USDJPY_M1','USDJPY_H4',240);</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>454</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_H4',240);</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>428</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_H4',240);</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>460</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>execute DataCompact('GBPNZD_H1','ETXEUR_H4',60);</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>461</v>
       </c>
@@ -15604,12 +15604,12 @@
         <v>execute DataCompact('ETXEUR_H1','WTIUSD_H4',60);</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1440</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>427</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>426</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>execute DataCompact('EURUSD_M1','EURUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>425</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>424</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>423</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>execute DataCompact('SPX_M1','SPX_D1',1440);</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>422</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>execute DataCompact('USDJPY_M1','USDJPY_D1',1440);</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>455</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>421</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_D1',1440);</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>462</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>execute DataCompact('GBPNZD_H4','ETXEUR_D1',60);</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>463</v>
       </c>
@@ -15879,31 +15879,31 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
@@ -15911,12 +15911,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>70</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>471</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>472</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>469</v>
       </c>
@@ -15996,7 +15996,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>2</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>1</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>43465.707638888889</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>419</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>0</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>54</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>68</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>470</v>
       </c>
@@ -16145,7 +16145,7 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>464</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>43465.331944444442</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>5</v>
       </c>
@@ -16183,7 +16183,7 @@
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>8</v>
       </c>
@@ -16217,28 +16217,28 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="M4" sqref="M4:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D3" s="23" t="s">
         <v>210</v>
       </c>
@@ -16281,53 +16281,53 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" t="str">
         <f t="shared" ref="E4:N4" si="0">"echo load data &gt;"&amp;$B$1&amp;E$3&amp;".ctl"</f>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\AUDUSD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\EURUSD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPUSD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\XAUUSD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\NZDUSD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\USDJPY.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPNZD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\SPXUSD.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\ETXEUR.ctl</v>
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>echo load data &gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\WTIUSD.ctl</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>echo load data &gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2000</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>+C5+1</f>
         <v>2001</v>
@@ -16418,7 +16418,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" ref="C7:C19" si="3">+C6+1</f>
         <v>2002</v>
@@ -16464,7 +16464,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8">
         <f t="shared" si="3"/>
         <v>2003</v>
@@ -16510,7 +16510,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9">
         <f t="shared" si="3"/>
         <v>2004</v>
@@ -16556,7 +16556,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" si="3"/>
         <v>2005</v>
@@ -16602,7 +16602,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>+C10+1</f>
         <v>2006</v>
@@ -16648,7 +16648,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" si="3"/>
         <v>2007</v>
@@ -16694,7 +16694,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" si="3"/>
         <v>2008</v>
@@ -16740,7 +16740,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" si="3"/>
         <v>2009</v>
@@ -16786,372 +16786,396 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" si="3"/>
         <v>2010</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>+C15+1</f>
         <v>2011</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17">
         <f t="shared" si="3"/>
         <v>2012</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>2015</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2016</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" ref="M21:N33" si="4">IF($D21=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;N$3&amp;"_M1_"&amp;$C21&amp;".csv' &gt;&gt;"&amp;$B$1&amp;N$3&amp;".ctl")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2017</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23">
         <f t="shared" ref="C23:C33" si="5">+C22+1</f>
         <v>2018</v>
@@ -17161,46 +17185,46 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_AUDUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\AUDUSD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_AUDUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_EURUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\EURUSD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_EURUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_GBPUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPUSD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_XAUUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\XAUUSD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_XAUUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_NZDUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\NZDUSD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_NZDUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_USDJPY_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\USDJPY.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_USDJPY_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_GBPNZD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPNZD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_GBPNZD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="2"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_SPXUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\SPXUSD.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_SPXUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="4"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_ETXEUR_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\ETXEUR.ctl</v>
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="4"/>
-        <v>echo infile 'C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\DAT_MT_WTIUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\WTIUSD.ctl</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24">
         <f t="shared" si="5"/>
         <v>2019</v>
@@ -17246,7 +17270,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="5"/>
         <v>2020</v>
@@ -17292,7 +17316,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="5"/>
         <v>2021</v>
@@ -17338,7 +17362,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="5"/>
         <v>2022</v>
@@ -17384,7 +17408,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="5"/>
         <v>2023</v>
@@ -17430,7 +17454,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C29">
         <f t="shared" si="5"/>
         <v>2024</v>
@@ -17476,7 +17500,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C30">
         <f t="shared" si="5"/>
         <v>2025</v>
@@ -17522,7 +17546,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C31">
         <f t="shared" si="5"/>
         <v>2026</v>
@@ -17568,7 +17592,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C32">
         <f t="shared" si="5"/>
         <v>2027</v>
@@ -17614,7 +17638,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33">
         <f t="shared" si="5"/>
         <v>2028</v>
@@ -17660,142 +17684,142 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" s="22" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" t="str">
         <f>"echo append into table "&amp;E$3&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;E$3&amp;".ctl"</f>
-        <v>echo append into table AUDUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\AUDUSD.ctl</v>
+        <v>echo append into table AUDUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\AUDUSD.ctl</v>
       </c>
       <c r="F34" t="str">
         <f>"echo append into table "&amp;F$3&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;F$3&amp;".ctl"</f>
-        <v>echo append into table EURUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\EURUSD.ctl</v>
+        <v>echo append into table EURUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\EURUSD.ctl</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ref="G34:N34" si="6">"echo append into table "&amp;G$3&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;G$3&amp;".ctl"</f>
-        <v>echo append into table GBPUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPUSD.ctl</v>
+        <v>echo append into table GBPUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\GBPUSD.ctl</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="6"/>
-        <v>echo append into table XAUUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\XAUUSD.ctl</v>
+        <v>echo append into table XAUUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\XAUUSD.ctl</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="6"/>
-        <v>echo append into table NZDUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\NZDUSD.ctl</v>
+        <v>echo append into table NZDUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\NZDUSD.ctl</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="6"/>
-        <v>echo append into table USDJPY_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\USDJPY.ctl</v>
+        <v>echo append into table USDJPY_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\USDJPY.ctl</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="6"/>
-        <v>echo append into table GBPNZD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPNZD.ctl</v>
+        <v>echo append into table GBPNZD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\GBPNZD.ctl</v>
       </c>
       <c r="L34" t="str">
         <f>"echo append into table SPX"&amp;"_M1 fields terminated by "&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;" (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "&amp;CHAR(34)&amp;"to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')"&amp;CHAR(34)&amp;") &gt;&gt;"&amp;$B$1&amp;L$3&amp;".ctl"</f>
-        <v>echo append into table SPX_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\SPXUSD.ctl</v>
+        <v>echo append into table SPX_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\SPXUSD.ctl</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="6"/>
-        <v>echo append into table ETXEUR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\ETXEUR.ctl</v>
+        <v>echo append into table ETXEUR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="6"/>
-        <v>echo append into table WTIUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\WTIUSD.ctl</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+        <v>echo append into table WTIUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" t="str">
         <f>"sqlldr "&amp;$B$2&amp;" control="&amp;$B$1&amp;E$3&amp;".ctl log="&amp;$B$1&amp;E$3&amp;".log readsize=2000000 bindsize=2000000"</f>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\AUDUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\AUDUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\AUDUSD.ctl log=C:\Users\gcaglion\Downloads\AUDUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ref="F35:N35" si="7">"sqlldr "&amp;$B$2&amp;" control="&amp;$B$1&amp;F$3&amp;".ctl log="&amp;$B$1&amp;F$3&amp;".log readsize=2000000 bindsize=2000000"</f>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\EURUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\EURUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\EURUSD.ctl log=C:\Users\gcaglion\Downloads\EURUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\GBPUSD.ctl log=C:\Users\gcaglion\Downloads\GBPUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\XAUUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\XAUUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\XAUUSD.ctl log=C:\Users\gcaglion\Downloads\XAUUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\NZDUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\NZDUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\NZDUSD.ctl log=C:\Users\gcaglion\Downloads\NZDUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\USDJPY.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\USDJPY.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\USDJPY.ctl log=C:\Users\gcaglion\Downloads\USDJPY.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPNZD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPNZD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\GBPNZD.ctl log=C:\Users\gcaglion\Downloads\GBPNZD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\SPXUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\SPXUSD.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\SPXUSD.ctl log=C:\Users\gcaglion\Downloads\SPXUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\ETXEUR.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\ETXEUR.log readsize=2000000 bindsize=2000000</v>
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\ETXEUR.ctl log=C:\Users\gcaglion\Downloads\ETXEUR.log readsize=2000000 bindsize=2000000</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="7"/>
-        <v>sqlldr History2/HistoryPwd@Algo control=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\WTIUSD.ctl log=C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\WTIUSD.log readsize=2000000 bindsize=2000000</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+        <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\WTIUSD.ctl log=C:\Users\gcaglion\Downloads\WTIUSD.log readsize=2000000 bindsize=2000000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="22" t="s">
         <v>197</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" t="str">
         <f>"findstr /c:"&amp;CHAR(34)&amp;"not loaded due to data errors"&amp;CHAR(34)&amp;" "&amp;$B$1&amp;E$3&amp;".log"</f>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\AUDUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\AUDUSD.log</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ref="F36:N36" si="8">"findstr /c:"&amp;CHAR(34)&amp;"not loaded due to data errors"&amp;CHAR(34)&amp;" "&amp;$B$1&amp;F$3&amp;".log"</f>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\EURUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\EURUSD.log</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\GBPUSD.log</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\XAUUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\XAUUSD.log</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\NZDUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\NZDUSD.log</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\USDJPY.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\USDJPY.log</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\GBPNZD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\GBPNZD.log</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\SPXUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\SPXUSD.log</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\ETXEUR.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\ETXEUR.log</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="8"/>
-        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\appdata\roaming\MetaQuotes\terminal\91B85E7C52B57BF365F85A909F61CC9C\MQL5\Files\WTIUSD.log</v>
+        <v>findstr /c:"not loaded due to data errors" C:\Users\gcaglion\Downloads\WTIUSD.log</v>
       </c>
     </row>
   </sheetData>
@@ -17812,15 +17836,15 @@
   <dimension ref="A2:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -17894,7 +17918,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -17998,7 +18022,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_M5',5);</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -18102,7 +18126,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_M15',15);</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -18206,7 +18230,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_M30',30);</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -18310,7 +18334,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_H1',60);</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>240</v>
       </c>
@@ -18414,7 +18438,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_H4',240);</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1440</v>
       </c>
@@ -18518,7 +18542,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C10" t="str">
         <f>"truncate table "&amp;C$2&amp;"_"&amp;$B3&amp;";"</f>
         <v>truncate table AUDUSD_M5;</v>
@@ -18616,7 +18640,7 @@
         <v>truncate table WTIUSD_M5;</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" t="str">
         <f t="shared" ref="C11:S15" si="13">"truncate table "&amp;C$2&amp;"_"&amp;$B4&amp;";"</f>
         <v>truncate table AUDUSD_M15;</v>
@@ -18714,7 +18738,7 @@
         <v>truncate table WTIUSD_M15;</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" t="str">
         <f t="shared" si="13"/>
         <v>truncate table AUDUSD_M30;</v>
@@ -18812,7 +18836,7 @@
         <v>truncate table WTIUSD_M30;</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" t="str">
         <f t="shared" si="13"/>
         <v>truncate table AUDUSD_H1;</v>
@@ -18910,7 +18934,7 @@
         <v>truncate table WTIUSD_H1;</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" t="str">
         <f>"truncate table "&amp;C$2&amp;"_"&amp;$B7&amp;";"</f>
         <v>truncate table AUDUSD_H4;</v>
@@ -19008,7 +19032,7 @@
         <v>truncate table WTIUSD_H4;</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C15" t="str">
         <f t="shared" si="13"/>
         <v>truncate table AUDUSD_D1;</v>
@@ -19122,14 +19146,14 @@
       <selection pane="bottomRight" activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>417</v>
       </c>
@@ -19137,7 +19161,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -19149,7 +19173,7 @@
         <v>(for /r "D:\Historical_Futures_and_Indices\" %F in (Indices*.zip) do unzip %F  -d %~dnpF)</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -19157,7 +19181,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>175</v>
       </c>
@@ -19180,7 +19204,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>188</v>
       </c>
@@ -19199,7 +19223,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -19218,7 +19242,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
@@ -19234,7 +19258,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>29</v>
       </c>
@@ -19250,7 +19274,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
@@ -19267,7 +19291,7 @@
       <c r="H9" s="38"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>31</v>
       </c>
@@ -19283,7 +19307,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
@@ -19299,7 +19323,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>28</v>
       </c>
@@ -19315,7 +19339,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>6</v>
       </c>
@@ -19331,7 +19355,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>29</v>
       </c>
@@ -19347,7 +19371,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>7</v>
       </c>
@@ -19363,7 +19387,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>185</v>
       </c>
@@ -19394,7 +19418,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\LC??.csv C:\temp\HistData\Futures2014Q1M1\LC.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>9</v>
@@ -19423,7 +19447,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\C??.csv C:\temp\HistData\Futures2014Q1M1\C.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>9</v>
@@ -19452,7 +19476,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\HO??.csv C:\temp\HistData\Futures2014Q1M1\HO.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>9</v>
@@ -19481,7 +19505,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\NG??.csv C:\temp\HistData\Futures2014Q1M1\NG.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>9</v>
@@ -19510,7 +19534,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\CL.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\CL??.csv C:\temp\HistData\Futures2014Q1M1\CL.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>9</v>
@@ -19539,7 +19563,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\PL??.csv C:\temp\HistData\Futures2014Q1M1\PL.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>9</v>
@@ -19568,7 +19592,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\RR??.csv C:\temp\HistData\Futures2014Q1M1\RR.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>9</v>
@@ -19597,7 +19621,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\BO??.csv C:\temp\HistData\Futures2014Q1M1\BO.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>9</v>
@@ -19626,7 +19650,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\S??.csv C:\temp\HistData\Futures2014Q1M1\S.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>9</v>
@@ -19655,7 +19679,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\SB??.csv C:\temp\HistData\Futures2014Q1M1\SB.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>9</v>
@@ -19684,7 +19708,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\TY??.csv C:\temp\HistData\Futures2014Q1M1\TY.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>9</v>
@@ -19713,7 +19737,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\W??.csv C:\temp\HistData\Futures2014Q1M1\W.csv</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>9</v>
@@ -19742,7 +19766,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\XRB??.csv C:\temp\HistData\Futures2014Q1M1\XRB.csv</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>9</v>
@@ -19771,7 +19795,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\Z.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\Z??.csv C:\temp\HistData\Futures2014Q1M1\Z.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>9</v>
@@ -19800,7 +19824,7 @@
         <v>copy C:\temp\HistData\Indices2014Q1M1\$SPX.csv C:\temp\HistData\Indices2014Q1M1\$SPX.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>28</v>
@@ -19829,7 +19853,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\LC??.csv C:\temp\HistData\Futures2014Q1M5\LC.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>28</v>
@@ -19858,7 +19882,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\C??.csv C:\temp\HistData\Futures2014Q1M5\C.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>28</v>
@@ -19887,7 +19911,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\HO??.csv C:\temp\HistData\Futures2014Q1M5\HO.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>28</v>
@@ -19916,7 +19940,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\NG??.csv C:\temp\HistData\Futures2014Q1M5\NG.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="31" t="s">
         <v>28</v>
@@ -19945,7 +19969,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\CL.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\CL??.csv C:\temp\HistData\Futures2014Q1M5\CL.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
         <v>28</v>
@@ -19974,7 +19998,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\PL??.csv C:\temp\HistData\Futures2014Q1M5\PL.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
         <v>28</v>
@@ -20003,7 +20027,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\RR??.csv C:\temp\HistData\Futures2014Q1M5\RR.csv</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
         <v>28</v>
@@ -20032,7 +20056,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\BO??.csv C:\temp\HistData\Futures2014Q1M5\BO.csv</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="31" t="s">
         <v>28</v>
@@ -20061,7 +20085,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\S??.csv C:\temp\HistData\Futures2014Q1M5\S.csv</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>28</v>
@@ -20090,7 +20114,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\SB??.csv C:\temp\HistData\Futures2014Q1M5\SB.csv</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="31" t="s">
         <v>28</v>
@@ -20119,7 +20143,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\TY??.csv C:\temp\HistData\Futures2014Q1M5\TY.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="31" t="s">
         <v>28</v>
@@ -20148,7 +20172,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\W??.csv C:\temp\HistData\Futures2014Q1M5\W.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="31" t="s">
         <v>28</v>
@@ -20177,7 +20201,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\XRB??.csv C:\temp\HistData\Futures2014Q1M5\XRB.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="31" t="s">
         <v>28</v>
@@ -20206,7 +20230,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\Z.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\Z??.csv C:\temp\HistData\Futures2014Q1M5\Z.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
         <v>28</v>
@@ -20235,7 +20259,7 @@
         <v>copy C:\temp\HistData\Indices2014Q1M5\$SPX.csv C:\temp\HistData\Indices2014Q1M5\$SPX.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="31" t="s">
         <v>6</v>
@@ -20264,7 +20288,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\LC??.csv C:\temp\HistData\Futures2014Q1M15\LC.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="31" t="s">
         <v>6</v>
@@ -20293,7 +20317,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\C??.csv C:\temp\HistData\Futures2014Q1M15\C.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
         <v>6</v>
@@ -20322,7 +20346,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\HO??.csv C:\temp\HistData\Futures2014Q1M15\HO.csv</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
         <v>6</v>
@@ -20351,7 +20375,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\NG??.csv C:\temp\HistData\Futures2014Q1M15\NG.csv</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>6</v>
@@ -20380,7 +20404,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\CL.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\CL??.csv C:\temp\HistData\Futures2014Q1M15\CL.csv</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>6</v>
@@ -20409,7 +20433,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\PL??.csv C:\temp\HistData\Futures2014Q1M15\PL.csv</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="31" t="s">
         <v>6</v>
@@ -20438,7 +20462,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\RR??.csv C:\temp\HistData\Futures2014Q1M15\RR.csv</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
         <v>6</v>
@@ -20467,7 +20491,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\BO??.csv C:\temp\HistData\Futures2014Q1M15\BO.csv</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
         <v>6</v>
@@ -20496,7 +20520,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\S??.csv C:\temp\HistData\Futures2014Q1M15\S.csv</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
         <v>6</v>
@@ -20525,7 +20549,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\SB??.csv C:\temp\HistData\Futures2014Q1M15\SB.csv</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
         <v>6</v>
@@ -20554,7 +20578,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\TY??.csv C:\temp\HistData\Futures2014Q1M15\TY.csv</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
         <v>6</v>
@@ -20583,7 +20607,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\W??.csv C:\temp\HistData\Futures2014Q1M15\W.csv</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
         <v>6</v>
@@ -20612,7 +20636,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\XRB??.csv C:\temp\HistData\Futures2014Q1M15\XRB.csv</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
         <v>6</v>
@@ -20641,7 +20665,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\Z.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\Z??.csv C:\temp\HistData\Futures2014Q1M15\Z.csv</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
         <v>6</v>
@@ -20670,7 +20694,7 @@
         <v>copy C:\temp\HistData\Indices2014Q1M15\$SPX.csv C:\temp\HistData\Indices2014Q1M15\$SPX.csv</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
         <v>7</v>
@@ -20699,7 +20723,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\LC??.csv C:\temp\HistData\Futures2014Q1M30\LC.csv</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
         <v>7</v>
@@ -20728,7 +20752,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\C??.csv C:\temp\HistData\Futures2014Q1M30\C.csv</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
         <v>7</v>
@@ -20757,7 +20781,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\HO??.csv C:\temp\HistData\Futures2014Q1M30\HO.csv</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
         <v>7</v>
@@ -20786,7 +20810,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\NG??.csv C:\temp\HistData\Futures2014Q1M30\NG.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
         <v>7</v>
@@ -20815,7 +20839,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\CL.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\CL??.csv C:\temp\HistData\Futures2014Q1M30\CL.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
         <v>7</v>
@@ -20844,7 +20868,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\PL??.csv C:\temp\HistData\Futures2014Q1M30\PL.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
         <v>7</v>
@@ -20873,7 +20897,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\RR??.csv C:\temp\HistData\Futures2014Q1M30\RR.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
         <v>7</v>
@@ -20902,7 +20926,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\BO??.csv C:\temp\HistData\Futures2014Q1M30\BO.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
         <v>7</v>
@@ -20931,7 +20955,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\S??.csv C:\temp\HistData\Futures2014Q1M30\S.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
         <v>7</v>
@@ -20960,7 +20984,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\SB??.csv C:\temp\HistData\Futures2014Q1M30\SB.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
         <v>7</v>
@@ -20989,7 +21013,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\TY??.csv C:\temp\HistData\Futures2014Q1M30\TY.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
         <v>7</v>
@@ -21018,7 +21042,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\W??.csv C:\temp\HistData\Futures2014Q1M30\W.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
         <v>7</v>
@@ -21047,7 +21071,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\XRB??.csv C:\temp\HistData\Futures2014Q1M30\XRB.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
         <v>7</v>
@@ -21076,7 +21100,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\Z.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\Z??.csv C:\temp\HistData\Futures2014Q1M30\Z.csv</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
         <v>7</v>
@@ -21105,7 +21129,7 @@
         <v>copy C:\temp\HistData\Indices2014Q1M30\$SPX.csv C:\temp\HistData\Indices2014Q1M30\$SPX.csv</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
         <v>29</v>
@@ -21134,7 +21158,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\LC??.csv C:\temp\HistData\Futures2014Q1H1\LC.csv</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
         <v>29</v>
@@ -21163,7 +21187,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\C.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\C??.csv C:\temp\HistData\Futures2014Q1H1\C.csv</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
         <v>29</v>
@@ -21192,7 +21216,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\HO??.csv C:\temp\HistData\Futures2014Q1H1\HO.csv</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
         <v>29</v>
@@ -21221,7 +21245,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\NG??.csv C:\temp\HistData\Futures2014Q1H1\NG.csv</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
         <v>29</v>
@@ -21250,7 +21274,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\CL.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\CL??.csv C:\temp\HistData\Futures2014Q1H1\CL.csv</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
         <v>29</v>
@@ -21279,7 +21303,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\PL??.csv C:\temp\HistData\Futures2014Q1H1\PL.csv</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
         <v>29</v>
@@ -21308,7 +21332,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\RR??.csv C:\temp\HistData\Futures2014Q1H1\RR.csv</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
         <v>29</v>
@@ -21337,7 +21361,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\BO??.csv C:\temp\HistData\Futures2014Q1H1\BO.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
         <v>29</v>
@@ -21366,7 +21390,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\S.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\S??.csv C:\temp\HistData\Futures2014Q1H1\S.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
         <v>29</v>
@@ -21395,7 +21419,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\SB??.csv C:\temp\HistData\Futures2014Q1H1\SB.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
         <v>29</v>
@@ -21424,7 +21448,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\TY??.csv C:\temp\HistData\Futures2014Q1H1\TY.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
         <v>29</v>
@@ -21453,7 +21477,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\W.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\W??.csv C:\temp\HistData\Futures2014Q1H1\W.csv</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="30"/>
       <c r="B88" s="31" t="s">
         <v>29</v>
@@ -21482,7 +21506,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\XRB??.csv C:\temp\HistData\Futures2014Q1H1\XRB.csv</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="31" t="s">
         <v>29</v>
@@ -21511,7 +21535,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\Z.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\Z??.csv C:\temp\HistData\Futures2014Q1H1\Z.csv</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="30"/>
       <c r="B90" s="31" t="s">
         <v>29</v>
@@ -21540,7 +21564,7 @@
         <v>copy C:\temp\HistData\Indices2014Q1H1\$SPX.csv C:\temp\HistData\Indices2014Q1H1\$SPX.csv</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="30"/>
       <c r="B91" s="31" t="s">
         <v>31</v>
@@ -21569,7 +21593,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\LC??.csv C:\temp\HistData\Futures2014Q1D1\LC.csv</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30"/>
       <c r="B92" s="31" t="s">
         <v>31</v>
@@ -21598,7 +21622,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\C.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\C??.csv C:\temp\HistData\Futures2014Q1D1\C.csv</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="30"/>
       <c r="B93" s="31" t="s">
         <v>31</v>
@@ -21627,7 +21651,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\HO??.csv C:\temp\HistData\Futures2014Q1D1\HO.csv</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="30"/>
       <c r="B94" s="31" t="s">
         <v>31</v>
@@ -21656,7 +21680,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\NG??.csv C:\temp\HistData\Futures2014Q1D1\NG.csv</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="30"/>
       <c r="B95" s="31" t="s">
         <v>31</v>
@@ -21685,7 +21709,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\CL.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\CL??.csv C:\temp\HistData\Futures2014Q1D1\CL.csv</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="30"/>
       <c r="B96" s="31" t="s">
         <v>31</v>
@@ -21714,7 +21738,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\PL??.csv C:\temp\HistData\Futures2014Q1D1\PL.csv</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="30"/>
       <c r="B97" s="31" t="s">
         <v>31</v>
@@ -21743,7 +21767,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\RR??.csv C:\temp\HistData\Futures2014Q1D1\RR.csv</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="30"/>
       <c r="B98" s="31" t="s">
         <v>31</v>
@@ -21772,7 +21796,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\BO??.csv C:\temp\HistData\Futures2014Q1D1\BO.csv</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="30"/>
       <c r="B99" s="31" t="s">
         <v>31</v>
@@ -21801,7 +21825,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\S.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\S??.csv C:\temp\HistData\Futures2014Q1D1\S.csv</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30"/>
       <c r="B100" s="31" t="s">
         <v>31</v>
@@ -21830,7 +21854,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\SB??.csv C:\temp\HistData\Futures2014Q1D1\SB.csv</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="30"/>
       <c r="B101" s="31" t="s">
         <v>31</v>
@@ -21859,7 +21883,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\TY??.csv C:\temp\HistData\Futures2014Q1D1\TY.csv</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="30"/>
       <c r="B102" s="31" t="s">
         <v>31</v>
@@ -21888,7 +21912,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\W.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\W??.csv C:\temp\HistData\Futures2014Q1D1\W.csv</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="30"/>
       <c r="B103" s="31" t="s">
         <v>31</v>
@@ -21917,7 +21941,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\XRB??.csv C:\temp\HistData\Futures2014Q1D1\XRB.csv</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30"/>
       <c r="B104" s="31" t="s">
         <v>31</v>
@@ -21946,7 +21970,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\Z.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\Z??.csv C:\temp\HistData\Futures2014Q1D1\Z.csv</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="30"/>
       <c r="B105" s="31" t="s">
         <v>31</v>
@@ -21975,7 +21999,7 @@
         <v>copy C:\temp\HistData\Indices2014Q1D1\$SPX.csv C:\temp\HistData\Indices2014Q1D1\$SPX.csv</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>190</v>
       </c>
@@ -22006,7 +22030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B107" s="28" t="s">
         <v>9</v>
       </c>
@@ -22034,7 +22058,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\C.csv' append into table CORN_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\CORN-M1.ctl</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B108" s="28" t="s">
         <v>9</v>
       </c>
@@ -22062,7 +22086,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\HO.csv' append into table HOIL_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\HOIL-M1.ctl</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B109" s="28" t="s">
         <v>9</v>
       </c>
@@ -22090,7 +22114,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\NG.csv' append into table NGAS_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\NGAS-M1.ctl</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B110" s="28" t="s">
         <v>9</v>
       </c>
@@ -22118,7 +22142,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\CL.csv' append into table OIL_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\OIL-M1.ctl</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B111" s="28" t="s">
         <v>9</v>
       </c>
@@ -22146,7 +22170,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\PL.csv' append into table PLATINUM_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\PLATINUM-M1.ctl</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B112" s="28" t="s">
         <v>9</v>
       </c>
@@ -22174,7 +22198,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\RR.csv' append into table RICE_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\RICE-M1.ctl</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="28" t="s">
         <v>9</v>
       </c>
@@ -22202,7 +22226,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\BO.csv' append into table SBO_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\SBO-M1.ctl</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="28" t="s">
         <v>9</v>
       </c>
@@ -22230,7 +22254,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\S.csv' append into table SOYBEANS_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\SOYBEANS-M1.ctl</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="28" t="s">
         <v>9</v>
       </c>
@@ -22258,7 +22282,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\SB.csv' append into table SUGAR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\SUGAR-M1.ctl</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="28" t="s">
         <v>9</v>
       </c>
@@ -22286,7 +22310,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\TY.csv' append into table US10YR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\US10YR-M1.ctl</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="28" t="s">
         <v>9</v>
       </c>
@@ -22314,7 +22338,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\W.csv' append into table WHEAT_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\WHEAT-M1.ctl</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="28" t="s">
         <v>9</v>
       </c>
@@ -22342,7 +22366,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\XRB.csv' append into table XRB_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\XRB-M1.ctl</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="28" t="s">
         <v>9</v>
       </c>
@@ -22370,7 +22394,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\Z.csv' append into table FTSE_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\FTSE-M1.ctl</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="28" t="s">
         <v>9</v>
       </c>
@@ -22398,7 +22422,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Indices2014Q1M1\$SPX.csv' append into table SPX_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Indices2014Q1M1\SPX-M1.ctl</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="28" t="s">
         <v>28</v>
       </c>
@@ -22426,7 +22450,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\LC.csv' append into table CATTLE_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\CATTLE-M5.ctl</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="28" t="s">
         <v>28</v>
       </c>
@@ -22454,7 +22478,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\C.csv' append into table CORN_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\CORN-M5.ctl</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="28" t="s">
         <v>28</v>
       </c>
@@ -22482,7 +22506,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\HO.csv' append into table HOIL_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\HOIL-M5.ctl</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="28" t="s">
         <v>28</v>
       </c>
@@ -22510,7 +22534,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\NG.csv' append into table NGAS_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\NGAS-M5.ctl</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="28" t="s">
         <v>28</v>
       </c>
@@ -22538,7 +22562,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\CL.csv' append into table OIL_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\OIL-M5.ctl</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="28" t="s">
         <v>28</v>
       </c>
@@ -22566,7 +22590,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\PL.csv' append into table PLATINUM_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\PLATINUM-M5.ctl</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="28" t="s">
         <v>28</v>
       </c>
@@ -22594,7 +22618,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\RR.csv' append into table RICE_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\RICE-M5.ctl</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" s="28" t="s">
         <v>28</v>
       </c>
@@ -22622,7 +22646,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\BO.csv' append into table SBO_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\SBO-M5.ctl</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="28" t="s">
         <v>28</v>
       </c>
@@ -22650,7 +22674,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\S.csv' append into table SOYBEANS_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\SOYBEANS-M5.ctl</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="28" t="s">
         <v>28</v>
       </c>
@@ -22678,7 +22702,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\SB.csv' append into table SUGAR_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\SUGAR-M5.ctl</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="28" t="s">
         <v>28</v>
       </c>
@@ -22706,7 +22730,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\TY.csv' append into table US10YR_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\US10YR-M5.ctl</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="28" t="s">
         <v>28</v>
       </c>
@@ -22734,7 +22758,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\W.csv' append into table WHEAT_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\WHEAT-M5.ctl</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="28" t="s">
         <v>28</v>
       </c>
@@ -22762,7 +22786,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\XRB.csv' append into table XRB_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\XRB-M5.ctl</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="28" t="s">
         <v>28</v>
       </c>
@@ -22790,7 +22814,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\Z.csv' append into table FTSE_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\FTSE-M5.ctl</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="28" t="s">
         <v>28</v>
       </c>
@@ -22818,7 +22842,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Indices2014Q1M5\$SPX.csv' append into table SPX_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Indices2014Q1M5\SPX-M5.ctl</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="28" t="s">
         <v>6</v>
       </c>
@@ -22846,7 +22870,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\LC.csv' append into table CATTLE_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\CATTLE-M15.ctl</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="28" t="s">
         <v>6</v>
       </c>
@@ -22874,7 +22898,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\C.csv' append into table CORN_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\CORN-M15.ctl</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="28" t="s">
         <v>6</v>
       </c>
@@ -22902,7 +22926,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\HO.csv' append into table HOIL_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\HOIL-M15.ctl</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="28" t="s">
         <v>6</v>
       </c>
@@ -22930,7 +22954,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\NG.csv' append into table NGAS_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\NGAS-M15.ctl</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="28" t="s">
         <v>6</v>
       </c>
@@ -22958,7 +22982,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\CL.csv' append into table OIL_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\OIL-M15.ctl</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="28" t="s">
         <v>6</v>
       </c>
@@ -22986,7 +23010,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\PL.csv' append into table PLATINUM_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\PLATINUM-M15.ctl</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="28" t="s">
         <v>6</v>
       </c>
@@ -23014,7 +23038,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\RR.csv' append into table RICE_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\RICE-M15.ctl</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
         <v>6</v>
       </c>
@@ -23042,7 +23066,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\BO.csv' append into table SBO_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\SBO-M15.ctl</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="28" t="s">
         <v>6</v>
       </c>
@@ -23070,7 +23094,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\S.csv' append into table SOYBEANS_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\SOYBEANS-M15.ctl</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="28" t="s">
         <v>6</v>
       </c>
@@ -23098,7 +23122,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\SB.csv' append into table SUGAR_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\SUGAR-M15.ctl</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="28" t="s">
         <v>6</v>
       </c>
@@ -23126,7 +23150,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\TY.csv' append into table US10YR_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\US10YR-M15.ctl</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="28" t="s">
         <v>6</v>
       </c>
@@ -23154,7 +23178,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\W.csv' append into table WHEAT_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\WHEAT-M15.ctl</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="28" t="s">
         <v>6</v>
       </c>
@@ -23182,7 +23206,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\XRB.csv' append into table XRB_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\XRB-M15.ctl</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="28" t="s">
         <v>6</v>
       </c>
@@ -23210,7 +23234,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\Z.csv' append into table FTSE_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\FTSE-M15.ctl</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="28" t="s">
         <v>6</v>
       </c>
@@ -23238,7 +23262,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Indices2014Q1M15\$SPX.csv' append into table SPX_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Indices2014Q1M15\SPX-M15.ctl</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="28" t="s">
         <v>7</v>
       </c>
@@ -23266,7 +23290,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\LC.csv' append into table CATTLE_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\CATTLE-M30.ctl</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="28" t="s">
         <v>7</v>
       </c>
@@ -23294,7 +23318,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\C.csv' append into table CORN_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\CORN-M30.ctl</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="28" t="s">
         <v>7</v>
       </c>
@@ -23322,7 +23346,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\HO.csv' append into table HOIL_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\HOIL-M30.ctl</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" s="28" t="s">
         <v>7</v>
       </c>
@@ -23350,7 +23374,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\NG.csv' append into table NGAS_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\NGAS-M30.ctl</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="28" t="s">
         <v>7</v>
       </c>
@@ -23378,7 +23402,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\CL.csv' append into table OIL_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\OIL-M30.ctl</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="28" t="s">
         <v>7</v>
       </c>
@@ -23406,7 +23430,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\PL.csv' append into table PLATINUM_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\PLATINUM-M30.ctl</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="28" t="s">
         <v>7</v>
       </c>
@@ -23434,7 +23458,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\RR.csv' append into table RICE_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\RICE-M30.ctl</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="28" t="s">
         <v>7</v>
       </c>
@@ -23462,7 +23486,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\BO.csv' append into table SBO_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\SBO-M30.ctl</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
         <v>7</v>
       </c>
@@ -23490,7 +23514,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\S.csv' append into table SOYBEANS_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\SOYBEANS-M30.ctl</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="28" t="s">
         <v>7</v>
       </c>
@@ -23518,7 +23542,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\SB.csv' append into table SUGAR_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\SUGAR-M30.ctl</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="28" t="s">
         <v>7</v>
       </c>
@@ -23546,7 +23570,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\TY.csv' append into table US10YR_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\US10YR-M30.ctl</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" s="28" t="s">
         <v>7</v>
       </c>
@@ -23574,7 +23598,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\W.csv' append into table WHEAT_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\WHEAT-M30.ctl</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" s="28" t="s">
         <v>7</v>
       </c>
@@ -23602,7 +23626,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\XRB.csv' append into table XRB_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\XRB-M30.ctl</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="28" t="s">
         <v>7</v>
       </c>
@@ -23630,7 +23654,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\Z.csv' append into table FTSE_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\FTSE-M30.ctl</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="28" t="s">
         <v>7</v>
       </c>
@@ -23658,7 +23682,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Indices2014Q1M30\$SPX.csv' append into table SPX_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Indices2014Q1M30\SPX-M30.ctl</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" s="28" t="s">
         <v>29</v>
       </c>
@@ -23686,7 +23710,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\LC.csv' append into table CATTLE_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\CATTLE-H1.ctl</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="28" t="s">
         <v>29</v>
       </c>
@@ -23714,7 +23738,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\C.csv' append into table CORN_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\CORN-H1.ctl</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" s="28" t="s">
         <v>29</v>
       </c>
@@ -23742,7 +23766,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\HO.csv' append into table HOIL_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\HOIL-H1.ctl</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" s="28" t="s">
         <v>29</v>
       </c>
@@ -23770,7 +23794,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\NG.csv' append into table NGAS_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\NGAS-H1.ctl</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" s="28" t="s">
         <v>29</v>
       </c>
@@ -23798,7 +23822,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\CL.csv' append into table OIL_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\OIL-H1.ctl</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" s="28" t="s">
         <v>29</v>
       </c>
@@ -23826,7 +23850,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\PL.csv' append into table PLATINUM_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\PLATINUM-H1.ctl</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" s="28" t="s">
         <v>29</v>
       </c>
@@ -23854,7 +23878,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\RR.csv' append into table RICE_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\RICE-H1.ctl</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" s="28" t="s">
         <v>29</v>
       </c>
@@ -23882,7 +23906,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\BO.csv' append into table SBO_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\SBO-H1.ctl</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" s="28" t="s">
         <v>29</v>
       </c>
@@ -23910,7 +23934,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\S.csv' append into table SOYBEANS_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\SOYBEANS-H1.ctl</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" s="28" t="s">
         <v>29</v>
       </c>
@@ -23938,7 +23962,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\SB.csv' append into table SUGAR_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\SUGAR-H1.ctl</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="28" t="s">
         <v>29</v>
       </c>
@@ -23966,7 +23990,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\TY.csv' append into table US10YR_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\US10YR-H1.ctl</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="28" t="s">
         <v>29</v>
       </c>
@@ -23994,7 +24018,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\W.csv' append into table WHEAT_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\WHEAT-H1.ctl</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="28" t="s">
         <v>29</v>
       </c>
@@ -24022,7 +24046,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\XRB.csv' append into table XRB_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\XRB-H1.ctl</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="28" t="s">
         <v>29</v>
       </c>
@@ -24050,7 +24074,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\Z.csv' append into table FTSE_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\FTSE-H1.ctl</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="28" t="s">
         <v>29</v>
       </c>
@@ -24078,7 +24102,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Indices2014Q1H1\$SPX.csv' append into table SPX_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Indices2014Q1H1\SPX-H1.ctl</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="28" t="s">
         <v>31</v>
       </c>
@@ -24106,7 +24130,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\LC.csv' append into table CATTLE_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\CATTLE-D1.ctl</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="28" t="s">
         <v>31</v>
       </c>
@@ -24134,7 +24158,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\C.csv' append into table CORN_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\CORN-D1.ctl</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="28" t="s">
         <v>31</v>
       </c>
@@ -24162,7 +24186,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\HO.csv' append into table HOIL_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\HOIL-D1.ctl</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="28" t="s">
         <v>31</v>
       </c>
@@ -24190,7 +24214,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\NG.csv' append into table NGAS_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\NGAS-D1.ctl</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="28" t="s">
         <v>31</v>
       </c>
@@ -24218,7 +24242,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\CL.csv' append into table OIL_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\OIL-D1.ctl</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="28" t="s">
         <v>31</v>
       </c>
@@ -24246,7 +24270,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\PL.csv' append into table PLATINUM_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\PLATINUM-D1.ctl</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="28" t="s">
         <v>31</v>
       </c>
@@ -24274,7 +24298,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\RR.csv' append into table RICE_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\RICE-D1.ctl</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" s="28" t="s">
         <v>31</v>
       </c>
@@ -24302,7 +24326,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\BO.csv' append into table SBO_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\SBO-D1.ctl</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" s="28" t="s">
         <v>31</v>
       </c>
@@ -24330,7 +24354,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\S.csv' append into table SOYBEANS_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\SOYBEANS-D1.ctl</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="28" t="s">
         <v>31</v>
       </c>
@@ -24358,7 +24382,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\SB.csv' append into table SUGAR_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\SUGAR-D1.ctl</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" s="28" t="s">
         <v>31</v>
       </c>
@@ -24386,7 +24410,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\TY.csv' append into table US10YR_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\US10YR-D1.ctl</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" s="28" t="s">
         <v>31</v>
       </c>
@@ -24414,7 +24438,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\W.csv' append into table WHEAT_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\WHEAT-D1.ctl</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="28" t="s">
         <v>31</v>
       </c>
@@ -24442,7 +24466,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\XRB.csv' append into table XRB_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\XRB-D1.ctl</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="28" t="s">
         <v>31</v>
       </c>
@@ -24470,7 +24494,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\Z.csv' append into table FTSE_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\FTSE-D1.ctl</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="28" t="s">
         <v>31</v>
       </c>
@@ -24498,7 +24522,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Indices2014Q1D1\$SPX.csv' append into table SPX_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Indices2014Q1D1\SPX-D1.ctl</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="24" t="s">
         <v>9</v>
       </c>
@@ -24526,7 +24550,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Forex2014Q1M1\XAUUSD-M1.ctl log=C:\temp\HistData\Forex2014Q1M1-XAUUSD-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" s="24" t="s">
         <v>9</v>
       </c>
@@ -24554,7 +24578,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\CORN-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-CORN-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" s="24" t="s">
         <v>9</v>
       </c>
@@ -24582,7 +24606,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\HOIL-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-HOIL-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" s="24" t="s">
         <v>9</v>
       </c>
@@ -24610,7 +24634,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\NGAS-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-NGAS-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="24" t="s">
         <v>9</v>
       </c>
@@ -24638,7 +24662,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\OIL-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-OIL-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B201" s="24" t="s">
         <v>9</v>
       </c>
@@ -24666,7 +24690,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\PLATINUM-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-PLATINUM-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" s="24" t="s">
         <v>9</v>
       </c>
@@ -24694,7 +24718,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\RICE-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-RICE-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="24" t="s">
         <v>9</v>
       </c>
@@ -24722,7 +24746,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\SBO-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-SBO-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" s="24" t="s">
         <v>9</v>
       </c>
@@ -24750,7 +24774,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\SOYBEANS-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-SOYBEANS-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B205" s="24" t="s">
         <v>9</v>
       </c>
@@ -24778,7 +24802,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\SUGAR-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-SUGAR-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="24" t="s">
         <v>9</v>
       </c>
@@ -24806,7 +24830,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\US10YR-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-US10YR-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B207" s="24" t="s">
         <v>9</v>
       </c>
@@ -24834,7 +24858,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\WHEAT-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-WHEAT-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B208" s="24" t="s">
         <v>9</v>
       </c>
@@ -24862,7 +24886,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\XRB-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-XRB-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="24" t="s">
         <v>9</v>
       </c>
@@ -24890,7 +24914,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M1\FTSE-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-FTSE-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B210" s="24" t="s">
         <v>9</v>
       </c>
@@ -24918,7 +24942,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Indices2014Q1M1\SPX-M1.ctl log=C:\temp\HistData\Indices2014Q1M1-SPX-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="24" t="s">
         <v>28</v>
       </c>
@@ -24946,7 +24970,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\CATTLE-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-CATTLE-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B212" s="24" t="s">
         <v>28</v>
       </c>
@@ -24974,7 +24998,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\CORN-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-CORN-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="24" t="s">
         <v>28</v>
       </c>
@@ -25002,7 +25026,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\HOIL-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-HOIL-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" s="24" t="s">
         <v>28</v>
       </c>
@@ -25030,7 +25054,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\NGAS-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-NGAS-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="24" t="s">
         <v>28</v>
       </c>
@@ -25058,7 +25082,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\OIL-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-OIL-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="24" t="s">
         <v>28</v>
       </c>
@@ -25086,7 +25110,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\PLATINUM-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-PLATINUM-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="24" t="s">
         <v>28</v>
       </c>
@@ -25114,7 +25138,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\RICE-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-RICE-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="24" t="s">
         <v>28</v>
       </c>
@@ -25142,7 +25166,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\SBO-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-SBO-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="24" t="s">
         <v>28</v>
       </c>
@@ -25170,7 +25194,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\SOYBEANS-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-SOYBEANS-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" s="24" t="s">
         <v>28</v>
       </c>
@@ -25198,7 +25222,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\SUGAR-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-SUGAR-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="24" t="s">
         <v>28</v>
       </c>
@@ -25226,7 +25250,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\US10YR-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-US10YR-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="24" t="s">
         <v>28</v>
       </c>
@@ -25254,7 +25278,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\WHEAT-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-WHEAT-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="24" t="s">
         <v>28</v>
       </c>
@@ -25282,7 +25306,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\XRB-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-XRB-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="24" t="s">
         <v>28</v>
       </c>
@@ -25310,7 +25334,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M5\FTSE-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-FTSE-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="24" t="s">
         <v>28</v>
       </c>
@@ -25338,7 +25362,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Indices2014Q1M5\SPX-M5.ctl log=C:\temp\HistData\Indices2014Q1M5-SPX-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="24" t="s">
         <v>6</v>
       </c>
@@ -25366,7 +25390,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\CATTLE-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-CATTLE-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="24" t="s">
         <v>6</v>
       </c>
@@ -25394,7 +25418,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\CORN-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-CORN-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="24" t="s">
         <v>6</v>
       </c>
@@ -25422,7 +25446,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\HOIL-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-HOIL-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="24" t="s">
         <v>6</v>
       </c>
@@ -25450,7 +25474,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\NGAS-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-NGAS-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="24" t="s">
         <v>6</v>
       </c>
@@ -25478,7 +25502,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\OIL-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-OIL-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" s="24" t="s">
         <v>6</v>
       </c>
@@ -25506,7 +25530,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\PLATINUM-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-PLATINUM-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="24" t="s">
         <v>6</v>
       </c>
@@ -25534,7 +25558,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\RICE-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-RICE-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" s="24" t="s">
         <v>6</v>
       </c>
@@ -25562,7 +25586,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\SBO-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-SBO-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" s="24" t="s">
         <v>6</v>
       </c>
@@ -25590,7 +25614,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\SOYBEANS-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-SOYBEANS-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="24" t="s">
         <v>6</v>
       </c>
@@ -25618,7 +25642,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\SUGAR-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-SUGAR-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B236" s="24" t="s">
         <v>6</v>
       </c>
@@ -25646,7 +25670,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\US10YR-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-US10YR-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B237" s="24" t="s">
         <v>6</v>
       </c>
@@ -25674,7 +25698,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\WHEAT-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-WHEAT-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="24" t="s">
         <v>6</v>
       </c>
@@ -25702,7 +25726,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\XRB-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-XRB-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B239" s="24" t="s">
         <v>6</v>
       </c>
@@ -25730,7 +25754,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M15\FTSE-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-FTSE-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B240" s="24" t="s">
         <v>6</v>
       </c>
@@ -25758,7 +25782,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Indices2014Q1M15\SPX-M15.ctl log=C:\temp\HistData\Indices2014Q1M15-SPX-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B241" s="24" t="s">
         <v>7</v>
       </c>
@@ -25786,7 +25810,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\CATTLE-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-CATTLE-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" s="24" t="s">
         <v>7</v>
       </c>
@@ -25814,7 +25838,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\CORN-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-CORN-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B243" s="24" t="s">
         <v>7</v>
       </c>
@@ -25842,7 +25866,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\HOIL-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-HOIL-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="24" t="s">
         <v>7</v>
       </c>
@@ -25870,7 +25894,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\NGAS-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-NGAS-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="24" t="s">
         <v>7</v>
       </c>
@@ -25898,7 +25922,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\OIL-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-OIL-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="24" t="s">
         <v>7</v>
       </c>
@@ -25926,7 +25950,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\PLATINUM-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-PLATINUM-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="24" t="s">
         <v>7</v>
       </c>
@@ -25954,7 +25978,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\RICE-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-RICE-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="24" t="s">
         <v>7</v>
       </c>
@@ -25982,7 +26006,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\SBO-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-SBO-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="24" t="s">
         <v>7</v>
       </c>
@@ -26010,7 +26034,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\SOYBEANS-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-SOYBEANS-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="24" t="s">
         <v>7</v>
       </c>
@@ -26038,7 +26062,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\SUGAR-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-SUGAR-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="24" t="s">
         <v>7</v>
       </c>
@@ -26066,7 +26090,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\US10YR-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-US10YR-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="24" t="s">
         <v>7</v>
       </c>
@@ -26094,7 +26118,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\WHEAT-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-WHEAT-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="24" t="s">
         <v>7</v>
       </c>
@@ -26122,7 +26146,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\XRB-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-XRB-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="24" t="s">
         <v>7</v>
       </c>
@@ -26150,7 +26174,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1M30\FTSE-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-FTSE-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="24" t="s">
         <v>7</v>
       </c>
@@ -26178,7 +26202,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Indices2014Q1M30\SPX-M30.ctl log=C:\temp\HistData\Indices2014Q1M30-SPX-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="24" t="s">
         <v>29</v>
       </c>
@@ -26206,7 +26230,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\CATTLE-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-CATTLE-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" s="24" t="s">
         <v>29</v>
       </c>
@@ -26234,7 +26258,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\CORN-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-CORN-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" s="24" t="s">
         <v>29</v>
       </c>
@@ -26262,7 +26286,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\HOIL-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-HOIL-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" s="24" t="s">
         <v>29</v>
       </c>
@@ -26290,7 +26314,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\NGAS-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-NGAS-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" s="24" t="s">
         <v>29</v>
       </c>
@@ -26318,7 +26342,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\OIL-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-OIL-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" s="24" t="s">
         <v>29</v>
       </c>
@@ -26346,7 +26370,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\PLATINUM-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-PLATINUM-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="24" t="s">
         <v>29</v>
       </c>
@@ -26374,7 +26398,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\RICE-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-RICE-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="24" t="s">
         <v>29</v>
       </c>
@@ -26402,7 +26426,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\SBO-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-SBO-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" s="24" t="s">
         <v>29</v>
       </c>
@@ -26430,7 +26454,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\SOYBEANS-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-SOYBEANS-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="24" t="s">
         <v>29</v>
       </c>
@@ -26458,7 +26482,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\SUGAR-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-SUGAR-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" s="24" t="s">
         <v>29</v>
       </c>
@@ -26486,7 +26510,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\US10YR-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-US10YR-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="24" t="s">
         <v>29</v>
       </c>
@@ -26514,7 +26538,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\WHEAT-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-WHEAT-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="24" t="s">
         <v>29</v>
       </c>
@@ -26542,7 +26566,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\XRB-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-XRB-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B269" s="24" t="s">
         <v>29</v>
       </c>
@@ -26570,7 +26594,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1H1\FTSE-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-FTSE-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="24" t="s">
         <v>29</v>
       </c>
@@ -26598,7 +26622,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Indices2014Q1H1\SPX-H1.ctl log=C:\temp\HistData\Indices2014Q1H1-SPX-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" s="24" t="s">
         <v>31</v>
       </c>
@@ -26626,7 +26650,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\CATTLE-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-CATTLE-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" s="24" t="s">
         <v>31</v>
       </c>
@@ -26654,7 +26678,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\CORN-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-CORN-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" s="24" t="s">
         <v>31</v>
       </c>
@@ -26682,7 +26706,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\HOIL-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-HOIL-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B274" s="24" t="s">
         <v>31</v>
       </c>
@@ -26710,7 +26734,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\NGAS-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-NGAS-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" s="24" t="s">
         <v>31</v>
       </c>
@@ -26738,7 +26762,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\OIL-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-OIL-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" s="24" t="s">
         <v>31</v>
       </c>
@@ -26766,7 +26790,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\PLATINUM-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-PLATINUM-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" s="24" t="s">
         <v>31</v>
       </c>
@@ -26794,7 +26818,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\RICE-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-RICE-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" s="24" t="s">
         <v>31</v>
       </c>
@@ -26822,7 +26846,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\SBO-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-SBO-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" s="24" t="s">
         <v>31</v>
       </c>
@@ -26850,7 +26874,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\SOYBEANS-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-SOYBEANS-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B280" s="24" t="s">
         <v>31</v>
       </c>
@@ -26878,7 +26902,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\SUGAR-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-SUGAR-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B281" s="24" t="s">
         <v>31</v>
       </c>
@@ -26906,7 +26930,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\US10YR-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-US10YR-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B282" s="24" t="s">
         <v>31</v>
       </c>
@@ -26934,7 +26958,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\WHEAT-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-WHEAT-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B283" s="24" t="s">
         <v>31</v>
       </c>
@@ -26962,7 +26986,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\XRB-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-XRB-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B284" s="24" t="s">
         <v>31</v>
       </c>
@@ -26990,7 +27014,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Futures2014Q1D1\FTSE-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-FTSE-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B285" s="24" t="s">
         <v>31</v>
       </c>
@@ -27018,7 +27042,7 @@
         <v>sqlldr userid=History/HistoryPwd control=C:\temp\HistData\Indices2014Q1D1\SPX-D1.ctl log=C:\temp\HistData\Indices2014Q1D1-SPX-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D286" t="str">
         <f>"findstr /c:"&amp;CHAR(34)&amp;"not loaded due to data errors"&amp;CHAR(34)&amp;" /d:"&amp;$B$2&amp;" *.log"</f>
         <v>findstr /c:"not loaded due to data errors" /d:C:\temp\HistData\ *.log</v>

--- a/AlgoDB/AlgoDB_Management.xlsx
+++ b/AlgoDB/AlgoDB_Management.xlsx
@@ -76,7 +76,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="483">
   <si>
     <t>GBPUSD</t>
   </si>
@@ -1751,9 +1751,6 @@
     <t>FOREX</t>
   </si>
   <si>
-    <t>STOCKS</t>
-  </si>
-  <si>
     <t>BONDS</t>
   </si>
   <si>
@@ -1788,6 +1785,9 @@
   </si>
   <si>
     <t>union</t>
+  </si>
+  <si>
+    <t>INDICES</t>
   </si>
 </sst>
 </file>
@@ -2066,301 +2066,301 @@
   </cellStyles>
   <dxfs count="284">
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="yyyy/mm/dd\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="yyyy/mm/dd\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2369,7 +2369,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2381,10 +2381,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2393,7 +2393,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2404,7 +2404,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2413,133 +2413,133 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2548,7 +2548,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2560,10 +2560,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2572,7 +2572,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2583,7 +2583,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2592,133 +2592,133 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2727,7 +2727,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2739,10 +2739,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2751,7 +2751,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2762,7 +2762,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2771,133 +2771,133 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2906,7 +2906,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2918,10 +2918,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2930,7 +2930,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -2941,7 +2941,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2950,88 +2950,88 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3047,7 +3047,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="gcaglion" refreshedDate="43490.441992476852" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="168">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="felicini" refreshedDate="43687.706460532405" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="56">
   <cacheSource type="external" connectionId="41"/>
   <cacheFields count="9">
     <cacheField name="TABLENAME" numFmtId="0" sqlType="12">
@@ -3055,31 +3055,31 @@
     </cacheField>
     <cacheField name="SYMBOL" numFmtId="0" sqlType="12">
       <sharedItems count="25">
-        <s v="AUDUSD"/>
-        <s v="CATTLE"/>
-        <s v="CORN"/>
         <s v="ETXEUR"/>
         <s v="EURUSD"/>
-        <s v="FTSE"/>
-        <s v="GBPNZD"/>
         <s v="GBPUSD"/>
-        <s v="HOIL"/>
-        <s v="NGAS"/>
-        <s v="NZDUSD"/>
-        <s v="OIL"/>
-        <s v="PLATINUM"/>
-        <s v="RICE"/>
-        <s v="SBO"/>
-        <s v="SOYBEANS"/>
         <s v="SPX"/>
-        <s v="SUGAR"/>
         <s v="US10YR"/>
         <s v="USDJPY"/>
-        <s v="WHEAT"/>
         <s v="WTIUSD"/>
         <s v="XAUUSD"/>
-        <s v="XRB"/>
+        <s v="CORN" u="1"/>
+        <s v="HOIL" u="1"/>
+        <s v="SUGAR" u="1"/>
+        <s v="AUDUSD" u="1"/>
+        <s v="SOYBEANS" u="1"/>
+        <s v="CATTLE" u="1"/>
+        <s v="NZDUSD" u="1"/>
+        <s v="OIL" u="1"/>
         <s v="GOLD" u="1"/>
+        <s v="NGAS" u="1"/>
+        <s v="PLATINUM" u="1"/>
+        <s v="SBO" u="1"/>
+        <s v="XRB" u="1"/>
+        <s v="RICE" u="1"/>
+        <s v="WHEAT" u="1"/>
+        <s v="FTSE" u="1"/>
+        <s v="GBPNZD" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="TIMEFRAME" numFmtId="0" sqlType="12">
@@ -3101,106 +3101,97 @@
       </sharedItems>
     </cacheField>
     <cacheField name="TOTALCOUNT" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6160868"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6166608" count="27">
+        <n v="2072"/>
+        <n v="29065"/>
+        <n v="0"/>
+        <n v="1277846"/>
+        <n v="5701"/>
+        <n v="113029"/>
+        <n v="6166608"/>
+        <n v="5704"/>
+        <n v="113036"/>
+        <n v="6051930"/>
+        <n v="2518"/>
+        <n v="48996"/>
+        <n v="2117667"/>
+        <n v="7856"/>
+        <n v="25305"/>
+        <n v="544614"/>
+        <n v="74100"/>
+        <n v="43183"/>
+        <n v="5706"/>
+        <n v="113123"/>
+        <n v="6129662"/>
+        <n v="2520"/>
+        <n v="48486"/>
+        <n v="2555385"/>
+        <n v="3050"/>
+        <n v="59342"/>
+        <n v="3447353"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="MINDATE" numFmtId="0" sqlType="11">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2000-05-30T00:00:00" maxDate="2010-11-16T00:00:00" count="29">
-        <d v="2000-06-05T00:00:00"/>
-        <d v="2000-06-05T12:00:00"/>
-        <d v="2000-06-05T12:03:00"/>
-        <m/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1982-05-03T23:59:00" maxDate="2010-11-16T00:00:00" count="19">
         <d v="2010-11-15T00:00:00"/>
         <d v="2010-11-15T02:00:00"/>
+        <m/>
         <d v="2000-05-30T00:00:00"/>
         <d v="2000-05-30T17:00:00"/>
-        <d v="2000-05-30T16:00:00"/>
         <d v="2000-05-30T17:27:00"/>
-        <d v="2000-05-30T17:15:00"/>
-        <d v="2000-05-30T17:25:00"/>
-        <d v="2008-03-30T00:00:00"/>
-        <d v="2008-03-30T17:00:00"/>
-        <d v="2008-03-30T16:00:00"/>
         <d v="2000-05-30T17:59:00"/>
-        <d v="2005-08-12T00:00:00"/>
-        <d v="2005-08-12T17:00:00"/>
-        <d v="2005-08-12T16:00:00"/>
-        <d v="2005-08-12T17:01:00"/>
         <d v="2010-11-14T00:00:00"/>
         <d v="2010-11-14T18:00:00"/>
-        <d v="2010-11-14T16:00:00"/>
+        <d v="1982-05-03T23:59:00"/>
+        <d v="1998-04-13T16:00:00"/>
+        <d v="1998-04-13T15:03:00"/>
+        <d v="1998-04-13T15:15:00"/>
+        <d v="1998-04-13T15:30:00"/>
         <d v="2000-05-30T17:58:00"/>
         <d v="2010-11-14T20:00:00"/>
         <d v="2010-11-14T20:15:00"/>
         <d v="2009-03-15T00:00:00"/>
         <d v="2009-03-15T17:00:00"/>
-        <d v="2009-03-15T16:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MAXDATE" numFmtId="0" sqlType="11">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2015-12-24T12:00:00" maxDate="2018-12-31T16:59:00" count="27">
-        <d v="2017-12-28T00:00:00"/>
-        <d v="2015-12-24T12:00:00"/>
-        <d v="2017-12-29T12:00:00"/>
-        <d v="2018-12-31T16:58:00"/>
-        <m/>
-        <d v="2017-10-27T16:50:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-07-12T15:02:00" maxDate="2018-12-31T16:59:00" count="15">
         <d v="2018-12-28T00:00:00"/>
         <d v="2018-12-31T06:00:00"/>
-        <d v="2018-12-31T00:00:00"/>
+        <m/>
         <d v="2018-12-31T07:58:00"/>
-        <d v="2018-12-31T07:30:00"/>
-        <d v="2018-12-31T07:00:00"/>
-        <d v="2018-12-31T07:50:00"/>
         <d v="2018-12-30T00:00:00"/>
         <d v="2018-12-31T15:00:00"/>
-        <d v="2018-12-31T12:00:00"/>
         <d v="2018-12-31T16:59:00"/>
-        <d v="2018-12-31T16:30:00"/>
-        <d v="2018-12-31T16:00:00"/>
-        <d v="2018-12-31T16:50:00"/>
-        <d v="2017-12-29T15:00:00"/>
+        <d v="2018-12-31T16:58:00"/>
         <d v="2018-12-31T16:13:00"/>
-        <d v="2018-12-31T15:45:00"/>
-        <d v="2018-12-31T15:30:00"/>
-        <d v="2018-12-31T16:05:00"/>
+        <d v="2013-07-12T23:59:00"/>
+        <d v="2013-07-12T16:00:00"/>
+        <d v="2013-07-12T15:02:00"/>
+        <d v="2013-07-12T15:15:00"/>
+        <d v="2013-07-12T15:30:00"/>
         <d v="2018-12-31T16:16:00"/>
-        <d v="2018-12-31T16:10:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="SYMBOL2" numFmtId="0" sqlType="12">
-      <sharedItems count="24">
-        <s v="AUDUSD"/>
-        <s v="CATTLE"/>
-        <s v="CORN"/>
+      <sharedItems count="8">
         <s v="ETXEUR"/>
         <s v="EURUSD"/>
-        <s v="FTSE"/>
-        <s v="GBPNZD"/>
         <s v="GBPUSD"/>
-        <s v="HOIL"/>
-        <s v="NGAS"/>
-        <s v="NZDUSD"/>
-        <s v="OIL"/>
-        <s v="PLATINUM"/>
-        <s v="RICE"/>
-        <s v="SBO"/>
-        <s v="SOYBEANS"/>
         <s v="SPX"/>
-        <s v="SUGAR"/>
         <s v="US10YR"/>
         <s v="USDJPY"/>
-        <s v="WHEAT"/>
         <s v="WTIUSD"/>
         <s v="XAUUSD"/>
-        <s v="XRB"/>
       </sharedItems>
     </cacheField>
     <cacheField name="CATEGORY" numFmtId="0" sqlType="12">
-      <sharedItems count="4">
+      <sharedItems count="5">
+        <s v="INDICES"/>
         <s v="FOREX"/>
+        <s v="BONDS"/>
         <s v="COMMODITIES"/>
-        <s v="STOCKS"/>
-        <s v="BONDS"/>
+        <s v="STOCKS" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3213,1890 +3204,658 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="168">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="56">
   <r>
-    <s v="AUDUSD_D1"/>
+    <s v="ETXEUR_D1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="5139"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AUDUSD_H1"/>
+    <s v="ETXEUR_H1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="88174"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AUDUSD_H4"/>
+    <s v="ETXEUR_H4"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="26145"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AUDUSD_M1"/>
+    <s v="ETXEUR_M1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5525543"/>
-    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AUDUSD_M15"/>
+    <s v="ETXEUR_M15"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AUDUSD_M30"/>
+    <s v="ETXEUR_M30"/>
     <x v="0"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="AUDUSD_M5"/>
+    <s v="ETXEUR_M5"/>
     <x v="0"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="1161021"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="CATTLE_D1"/>
+    <s v="EURUSD_D1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="4"/>
     <x v="3"/>
     <x v="4"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CATTLE_H1"/>
+    <s v="EURUSD_H1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
+    <x v="5"/>
     <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CATTLE_H4"/>
+    <s v="EURUSD_H4"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CATTLE_M1"/>
+    <s v="EURUSD_M1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CATTLE_M15"/>
+    <s v="EURUSD_M15"/>
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CATTLE_M30"/>
+    <s v="EURUSD_M30"/>
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CATTLE_M5"/>
+    <s v="EURUSD_M5"/>
     <x v="1"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_D1"/>
+    <s v="GBPUSD_D1"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="7"/>
     <x v="3"/>
     <x v="4"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_H1"/>
+    <s v="GBPUSD_H1"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
+    <x v="8"/>
     <x v="4"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_H4"/>
+    <s v="GBPUSD_H4"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_M1"/>
+    <s v="GBPUSD_M1"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="7"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_M15"/>
+    <s v="GBPUSD_M15"/>
     <x v="2"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_M30"/>
+    <s v="GBPUSD_M30"/>
     <x v="2"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CORN_M5"/>
+    <s v="GBPUSD_M5"/>
     <x v="2"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="ETXEUR_D1"/>
+    <s v="SPX_D1"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="2072"/>
+    <x v="10"/>
+    <x v="7"/>
     <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SPX_H1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SPX_H4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SPX_M1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SPX_M15"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SPX_M30"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SPX_M5"/>
+    <x v="3"/>
     <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="US10YR_D1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="ETXEUR_H1"/>
-    <x v="3"/>
+    <s v="US10YR_H1"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="29065"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="3"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="ETXEUR_H4"/>
-    <x v="3"/>
+    <s v="US10YR_H4"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="8544"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="4"/>
-    <x v="8"/>
-    <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="ETXEUR_M1"/>
-    <x v="3"/>
+    <s v="US10YR_M1"/>
+    <x v="4"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="1277846"/>
-    <x v="5"/>
-    <x v="9"/>
-    <x v="3"/>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="ETXEUR_M15"/>
-    <x v="3"/>
+    <s v="US10YR_M15"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="115223"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="3"/>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="ETXEUR_M30"/>
-    <x v="3"/>
+    <s v="US10YR_M30"/>
+    <x v="4"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="57921"/>
-    <x v="5"/>
-    <x v="11"/>
-    <x v="3"/>
+    <x v="17"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="ETXEUR_M5"/>
-    <x v="3"/>
+    <s v="US10YR_M5"/>
+    <x v="4"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="332825"/>
-    <x v="5"/>
-    <x v="12"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="EURUSD_D1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5696"/>
-    <x v="6"/>
-    <x v="13"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EURUSD_H1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="112933"/>
-    <x v="7"/>
-    <x v="14"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EURUSD_H4"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="29284"/>
-    <x v="8"/>
-    <x v="15"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EURUSD_M1"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="6160868"/>
-    <x v="9"/>
-    <x v="16"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EURUSD_M15"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="449430"/>
-    <x v="10"/>
-    <x v="17"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EURUSD_M30"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="225346"/>
-    <x v="7"/>
-    <x v="18"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EURUSD_M5"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="1335673"/>
-    <x v="11"/>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="FTSE_D1"/>
+    <s v="USDJPY_D1"/>
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="18"/>
     <x v="3"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="FTSE_H1"/>
+    <s v="USDJPY_H1"/>
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
+    <x v="19"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="FTSE_H4"/>
+    <s v="USDJPY_H4"/>
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="FTSE_M1"/>
+    <s v="USDJPY_M1"/>
     <x v="5"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="20"/>
+    <x v="14"/>
+    <x v="7"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="FTSE_M15"/>
+    <s v="USDJPY_M15"/>
     <x v="5"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="FTSE_M30"/>
+    <s v="USDJPY_M30"/>
     <x v="5"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="FTSE_M5"/>
+    <s v="USDJPY_M5"/>
     <x v="5"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="GBPNZD_D1"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3036"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPNZD_H1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="60478"/>
-    <x v="13"/>
-    <x v="20"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPNZD_H4"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="15634"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPNZD_M1"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="3957732"/>
-    <x v="13"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPNZD_M15"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPNZD_M30"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPNZD_M5"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_D1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5386"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_H1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="106714"/>
-    <x v="7"/>
-    <x v="20"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_H4"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="27679"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_M1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="6046193"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_M15"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_M30"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="GBPUSD_M5"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="HOIL_D1"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HOIL_H1"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HOIL_H4"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HOIL_M1"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HOIL_M15"/>
-    <x v="8"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HOIL_M30"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="HOIL_M5"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_D1"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_H1"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_H4"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_M1"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_M15"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_M30"/>
-    <x v="9"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NGAS_M5"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="NZDUSD_D1"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3666"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="NZDUSD_H1"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="73075"/>
-    <x v="17"/>
-    <x v="20"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="NZDUSD_H4"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="18892"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="NZDUSD_M1"/>
-    <x v="10"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4207343"/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="NZDUSD_M15"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="NZDUSD_M30"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="NZDUSD_M5"/>
-    <x v="10"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="OIL_D1"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="OIL_H1"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="OIL_H4"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="OIL_M1"/>
-    <x v="11"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="OIL_M15"/>
-    <x v="11"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="OIL_M30"/>
-    <x v="11"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="OIL_M5"/>
-    <x v="11"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_D1"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_H1"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_H4"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_M1"/>
-    <x v="12"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_M15"/>
-    <x v="12"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_M30"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="PLATINUM_M5"/>
-    <x v="12"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_D1"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_H1"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_H4"/>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_M1"/>
-    <x v="13"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_M15"/>
-    <x v="13"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_M30"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RICE_M5"/>
-    <x v="13"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_D1"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_H1"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_H4"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_M1"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_M15"/>
-    <x v="14"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_M30"/>
-    <x v="14"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SBO_M5"/>
-    <x v="14"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_D1"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_H1"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_H4"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_M1"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_M15"/>
-    <x v="15"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_M30"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOYBEANS_M5"/>
-    <x v="15"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SPX_D1"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2518"/>
-    <x v="20"/>
-    <x v="13"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SPX_H1"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="48996"/>
-    <x v="21"/>
-    <x v="14"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SPX_H4"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="12925"/>
-    <x v="22"/>
-    <x v="15"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SPX_M1"/>
-    <x v="16"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="2117667"/>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SPX_M15"/>
-    <x v="16"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="190548"/>
-    <x v="21"/>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SPX_M30"/>
-    <x v="16"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="96652"/>
-    <x v="21"/>
-    <x v="23"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SPX_M5"/>
-    <x v="16"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="543097"/>
-    <x v="21"/>
-    <x v="24"/>
-    <x v="16"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="SUGAR_D1"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SUGAR_H1"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SUGAR_H4"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SUGAR_M1"/>
-    <x v="17"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SUGAR_M15"/>
-    <x v="17"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SUGAR_M30"/>
-    <x v="17"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SUGAR_M5"/>
-    <x v="17"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="US10YR_D1"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="US10YR_H1"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="US10YR_H4"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="US10YR_M1"/>
-    <x v="18"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="US10YR_M15"/>
-    <x v="18"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="US10YR_M30"/>
-    <x v="18"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="US10YR_M5"/>
-    <x v="18"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="USDJPY_D1"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5388"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="USDJPY_H1"/>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="106801"/>
-    <x v="7"/>
-    <x v="20"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="USDJPY_H4"/>
-    <x v="19"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="27697"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="USDJPY_M1"/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="6123961"/>
-    <x v="23"/>
-    <x v="3"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="USDJPY_M15"/>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="USDJPY_M30"/>
-    <x v="19"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="USDJPY_M5"/>
-    <x v="19"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="WHEAT_D1"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="WHEAT_H1"/>
-    <x v="20"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="WHEAT_H4"/>
-    <x v="20"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="WHEAT_M1"/>
-    <x v="20"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="WHEAT_M15"/>
-    <x v="20"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="WHEAT_M30"/>
-    <x v="20"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="WHEAT_M5"/>
-    <x v="20"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="20"/>
     <x v="1"/>
   </r>
   <r>
     <s v="WTIUSD_D1"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="2520"/>
-    <x v="20"/>
-    <x v="13"/>
     <x v="21"/>
-    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="WTIUSD_H1"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="48486"/>
-    <x v="24"/>
-    <x v="14"/>
-    <x v="21"/>
-    <x v="1"/>
+    <x v="22"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="WTIUSD_H4"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="12882"/>
-    <x v="24"/>
-    <x v="15"/>
-    <x v="21"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="WTIUSD_M1"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="2555385"/>
-    <x v="25"/>
-    <x v="25"/>
-    <x v="21"/>
-    <x v="1"/>
+    <x v="23"/>
+    <x v="16"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="WTIUSD_M15"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="190766"/>
-    <x v="25"/>
-    <x v="18"/>
-    <x v="21"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="WTIUSD_M30"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="95926"/>
-    <x v="24"/>
-    <x v="23"/>
-    <x v="21"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="WTIUSD_M5"/>
-    <x v="21"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="565687"/>
-    <x v="25"/>
-    <x v="26"/>
-    <x v="21"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="XAUUSD_D1"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="2733"/>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="22"/>
-    <x v="1"/>
+    <x v="24"/>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="XAUUSD_H1"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="53215"/>
-    <x v="27"/>
-    <x v="20"/>
-    <x v="22"/>
-    <x v="1"/>
+    <x v="25"/>
+    <x v="18"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="XAUUSD_H4"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="14062"/>
-    <x v="28"/>
     <x v="2"/>
-    <x v="22"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="XAUUSD_M1"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="3441846"/>
-    <x v="27"/>
+    <x v="26"/>
+    <x v="18"/>
+    <x v="7"/>
+    <x v="7"/>
     <x v="3"/>
-    <x v="22"/>
-    <x v="1"/>
   </r>
   <r>
     <s v="XAUUSD_M15"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="3"/>
-    <x v="4"/>
-    <x v="22"/>
-    <x v="1"/>
   </r>
   <r>
     <s v="XAUUSD_M30"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="3"/>
-    <x v="4"/>
-    <x v="22"/>
-    <x v="1"/>
   </r>
   <r>
     <s v="XAUUSD_M5"/>
-    <x v="22"/>
+    <x v="7"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="614568"/>
-    <x v="27"/>
-    <x v="5"/>
-    <x v="22"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_D1"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
     <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_H1"/>
-    <x v="23"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_H4"/>
-    <x v="23"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_M1"/>
-    <x v="23"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_M15"/>
-    <x v="23"/>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_M30"/>
-    <x v="23"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="XRB_M5"/>
-    <x v="23"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:G18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:G17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="26">
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="2"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="17"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="21"/>
+        <item m="1" x="19"/>
+        <item m="1" x="12"/>
         <item x="3"/>
+        <item m="1" x="10"/>
         <item x="4"/>
         <item x="5"/>
+        <item m="1" x="22"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="24"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
+        <item m="1" x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5125,11 +3884,12 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
         <item x="0"/>
-        <item x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -5137,42 +3897,39 @@
     <field x="8"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i r="1">
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
       <x v="20"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i r="1">
       <x v="17"/>
@@ -6443,7 +5200,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,30 +5212,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>480</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6489,7 +5246,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +5257,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -17977,7 +16734,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
@@ -17992,7 +16749,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
@@ -23907,10 +22664,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23983,45 +22740,41 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>472</v>
+      <c r="A7" s="53" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="18">
-        <v>101701</v>
+        <v>25305</v>
       </c>
       <c r="C7" s="35">
-        <v>39887.708333333336</v>
+        <v>35898.666666666664</v>
       </c>
       <c r="D7" s="35">
-        <v>43465.625</v>
+        <v>41467.666666666664</v>
       </c>
       <c r="E7" s="18">
-        <v>5997231</v>
+        <v>544614</v>
       </c>
       <c r="F7" s="35">
-        <v>39887.708333333336</v>
+        <v>35898.627083333333</v>
       </c>
       <c r="G7" s="35">
-        <v>43465.706944444442</v>
+        <v>41467.626388888886</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="35"/>
@@ -24032,114 +22785,102 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>2</v>
+        <v>465</v>
       </c>
       <c r="B9" s="18">
-        <v>88174</v>
+        <v>48486</v>
       </c>
       <c r="C9" s="35">
-        <v>36682.5</v>
+        <v>40496.833333333336</v>
       </c>
       <c r="D9" s="35">
-        <v>42362.5</v>
+        <v>43465.625</v>
       </c>
       <c r="E9" s="18">
-        <v>5525543</v>
+        <v>2555385</v>
       </c>
       <c r="F9" s="35">
-        <v>36682.502083333333</v>
+        <v>40496.84375</v>
       </c>
       <c r="G9" s="35">
-        <v>43465.706944444442</v>
+        <v>43465.677777777775</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="B10" s="18">
-        <v>112933</v>
+        <v>59342</v>
       </c>
       <c r="C10" s="35">
-        <v>36676.708333333336</v>
+        <v>39887.708333333336</v>
       </c>
       <c r="D10" s="35">
         <v>43465.625</v>
       </c>
       <c r="E10" s="18">
-        <v>6160868</v>
+        <v>3447353</v>
       </c>
       <c r="F10" s="35">
-        <v>36676.727083333331</v>
+        <v>39887.708333333336</v>
       </c>
       <c r="G10" s="35">
-        <v>43465.707638888889</v>
+        <v>43465.706944444442</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" s="18">
-        <v>60478</v>
-      </c>
-      <c r="C11" s="35">
-        <v>39537.708333333336</v>
-      </c>
-      <c r="D11" s="35">
-        <v>43098.625</v>
-      </c>
-      <c r="E11" s="18">
-        <v>3957732</v>
-      </c>
-      <c r="F11" s="35">
-        <v>39537.708333333336</v>
-      </c>
-      <c r="G11" s="35">
-        <v>43465.706944444442</v>
-      </c>
+      <c r="A11" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="18">
-        <v>106714</v>
+        <v>113029</v>
       </c>
       <c r="C12" s="35">
         <v>36676.708333333336</v>
       </c>
       <c r="D12" s="35">
-        <v>43098.625</v>
+        <v>43465.625</v>
       </c>
       <c r="E12" s="18">
-        <v>6046193</v>
+        <v>6166608</v>
       </c>
       <c r="F12" s="35">
-        <v>36676.749305555553</v>
+        <v>36676.727083333331</v>
       </c>
       <c r="G12" s="35">
-        <v>43465.706944444442</v>
+        <v>43465.707638888889</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B13" s="18">
-        <v>73075</v>
+        <v>113036</v>
       </c>
       <c r="C13" s="35">
-        <v>38576.708333333336</v>
+        <v>36676.708333333336</v>
       </c>
       <c r="D13" s="35">
-        <v>43098.625</v>
+        <v>43465.625</v>
       </c>
       <c r="E13" s="18">
-        <v>4207343</v>
+        <v>6051930</v>
       </c>
       <c r="F13" s="35">
-        <v>38576.709027777775</v>
+        <v>36676.749305555553</v>
       </c>
       <c r="G13" s="35">
         <v>43465.706944444442</v>
@@ -24150,16 +22891,16 @@
         <v>68</v>
       </c>
       <c r="B14" s="18">
-        <v>106801</v>
+        <v>113123</v>
       </c>
       <c r="C14" s="35">
         <v>36676.708333333336</v>
       </c>
       <c r="D14" s="35">
-        <v>43098.625</v>
+        <v>43465.625</v>
       </c>
       <c r="E14" s="18">
-        <v>6123961</v>
+        <v>6129662</v>
       </c>
       <c r="F14" s="35">
         <v>36676.748611111114</v>
@@ -24170,7 +22911,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="35"/>
@@ -24204,39 +22945,24 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+        <v>48996</v>
+      </c>
+      <c r="C17" s="35">
+        <v>40496.75</v>
+      </c>
+      <c r="D17" s="35">
+        <v>43465.625</v>
+      </c>
       <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="18">
-        <v>48996</v>
-      </c>
-      <c r="C18" s="35">
+        <v>2117667</v>
+      </c>
+      <c r="F17" s="35">
         <v>40496.75</v>
       </c>
-      <c r="D18" s="35">
-        <v>43465.625</v>
-      </c>
-      <c r="E18" s="18">
-        <v>2117667</v>
-      </c>
-      <c r="F18" s="35">
-        <v>40496.75</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="G17" s="35">
         <v>43465.675694444442</v>
       </c>
     </row>
@@ -24269,7 +22995,7 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -24277,7 +23003,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">

--- a/AlgoDB/AlgoDB_Management.xlsx
+++ b/AlgoDB/AlgoDB_Management.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\AAA\AlgoDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felicini\dev\aaa\AlgoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataFile_Rename" sheetId="29" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="438">
   <si>
     <t>GBPUSD</t>
   </si>
@@ -678,33 +678,9 @@
     <t>Z</t>
   </si>
   <si>
-    <t>NNUser</t>
-  </si>
-  <si>
-    <t>NNPwd</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>HistoryPwd</t>
   </si>
   <si>
-    <t>GAUser</t>
-  </si>
-  <si>
-    <t>GAPwd</t>
-  </si>
-  <si>
-    <t>CCUser</t>
-  </si>
-  <si>
-    <t>CCPwd</t>
-  </si>
-  <si>
-    <t>GridUser</t>
-  </si>
-  <si>
     <t>GridPwd</t>
   </si>
   <si>
@@ -744,18 +720,12 @@
     <t>USERS</t>
   </si>
   <si>
-    <t>Def.Tbs</t>
-  </si>
-  <si>
     <t>Pwd</t>
   </si>
   <si>
     <t>FileId</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>GridData</t>
   </si>
   <si>
@@ -765,9 +735,6 @@
     <t>Create</t>
   </si>
   <si>
-    <t>Grant DBA</t>
-  </si>
-  <si>
     <t>drop table TConcordance;</t>
   </si>
   <si>
@@ -1399,6 +1366,36 @@
   </si>
   <si>
     <t>UKXGBP</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>griduser</t>
+  </si>
+  <si>
+    <t>loguser</t>
+  </si>
+  <si>
+    <t>concuser</t>
+  </si>
+  <si>
+    <t>Def.TBS</t>
+  </si>
+  <si>
+    <t>LogData</t>
+  </si>
+  <si>
+    <t>ConcData</t>
+  </si>
+  <si>
+    <t>LogPwd</t>
+  </si>
+  <si>
+    <t>ConcPwd</t>
+  </si>
+  <si>
+    <t>Grant</t>
   </si>
 </sst>
 </file>
@@ -1671,11 +1668,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3312,7 +3309,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:D28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -3792,30 +3789,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3823,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +3834,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5705,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5716,41 +5713,41 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" style="37" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="39" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>"drop tablespace "&amp;C3&amp;";"</f>
         <v>drop tablespace HistoryData;</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E3" s="37">
         <v>1</v>
@@ -5763,13 +5760,13 @@
         <v>create tablespace HistoryData datafile 'D:\app\oracle\oradata\algo\HistoryData01.dbf' size 16384M;</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f t="shared" ref="B4:B8" si="1">"drop tablespace "&amp;C4&amp;";"</f>
         <v>drop tablespace HistoryIdx;</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -5782,13 +5779,13 @@
         <v>create tablespace HistoryIdx datafile 'D:\app\oracle\oradata\algo\HistoryIdx01.dbf' size 4096M;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GAData;</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E5" s="37">
         <v>1</v>
@@ -5801,13 +5798,13 @@
         <v>create tablespace GAData datafile 'D:\app\oracle\oradata\algo\GAData01.dbf' size 3072M;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GAIdx;</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E6" s="37">
         <v>1</v>
@@ -5820,13 +5817,13 @@
         <v>create tablespace GAIdx datafile 'D:\app\oracle\oradata\algo\GAIdx01.dbf' size 512M;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GridData;</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E7" s="37">
         <v>1</v>
@@ -5839,13 +5836,13 @@
         <v>create tablespace GridData datafile 'D:\app\oracle\oradata\algo\GridData01.dbf' size 4096M;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GridIdx;</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E8" s="37">
         <v>1</v>
@@ -5858,141 +5855,116 @@
         <v>create tablespace GridIdx datafile 'D:\app\oracle\oradata\algo\GridIdx01.dbf' size 2048M;</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f>"drop user "&amp;C11&amp;" cascade;"</f>
-        <v>drop user History cascade;</v>
+      <c r="E10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" t="str">
-        <f>"create user "&amp;C11&amp;" identified by "&amp;D11&amp;" default tablespace "&amp;F11&amp;";"</f>
-        <v>create user History identified by HistoryPwd default tablespace GAData;</v>
-      </c>
-      <c r="H11" t="str">
-        <f>"grant dba to "&amp;C11&amp;";"</f>
-        <v>grant dba to History;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" ref="B12:B15" si="2">"drop user "&amp;C12&amp;" cascade;"</f>
-        <v>drop user GAUser cascade;</v>
+        <v>198</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"create user "&amp;A11&amp;" identified by "&amp;C11&amp;" default tablespace "&amp;B11&amp;";"</f>
+        <v>create user history identified by HistoryPwd default tablespace HistoryData;</v>
+      </c>
+      <c r="E11" t="str">
+        <f>"grant dba to "&amp;A11&amp;";"</f>
+        <v>grant dba to history;</v>
+      </c>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ref="G12:G15" si="3">"create user "&amp;C12&amp;" identified by "&amp;D12&amp;" default tablespace "&amp;F12&amp;";"</f>
-        <v>create user GAUser identified by GAPwd default tablespace HistoryData;</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ref="H12:H15" si="4">"grant dba to "&amp;C12&amp;";"</f>
-        <v>grant dba to GAUser;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f t="shared" si="2"/>
-        <v>drop user NNUser cascade;</v>
+        <v>435</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D14" si="2">"create user "&amp;A12&amp;" identified by "&amp;C12&amp;" default tablespace "&amp;B12&amp;";"</f>
+        <v>create user loguser identified by LogPwd default tablespace LogData;</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ref="E12:E14" si="3">"grant dba to "&amp;A12&amp;";"</f>
+        <v>grant dba to loguser;</v>
+      </c>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>create user concuser identified by ConcPwd default tablespace ConcData;</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>grant dba to concuser;</v>
+      </c>
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
         <v>199</v>
       </c>
-      <c r="F13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>create user griduser identified by GridPwd default tablespace GridData;</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>create user NNUser identified by NNPwd default tablespace Users;</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="4"/>
-        <v>grant dba to NNUser;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f t="shared" si="2"/>
-        <v>drop user CCUser cascade;</v>
-      </c>
-      <c r="C14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v>create user CCUser identified by CCPwd default tablespace Users;</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>grant dba to CCUser;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f t="shared" si="2"/>
-        <v>drop user GridUser cascade;</v>
-      </c>
-      <c r="C15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" t="s">
-        <v>224</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="3"/>
-        <v>create user GridUser identified by GridPwd default tablespace GridData;</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="4"/>
-        <v>grant dba to GridUser;</v>
-      </c>
+        <v>grant dba to griduser;</v>
+      </c>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+      <c r="L15" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6010,139 +5982,139 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>"connect "&amp;Tablespaces_and_Users!C11&amp;"/"&amp;Tablespaces_and_Users!D11</f>
-        <v>connect History/HistoryPwd</v>
+        <f>"connect "&amp;Tablespaces_and_Users!J11&amp;"/"&amp;Tablespaces_and_Users!K11</f>
+        <v>connect /</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6162,1162 +6134,1162 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>"connect "&amp;Tablespaces_and_Users!C11&amp;"/"&amp;Tablespaces_and_Users!D11</f>
-        <v>connect History/HistoryPwd</v>
+        <f>"connect "&amp;Tablespaces_and_Users!J11&amp;"/"&amp;Tablespaces_and_Users!K11</f>
+        <v>connect /</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>"grant select any table to "&amp;Tablespaces_and_Users!C12&amp;";"</f>
-        <v>grant select any table to GAUser;</v>
+        <f>"grant select any table to "&amp;Tablespaces_and_Users!J12&amp;";"</f>
+        <v>grant select any table to ;</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>"grant select any table to "&amp;Tablespaces_and_Users!C13&amp;";"</f>
-        <v>grant select any table to NNUser;</v>
+        <f>"grant select any table to "&amp;Tablespaces_and_Users!J13&amp;";"</f>
+        <v>grant select any table to ;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>"grant select any table to "&amp;Tablespaces_and_Users!C14&amp;";"</f>
-        <v>grant select any table to CCUser;</v>
+        <f>"grant select any table to "&amp;Tablespaces_and_Users!J14&amp;";"</f>
+        <v>grant select any table to ;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>"grant select any table to "&amp;Tablespaces_and_Users!C15&amp;";"</f>
-        <v>grant select any table to GridUser;</v>
+        <f>"grant select any table to "&amp;Tablespaces_and_Users!J15&amp;";"</f>
+        <v>grant select any table to ;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B66" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C70" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C76" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C77" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C79" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C88" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C94" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B102" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B106" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C108" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C110" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C116" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C117" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C119" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C120" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B122" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B125" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B126" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C130" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C131" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C132" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C133" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C137" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B138" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C139" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C140" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B142" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B143" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B144" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B145" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B146" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C147" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C148" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7352,7 +7324,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -7360,26 +7332,26 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
@@ -7394,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
@@ -7531,76 +7503,76 @@
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="N13" s="47" t="s">
+      <c r="M13" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="P13" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q13" s="46" t="s">
+      <c r="O13" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q13" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="46" t="s">
+      <c r="S13" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="46" t="s">
+      <c r="T13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="U13" s="46" t="s">
+      <c r="U13" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="W13" s="46" t="s">
+      <c r="W13" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="X13" s="46" t="s">
+      <c r="X13" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="46" t="s">
+      <c r="Y13" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="46" t="s">
+      <c r="Z13" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AA13" s="46" t="s">
+      <c r="AA13" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AB13" s="46" t="s">
+      <c r="AB13" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -7609,7 +7581,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B15" s="11"/>
       <c r="D15" s="10"/>
@@ -7646,15 +7618,15 @@
         <v>drop table GBPNZD_M1;</v>
       </c>
       <c r="N15" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F15&amp;";"</f>
+        <f t="shared" ref="N15:P21" si="1">"drop table "&amp;N$13&amp;"_"&amp;$F15&amp;";"</f>
         <v>drop table SPX_M1;</v>
       </c>
       <c r="O15" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F15&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_M1;</v>
       </c>
       <c r="P15" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F15&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_M1;</v>
       </c>
       <c r="Q15" t="str">
@@ -7674,35 +7646,35 @@
         <v>drop table NGAS_M1;</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" ref="U15:AB21" si="1">"drop table "&amp;U$13&amp;"_"&amp;$F15&amp;";"</f>
+        <f t="shared" ref="U15:AB21" si="2">"drop table "&amp;U$13&amp;"_"&amp;$F15&amp;";"</f>
         <v>drop table PLATINUM_M1;</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_M1;</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_M1;</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_M1;</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_M1;</v>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_M1;</v>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_M1;</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_M1;</v>
       </c>
     </row>
@@ -7711,7 +7683,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -7747,15 +7719,15 @@
         <v>drop table GBPNZD_M5;</v>
       </c>
       <c r="N16" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F16&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table SPX_M5;</v>
       </c>
       <c r="O16" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F16&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_M5;</v>
       </c>
       <c r="P16" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F16&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_M5;</v>
       </c>
       <c r="Q16" t="str">
@@ -7775,35 +7747,35 @@
         <v>drop table NGAS_M5;</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table PLATINUM_M5;</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_M5;</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_M5;</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_M5;</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_M5;</v>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_M5;</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_M5;</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_M5;</v>
       </c>
     </row>
@@ -7812,7 +7784,7 @@
         <v>167</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -7848,15 +7820,15 @@
         <v>drop table GBPNZD_M15;</v>
       </c>
       <c r="N17" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F17&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table SPX_M15;</v>
       </c>
       <c r="O17" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F17&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_M15;</v>
       </c>
       <c r="P17" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F17&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_M15;</v>
       </c>
       <c r="Q17" t="str">
@@ -7876,35 +7848,35 @@
         <v>drop table NGAS_M15;</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table PLATINUM_M15;</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_M15;</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_M15;</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_M15;</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_M15;</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_M15;</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_M15;</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_M15;</v>
       </c>
     </row>
@@ -7945,15 +7917,15 @@
         <v>drop table GBPNZD_M30;</v>
       </c>
       <c r="N18" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F18&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table SPX_M30;</v>
       </c>
       <c r="O18" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F18&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_M30;</v>
       </c>
       <c r="P18" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F18&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_M30;</v>
       </c>
       <c r="Q18" t="str">
@@ -7973,35 +7945,35 @@
         <v>drop table NGAS_M30;</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table PLATINUM_M30;</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_M30;</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_M30;</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_M30;</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_M30;</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_M30;</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_M30;</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_M30;</v>
       </c>
     </row>
@@ -8042,15 +8014,15 @@
         <v>drop table GBPNZD_H1;</v>
       </c>
       <c r="N19" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F19&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table SPX_H1;</v>
       </c>
       <c r="O19" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F19&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_H1;</v>
       </c>
       <c r="P19" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F19&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_H1;</v>
       </c>
       <c r="Q19" t="str">
@@ -8070,35 +8042,35 @@
         <v>drop table NGAS_H1;</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table PLATINUM_H1;</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_H1;</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_H1;</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_H1;</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_H1;</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_H1;</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_H1;</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_H1;</v>
       </c>
     </row>
@@ -8139,15 +8111,15 @@
         <v>drop table GBPNZD_H4;</v>
       </c>
       <c r="N20" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F20&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table SPX_H4;</v>
       </c>
       <c r="O20" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F20&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_H4;</v>
       </c>
       <c r="P20" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F20&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_H4;</v>
       </c>
       <c r="Q20" t="str">
@@ -8167,35 +8139,35 @@
         <v>drop table NGAS_H4;</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table PLATINUM_H4;</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_H4;</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_H4;</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_H4;</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_H4;</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_H4;</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_H4;</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_H4;</v>
       </c>
     </row>
@@ -8236,15 +8208,15 @@
         <v>drop table GBPNZD_D1;</v>
       </c>
       <c r="N21" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F21&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table SPX_D1;</v>
       </c>
       <c r="O21" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F21&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table ETXEUR_D1;</v>
       </c>
       <c r="P21" t="str">
-        <f>"drop table "&amp;P$13&amp;"_"&amp;$F21&amp;";"</f>
+        <f t="shared" si="1"/>
         <v>drop table UKXGBP_D1;</v>
       </c>
       <c r="Q21" t="str">
@@ -8264,35 +8236,35 @@
         <v>drop table NGAS_D1;</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table PLATINUM_D1;</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table RICE_D1;</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SBO_D1;</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SOYBEANS_D1;</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table SUGAR_D1;</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table US10YR_D1;</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table WHEAT_D1;</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>drop table XRB_D1;</v>
       </c>
     </row>
@@ -8319,91 +8291,91 @@
         <v>8</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24:T30" si="2">"create table "&amp;G$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="G24:T30" si="3">"create table "&amp;G$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table AUDUSD_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N24" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="N24:P30" si="4">"create table "&amp;N$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table SPX_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O24" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P24" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" ref="U24:AB30" si="3">"create table "&amp;U$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="U24:AB30" si="5">"create table "&amp;U$13&amp;"_"&amp;$F24&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table PLATINUM_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
@@ -8414,91 +8386,91 @@
         <v>27</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table AUDUSD_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N25" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F25&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table SPX_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O25" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F25&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P25" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F25&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table PLATINUM_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
@@ -8509,91 +8481,91 @@
         <v>5</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table AUDUSD_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N26" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F26&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table SPX_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O26" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F26&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P26" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F26&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table PLATINUM_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
@@ -8604,91 +8576,91 @@
         <v>6</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table AUDUSD_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N27" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F27&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table SPX_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O27" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F27&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P27" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F27&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table PLATINUM_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
@@ -8699,186 +8671,186 @@
         <v>28</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table AUDUSD_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N28" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F28&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table SPX_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O28" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F28&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P28" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F28&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table PLATINUM_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table AUDUSD_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N29" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F29&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table SPX_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O29" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F29&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P29" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F29&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table PLATINUM_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
@@ -8889,91 +8861,91 @@
         <v>30</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table AUDUSD_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPUSD_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table EURUSD_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table XAUUSD_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NZDUSD_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table USDJPY_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table GBPNZD_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="N30" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F30&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table SPX_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="O30" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F30&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table ETXEUR_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="P30" t="str">
-        <f>"create table "&amp;P$13&amp;"_"&amp;$F30&amp;" ("&amp;$A$5&amp;" "&amp;$B$5&amp;", "&amp;$A$6&amp;" "&amp;$B$6&amp;", "&amp;$A$7&amp;" "&amp;$B$7&amp;", "&amp;$A$8&amp;" "&amp;$B$8&amp;", "&amp;$A$9&amp;" "&amp;$B$9&amp;", "&amp;$A$10&amp;" "&amp;$B$10&amp;", "&amp;$A$11&amp;" "&amp;$B$11&amp;", "&amp;$A$12&amp;" "&amp;$B$12&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="4"/>
         <v>create table UKXGBP_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CATTLE_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table CORN_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table HOIL_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>create table NGAS_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table PLATINUM_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table RICE_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SBO_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SOYBEANS_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table SUGAR_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table US10YR_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table WHEAT_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>create table XRB_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
@@ -9002,91 +8974,91 @@
         <v>8</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:T39" si="4">"alter table "&amp;G$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;G$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="G33:T39" si="6">"alter table "&amp;G$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;G$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table AUDUSD_M1 add constraint AUDUSD_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_M1 add constraint GBPUSD_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_M1 add constraint EURUSD_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_M1 add constraint XAUUSD_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_M1 add constraint NZDUSD_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_M1 add constraint USDJPY_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_M1 add constraint GBPNZD_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N33" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="N33:P39" si="7">"alter table "&amp;N$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table SPX_M1 add constraint SPX_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O33" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_M1 add constraint ETXEUR_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P33" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_M1 add constraint UKXGBP_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_M1 add constraint CATTLE_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_M1 add constraint CORN_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_M1 add constraint HOIL_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_M1 add constraint NGAS_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" ref="U33:AB39" si="5">"alter table "&amp;U$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;U$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="U33:AB39" si="8">"alter table "&amp;U$13&amp;"_"&amp;$F33&amp;" add constraint "&amp;U$13&amp;"_"&amp;$F33&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table PLATINUM_M1 add constraint PLATINUM_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_M1 add constraint RICE_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_M1 add constraint SBO_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_M1 add constraint SOYBEANS_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_M1 add constraint SUGAR_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_M1 add constraint US10YR_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_M1 add constraint WHEAT_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_M1 add constraint XRB_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9099,91 +9071,91 @@
         <v>27</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table AUDUSD_M5 add constraint AUDUSD_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_M5 add constraint GBPUSD_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_M5 add constraint EURUSD_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_M5 add constraint XAUUSD_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_M5 add constraint NZDUSD_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_M5 add constraint USDJPY_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_M5 add constraint GBPNZD_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N34" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F34&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F34&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table SPX_M5 add constraint SPX_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O34" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F34&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F34&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_M5 add constraint ETXEUR_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P34" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F34&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F34&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_M5 add constraint UKXGBP_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_M5 add constraint CATTLE_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_M5 add constraint CORN_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_M5 add constraint HOIL_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_M5 add constraint NGAS_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table PLATINUM_M5 add constraint PLATINUM_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_M5 add constraint RICE_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_M5 add constraint SBO_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_M5 add constraint SOYBEANS_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_M5 add constraint SUGAR_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_M5 add constraint US10YR_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_M5 add constraint WHEAT_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_M5 add constraint XRB_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9196,91 +9168,91 @@
         <v>5</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table AUDUSD_M15 add constraint AUDUSD_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_M15 add constraint GBPUSD_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_M15 add constraint EURUSD_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_M15 add constraint XAUUSD_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_M15 add constraint NZDUSD_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_M15 add constraint USDJPY_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_M15 add constraint GBPNZD_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N35" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F35&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F35&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table SPX_M15 add constraint SPX_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O35" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F35&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F35&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_M15 add constraint ETXEUR_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P35" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F35&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F35&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_M15 add constraint UKXGBP_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_M15 add constraint CATTLE_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_M15 add constraint CORN_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_M15 add constraint HOIL_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_M15 add constraint NGAS_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table PLATINUM_M15 add constraint PLATINUM_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_M15 add constraint RICE_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_M15 add constraint SBO_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_M15 add constraint SOYBEANS_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_M15 add constraint SUGAR_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_M15 add constraint US10YR_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_M15 add constraint WHEAT_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_M15 add constraint XRB_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9293,91 +9265,91 @@
         <v>6</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table AUDUSD_M30 add constraint AUDUSD_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_M30 add constraint GBPUSD_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_M30 add constraint EURUSD_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_M30 add constraint XAUUSD_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_M30 add constraint NZDUSD_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_M30 add constraint USDJPY_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_M30 add constraint GBPNZD_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N36" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F36&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F36&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table SPX_M30 add constraint SPX_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O36" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F36&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F36&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_M30 add constraint ETXEUR_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P36" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F36&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F36&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_M30 add constraint UKXGBP_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_M30 add constraint CATTLE_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_M30 add constraint CORN_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_M30 add constraint HOIL_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_M30 add constraint NGAS_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table PLATINUM_M30 add constraint PLATINUM_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_M30 add constraint RICE_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_M30 add constraint SBO_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_M30 add constraint SOYBEANS_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_M30 add constraint SUGAR_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_M30 add constraint US10YR_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_M30 add constraint WHEAT_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_M30 add constraint XRB_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9390,91 +9362,91 @@
         <v>28</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table AUDUSD_H1 add constraint AUDUSD_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_H1 add constraint GBPUSD_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_H1 add constraint EURUSD_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_H1 add constraint XAUUSD_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_H1 add constraint NZDUSD_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_H1 add constraint USDJPY_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_H1 add constraint GBPNZD_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N37" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F37&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F37&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table SPX_H1 add constraint SPX_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O37" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F37&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F37&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_H1 add constraint ETXEUR_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P37" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F37&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F37&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_H1 add constraint UKXGBP_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_H1 add constraint CATTLE_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_H1 add constraint CORN_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_H1 add constraint HOIL_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_H1 add constraint NGAS_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table PLATINUM_H1 add constraint PLATINUM_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_H1 add constraint RICE_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_H1 add constraint SBO_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_H1 add constraint SOYBEANS_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_H1 add constraint SUGAR_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_H1 add constraint US10YR_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_H1 add constraint WHEAT_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_H1 add constraint XRB_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9487,91 +9459,91 @@
         <v>29</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table AUDUSD_H4 add constraint AUDUSD_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_H4 add constraint GBPUSD_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_H4 add constraint EURUSD_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_H4 add constraint XAUUSD_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_H4 add constraint NZDUSD_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_H4 add constraint USDJPY_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_H4 add constraint GBPNZD_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N38" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F38&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F38&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table SPX_H4 add constraint SPX_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O38" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F38&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F38&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_H4 add constraint ETXEUR_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P38" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F38&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F38&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_H4 add constraint UKXGBP_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_H4 add constraint CATTLE_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_H4 add constraint CORN_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_H4 add constraint HOIL_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_H4 add constraint NGAS_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table PLATINUM_H4 add constraint PLATINUM_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_H4 add constraint RICE_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_H4 add constraint SBO_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_H4 add constraint SOYBEANS_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_H4 add constraint SUGAR_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_H4 add constraint US10YR_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_H4 add constraint WHEAT_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_H4 add constraint XRB_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9584,91 +9556,91 @@
         <v>30</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table AUDUSD_D1 add constraint AUDUSD_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPUSD_D1 add constraint GBPUSD_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table EURUSD_D1 add constraint EURUSD_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table XAUUSD_D1 add constraint XAUUSD_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NZDUSD_D1 add constraint NZDUSD_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table USDJPY_D1 add constraint USDJPY_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table GBPNZD_D1 add constraint GBPNZD_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N39" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F39&amp;" add constraint "&amp;N$13&amp;"_"&amp;$F39&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table SPX_D1 add constraint SPX_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O39" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F39&amp;" add constraint "&amp;O$13&amp;"_"&amp;$F39&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table ETXEUR_D1 add constraint ETXEUR_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="P39" t="str">
-        <f>"alter table "&amp;P$13&amp;"_"&amp;$F39&amp;" add constraint "&amp;P$13&amp;"_"&amp;$F39&amp;"_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="7"/>
         <v>alter table UKXGBP_D1 add constraint UKXGBP_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CATTLE_D1 add constraint CATTLE_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table CORN_D1 add constraint CORN_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table HOIL_D1 add constraint HOIL_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>alter table NGAS_D1 add constraint NGAS_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table PLATINUM_D1 add constraint PLATINUM_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table RICE_D1 add constraint RICE_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SBO_D1 add constraint SBO_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SOYBEANS_D1 add constraint SOYBEANS_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table SUGAR_D1 add constraint SUGAR_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table US10YR_D1 add constraint US10YR_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table WHEAT_D1 add constraint WHEAT_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>alter table XRB_D1 add constraint XRB_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -9699,91 +9671,91 @@
         <v>27</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" ref="G42:M42" si="6">"execute DataCompact('"&amp;G$13&amp;"_M1','"&amp;G$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
+        <f t="shared" ref="G42:M42" si="9">"execute DataCompact('"&amp;G$13&amp;"_M1','"&amp;G$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_M5',5);</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_M5',5);</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>execute DataCompact('EURUSD_M1','EURUSD_M5',5);</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_M5',5);</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_M5',5);</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>execute DataCompact('USDJPY_M1','USDJPY_M5',5);</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_M5',5);</v>
       </c>
       <c r="N42" t="str">
-        <f>"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
+        <f t="shared" ref="N42:P47" si="10">"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
         <v>execute DataCompact('SPX_M1','SPX_M5',5);</v>
       </c>
       <c r="O42" t="str">
-        <f>"execute DataCompact('"&amp;O$13&amp;"_M1','"&amp;O$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_M5',5);</v>
       </c>
       <c r="P42" t="str">
-        <f>"execute DataCompact('"&amp;P$13&amp;"_M1','"&amp;P$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('UKXGBP_M1','UKXGBP_M5',5);</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ref="Q42:AB47" si="7">"execute DataCompact('"&amp;Q$13&amp;"_M1','"&amp;Q$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
+        <f t="shared" ref="Q42:AB47" si="11">"execute DataCompact('"&amp;Q$13&amp;"_M1','"&amp;Q$13&amp;"_"&amp;$F42&amp;"',"&amp;$E42&amp;");"</f>
         <v>execute DataCompact('CATTLE_M1','CATTLE_M5',5);</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CORN_M1','CORN_M5',5);</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('HOIL_M1','HOIL_M5',5);</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('NGAS_M1','NGAS_M5',5);</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('PLATINUM_M1','PLATINUM_M5',5);</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('RICE_M1','RICE_M5',5);</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SBO_M1','SBO_M5',5);</v>
       </c>
       <c r="X42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SOYBEANS_M1','SOYBEANS_M5',5);</v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SUGAR_M1','SUGAR_M5',5);</v>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('US10YR_M1','US10YR_M5',5);</v>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('WHEAT_M1','WHEAT_M5',5);</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('XRB_M1','XRB_M5',5);</v>
       </c>
     </row>
@@ -9798,91 +9770,91 @@
         <v>5</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" ref="G43:X47" si="8">"execute DataCompact('"&amp;G$13&amp;"_M1','"&amp;G$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
+        <f t="shared" ref="G43:X47" si="12">"execute DataCompact('"&amp;G$13&amp;"_M1','"&amp;G$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_M15',15);</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" ref="H43:M47" si="9">"execute DataCompact('"&amp;H$13&amp;"_M1','"&amp;H$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
+        <f t="shared" ref="H43:M47" si="13">"execute DataCompact('"&amp;H$13&amp;"_M1','"&amp;H$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_M15',15);</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('EURUSD_M1','EURUSD_M15',15);</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_M15',15);</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_M15',15);</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('USDJPY_M1','USDJPY_M15',15);</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_M15',15);</v>
       </c>
       <c r="N43" t="str">
-        <f>"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('SPX_M1','SPX_M15',15);</v>
       </c>
       <c r="O43" t="str">
-        <f>"execute DataCompact('"&amp;O$13&amp;"_M1','"&amp;O$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_M15',15);</v>
       </c>
       <c r="P43" t="str">
-        <f>"execute DataCompact('"&amp;P$13&amp;"_M1','"&amp;P$13&amp;"_"&amp;$F43&amp;"',"&amp;$E43&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('UKXGBP_M1','UKXGBP_M15',15);</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('CATTLE_M1','CATTLE_M15',15);</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('CORN_M1','CORN_M15',15);</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('HOIL_M1','HOIL_M15',15);</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('NGAS_M1','NGAS_M15',15);</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('PLATINUM_M1','PLATINUM_M15',15);</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('RICE_M1','RICE_M15',15);</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('SBO_M1','SBO_M15',15);</v>
       </c>
       <c r="X43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('SOYBEANS_M1','SOYBEANS_M15',15);</v>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SUGAR_M1','SUGAR_M15',15);</v>
       </c>
       <c r="Z43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('US10YR_M1','US10YR_M15',15);</v>
       </c>
       <c r="AA43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('WHEAT_M1','WHEAT_M15',15);</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('XRB_M1','XRB_M15',15);</v>
       </c>
     </row>
@@ -9897,91 +9869,91 @@
         <v>6</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_M30',30);</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_M30',30);</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('EURUSD_M1','EURUSD_M30',30);</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_M30',30);</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_M30',30);</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('USDJPY_M1','USDJPY_M30',30);</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_M30',30);</v>
       </c>
       <c r="N44" t="str">
-        <f>"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F44&amp;"',"&amp;$E44&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('SPX_M1','SPX_M30',30);</v>
       </c>
       <c r="O44" t="str">
-        <f>"execute DataCompact('"&amp;O$13&amp;"_M1','"&amp;O$13&amp;"_"&amp;$F44&amp;"',"&amp;$E44&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_M30',30);</v>
       </c>
       <c r="P44" t="str">
-        <f>"execute DataCompact('"&amp;P$13&amp;"_M1','"&amp;P$13&amp;"_"&amp;$F44&amp;"',"&amp;$E44&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('UKXGBP_M1','UKXGBP_M30',30);</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CATTLE_M1','CATTLE_M30',30);</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CORN_M1','CORN_M30',30);</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('HOIL_M1','HOIL_M30',30);</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('NGAS_M1','NGAS_M30',30);</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('PLATINUM_M1','PLATINUM_M30',30);</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('RICE_M1','RICE_M30',30);</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SBO_M1','SBO_M30',30);</v>
       </c>
       <c r="X44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SOYBEANS_M1','SOYBEANS_M30',30);</v>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SUGAR_M1','SUGAR_M30',30);</v>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('US10YR_M1','US10YR_M30',30);</v>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('WHEAT_M1','WHEAT_M30',30);</v>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('XRB_M1','XRB_M30',30);</v>
       </c>
     </row>
@@ -9996,91 +9968,91 @@
         <v>28</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_H1',60);</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_H1',60);</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('EURUSD_M1','EURUSD_H1',60);</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_H1',60);</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_H1',60);</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('USDJPY_M1','USDJPY_H1',60);</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_H1',60);</v>
       </c>
       <c r="N45" t="str">
-        <f>"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F45&amp;"',"&amp;$E45&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('SPX_M1','SPX_H1',60);</v>
       </c>
       <c r="O45" t="str">
-        <f>"execute DataCompact('"&amp;O$13&amp;"_M1','"&amp;O$13&amp;"_"&amp;$F45&amp;"',"&amp;$E45&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_H1',60);</v>
       </c>
       <c r="P45" t="str">
-        <f>"execute DataCompact('"&amp;P$13&amp;"_M1','"&amp;P$13&amp;"_"&amp;$F45&amp;"',"&amp;$E45&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('UKXGBP_M1','UKXGBP_H1',60);</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CATTLE_M1','CATTLE_H1',60);</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CORN_M1','CORN_H1',60);</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('HOIL_M1','HOIL_H1',60);</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('NGAS_M1','NGAS_H1',60);</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('PLATINUM_M1','PLATINUM_H1',60);</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('RICE_M1','RICE_H1',60);</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SBO_M1','SBO_H1',60);</v>
       </c>
       <c r="X45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SOYBEANS_M1','SOYBEANS_H1',60);</v>
       </c>
       <c r="Y45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SUGAR_M1','SUGAR_H1',60);</v>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('US10YR_M1','US10YR_H1',60);</v>
       </c>
       <c r="AA45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('WHEAT_M1','WHEAT_H1',60);</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('XRB_M1','XRB_H1',60);</v>
       </c>
     </row>
@@ -10095,91 +10067,91 @@
         <v>29</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_H4',240);</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_H4',240);</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('EURUSD_M1','EURUSD_H4',240);</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_H4',240);</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_H4',240);</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('USDJPY_M1','USDJPY_H4',240);</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_H4',240);</v>
       </c>
       <c r="N46" t="str">
-        <f>"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F46&amp;"',"&amp;$E46&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('SPX_M1','SPX_H4',240);</v>
       </c>
       <c r="O46" t="str">
-        <f>"execute DataCompact('"&amp;O$13&amp;"_M1','"&amp;O$13&amp;"_"&amp;$F46&amp;"',"&amp;$E46&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_H4',240);</v>
       </c>
       <c r="P46" t="str">
-        <f>"execute DataCompact('"&amp;P$13&amp;"_M1','"&amp;P$13&amp;"_"&amp;$F46&amp;"',"&amp;$E46&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('UKXGBP_M1','UKXGBP_H4',240);</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CATTLE_M1','CATTLE_H4',240);</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CORN_M1','CORN_H4',240);</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('HOIL_M1','HOIL_H4',240);</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('NGAS_M1','NGAS_H4',240);</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('PLATINUM_M1','PLATINUM_H4',240);</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('RICE_M1','RICE_H4',240);</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SBO_M1','SBO_H4',240);</v>
       </c>
       <c r="X46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SOYBEANS_M1','SOYBEANS_H4',240);</v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SUGAR_M1','SUGAR_H4',240);</v>
       </c>
       <c r="Z46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('US10YR_M1','US10YR_H4',240);</v>
       </c>
       <c r="AA46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('WHEAT_M1','WHEAT_H4',240);</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('XRB_M1','XRB_H4',240);</v>
       </c>
     </row>
@@ -10194,91 +10166,91 @@
         <v>30</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>execute DataCompact('AUDUSD_M1','AUDUSD_D1',1440);</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPUSD_M1','GBPUSD_D1',1440);</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('EURUSD_M1','EURUSD_D1',1440);</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('XAUUSD_M1','XAUUSD_D1',1440);</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('NZDUSD_M1','NZDUSD_D1',1440);</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('USDJPY_M1','USDJPY_D1',1440);</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>execute DataCompact('GBPNZD_M1','GBPNZD_D1',1440);</v>
       </c>
       <c r="N47" t="str">
-        <f>"execute DataCompact('"&amp;N$13&amp;"_M1','"&amp;N$13&amp;"_"&amp;$F47&amp;"',"&amp;$E47&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('SPX_M1','SPX_D1',1440);</v>
       </c>
       <c r="O47" t="str">
-        <f>"execute DataCompact('"&amp;O$13&amp;"_M1','"&amp;O$13&amp;"_"&amp;$F47&amp;"',"&amp;$E47&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('ETXEUR_M1','ETXEUR_D1',1440);</v>
       </c>
       <c r="P47" t="str">
-        <f>"execute DataCompact('"&amp;P$13&amp;"_M1','"&amp;P$13&amp;"_"&amp;$F47&amp;"',"&amp;$E47&amp;");"</f>
+        <f t="shared" si="10"/>
         <v>execute DataCompact('UKXGBP_M1','UKXGBP_D1',1440);</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CATTLE_M1','CATTLE_D1',1440);</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('CORN_M1','CORN_D1',1440);</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('HOIL_M1','HOIL_D1',1440);</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('NGAS_M1','NGAS_D1',1440);</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('PLATINUM_M1','PLATINUM_D1',1440);</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('RICE_M1','RICE_D1',1440);</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SBO_M1','SBO_D1',1440);</v>
       </c>
       <c r="X47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SOYBEANS_M1','SOYBEANS_D1',1440);</v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('SUGAR_M1','SUGAR_D1',1440);</v>
       </c>
       <c r="Z47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('US10YR_M1','US10YR_D1',1440);</v>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('WHEAT_M1','WHEAT_D1',1440);</v>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>execute DataCompact('XRB_M1','XRB_D1',1440);</v>
       </c>
     </row>
@@ -10321,87 +10293,87 @@
         <v>8</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ref="G51:M51" si="10">"drop table "&amp;G$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
+        <f t="shared" ref="G51:M51" si="14">"drop table "&amp;G$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
         <v>drop table AUDUSD_M1_FILLED;</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>drop table GBPUSD_M1_FILLED;</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>drop table EURUSD_M1_FILLED;</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>drop table XAUUSD_M1_FILLED;</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>drop table NZDUSD_M1_FILLED;</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>drop table USDJPY_M1_FILLED;</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>drop table GBPNZD_M1_FILLED;</v>
       </c>
       <c r="N51" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
+        <f t="shared" ref="N51:O56" si="15">"drop table "&amp;N$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
         <v>drop table SPX_M1_FILLED;</v>
       </c>
       <c r="O51" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table ETXEUR_M1_FILLED;</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" ref="Q51:Y56" si="11">"drop table "&amp;Q$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
+        <f t="shared" ref="Q51:Y56" si="16">"drop table "&amp;Q$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
         <v>drop table CATTLE_M1_FILLED;</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CORN_M1_FILLED;</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table HOIL_M1_FILLED;</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table NGAS_M1_FILLED;</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table PLATINUM_M1_FILLED;</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table RICE_M1_FILLED;</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SBO_M1_FILLED;</v>
       </c>
       <c r="X51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SOYBEANS_M1_FILLED;</v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SUGAR_M1_FILLED;</v>
       </c>
       <c r="Z51" t="str">
-        <f t="shared" ref="Z51:AB56" si="12">"drop table "&amp;Z$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
+        <f t="shared" ref="Z51:AB56" si="17">"drop table "&amp;Z$13&amp;"_"&amp;$F51&amp;"_FILLED;"</f>
         <v>drop table US10YR_M1_FILLED;</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table WHEAT_M1_FILLED;</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table XRB_M1_FILLED;</v>
       </c>
     </row>
@@ -10412,87 +10384,87 @@
         <v>27</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" ref="G52:G56" si="13">"drop table "&amp;G$13&amp;"_"&amp;$F52&amp;"_FILLED;"</f>
+        <f t="shared" ref="G52:G56" si="18">"drop table "&amp;G$13&amp;"_"&amp;$F52&amp;"_FILLED;"</f>
         <v>drop table AUDUSD_M5_FILLED;</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" ref="H52:M56" si="14">"drop table "&amp;H$13&amp;"_"&amp;$F52&amp;"_FILLED;"</f>
+        <f t="shared" ref="H52:M56" si="19">"drop table "&amp;H$13&amp;"_"&amp;$F52&amp;"_FILLED;"</f>
         <v>drop table GBPUSD_M5_FILLED;</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table EURUSD_M5_FILLED;</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table XAUUSD_M5_FILLED;</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table NZDUSD_M5_FILLED;</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table USDJPY_M5_FILLED;</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPNZD_M5_FILLED;</v>
       </c>
       <c r="N52" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F52&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table SPX_M5_FILLED;</v>
       </c>
       <c r="O52" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F52&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table ETXEUR_M5_FILLED;</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CATTLE_M5_FILLED;</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CORN_M5_FILLED;</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table HOIL_M5_FILLED;</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table NGAS_M5_FILLED;</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table PLATINUM_M5_FILLED;</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table RICE_M5_FILLED;</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SBO_M5_FILLED;</v>
       </c>
       <c r="X52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SOYBEANS_M5_FILLED;</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SUGAR_M5_FILLED;</v>
       </c>
       <c r="Z52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table US10YR_M5_FILLED;</v>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table WHEAT_M5_FILLED;</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table XRB_M5_FILLED;</v>
       </c>
     </row>
@@ -10503,87 +10475,87 @@
         <v>5</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>drop table AUDUSD_M15_FILLED;</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPUSD_M15_FILLED;</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table EURUSD_M15_FILLED;</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table XAUUSD_M15_FILLED;</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table NZDUSD_M15_FILLED;</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table USDJPY_M15_FILLED;</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPNZD_M15_FILLED;</v>
       </c>
       <c r="N53" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F53&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table SPX_M15_FILLED;</v>
       </c>
       <c r="O53" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F53&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table ETXEUR_M15_FILLED;</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CATTLE_M15_FILLED;</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CORN_M15_FILLED;</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table HOIL_M15_FILLED;</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table NGAS_M15_FILLED;</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table PLATINUM_M15_FILLED;</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table RICE_M15_FILLED;</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SBO_M15_FILLED;</v>
       </c>
       <c r="X53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SOYBEANS_M15_FILLED;</v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SUGAR_M15_FILLED;</v>
       </c>
       <c r="Z53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table US10YR_M15_FILLED;</v>
       </c>
       <c r="AA53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table WHEAT_M15_FILLED;</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table XRB_M15_FILLED;</v>
       </c>
     </row>
@@ -10594,87 +10566,87 @@
         <v>28</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>drop table AUDUSD_H1_FILLED;</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPUSD_H1_FILLED;</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table EURUSD_H1_FILLED;</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table XAUUSD_H1_FILLED;</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table NZDUSD_H1_FILLED;</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table USDJPY_H1_FILLED;</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPNZD_H1_FILLED;</v>
       </c>
       <c r="N54" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F54&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table SPX_H1_FILLED;</v>
       </c>
       <c r="O54" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F54&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table ETXEUR_H1_FILLED;</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CATTLE_H1_FILLED;</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CORN_H1_FILLED;</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table HOIL_H1_FILLED;</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table NGAS_H1_FILLED;</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table PLATINUM_H1_FILLED;</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table RICE_H1_FILLED;</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SBO_H1_FILLED;</v>
       </c>
       <c r="X54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SOYBEANS_H1_FILLED;</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SUGAR_H1_FILLED;</v>
       </c>
       <c r="Z54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table US10YR_H1_FILLED;</v>
       </c>
       <c r="AA54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table WHEAT_H1_FILLED;</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table XRB_H1_FILLED;</v>
       </c>
     </row>
@@ -10685,87 +10657,87 @@
         <v>29</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>drop table AUDUSD_H4_FILLED;</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPUSD_H4_FILLED;</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table EURUSD_H4_FILLED;</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table XAUUSD_H4_FILLED;</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table NZDUSD_H4_FILLED;</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table USDJPY_H4_FILLED;</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPNZD_H4_FILLED;</v>
       </c>
       <c r="N55" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F55&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table SPX_H4_FILLED;</v>
       </c>
       <c r="O55" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F55&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table ETXEUR_H4_FILLED;</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CATTLE_H4_FILLED;</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CORN_H4_FILLED;</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table HOIL_H4_FILLED;</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table NGAS_H4_FILLED;</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table PLATINUM_H4_FILLED;</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table RICE_H4_FILLED;</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SBO_H4_FILLED;</v>
       </c>
       <c r="X55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SOYBEANS_H4_FILLED;</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SUGAR_H4_FILLED;</v>
       </c>
       <c r="Z55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table US10YR_H4_FILLED;</v>
       </c>
       <c r="AA55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table WHEAT_H4_FILLED;</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table XRB_H4_FILLED;</v>
       </c>
     </row>
@@ -10776,87 +10748,87 @@
         <v>30</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>drop table AUDUSD_D1_FILLED;</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPUSD_D1_FILLED;</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table EURUSD_D1_FILLED;</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table XAUUSD_D1_FILLED;</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table NZDUSD_D1_FILLED;</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table USDJPY_D1_FILLED;</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>drop table GBPNZD_D1_FILLED;</v>
       </c>
       <c r="N56" t="str">
-        <f>"drop table "&amp;N$13&amp;"_"&amp;$F56&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table SPX_D1_FILLED;</v>
       </c>
       <c r="O56" t="str">
-        <f>"drop table "&amp;O$13&amp;"_"&amp;$F56&amp;"_FILLED;"</f>
+        <f t="shared" si="15"/>
         <v>drop table ETXEUR_D1_FILLED;</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CATTLE_D1_FILLED;</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table CORN_D1_FILLED;</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table HOIL_D1_FILLED;</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table NGAS_D1_FILLED;</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table PLATINUM_D1_FILLED;</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table RICE_D1_FILLED;</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SBO_D1_FILLED;</v>
       </c>
       <c r="X56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SOYBEANS_D1_FILLED;</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>drop table SUGAR_D1_FILLED;</v>
       </c>
       <c r="Z56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table US10YR_D1_FILLED;</v>
       </c>
       <c r="AA56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table WHEAT_D1_FILLED;</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>drop table XRB_D1_FILLED;</v>
       </c>
     </row>
@@ -10871,87 +10843,87 @@
         <v>8</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" ref="G59:M59" si="15">"create table "&amp;G$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="G59:M59" si="20">"create table "&amp;G$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table AUDUSD_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>create table GBPUSD_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>create table EURUSD_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>create table XAUUSD_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>create table NZDUSD_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>create table USDJPY_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>create table GBPNZD_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N59" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="N59:O65" si="21">"create table "&amp;N$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table SPX_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O59" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" ref="Q59:Y65" si="16">"create table "&amp;Q$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="Q59:Y65" si="22">"create table "&amp;Q$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table CATTLE_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z59" t="str">
-        <f t="shared" ref="Z59:AB65" si="17">"create table "&amp;Z$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="Z59:AB65" si="23">"create table "&amp;Z$13&amp;"_"&amp;$F59&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table US10YR_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -10960,87 +10932,87 @@
         <v>27</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" ref="G60:G65" si="18">"create table "&amp;G$13&amp;"_"&amp;$F60&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="G60:G65" si="24">"create table "&amp;G$13&amp;"_"&amp;$F60&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table AUDUSD_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" ref="H60:M65" si="19">"create table "&amp;H$13&amp;"_"&amp;$F60&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" ref="H60:M65" si="25">"create table "&amp;H$13&amp;"_"&amp;$F60&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
         <v>create table GBPUSD_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table EURUSD_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table XAUUSD_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table NZDUSD_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table USDJPY_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPNZD_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N60" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F60&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table SPX_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O60" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F60&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CATTLE_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table US10YR_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -11049,87 +11021,87 @@
         <v>5</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>create table AUDUSD_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPUSD_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table EURUSD_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table XAUUSD_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table NZDUSD_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table USDJPY_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPNZD_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N61" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F61&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table SPX_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O61" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F61&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CATTLE_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table US10YR_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -11138,87 +11110,87 @@
         <v>6</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>create table AUDUSD_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPUSD_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table EURUSD_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table XAUUSD_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table NZDUSD_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table USDJPY_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPNZD_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N62" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F62&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table SPX_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O62" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F62&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CATTLE_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table US10YR_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -11227,87 +11199,87 @@
         <v>28</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>create table AUDUSD_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPUSD_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table EURUSD_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table XAUUSD_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table NZDUSD_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table USDJPY_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPNZD_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N63" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F63&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table SPX_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O63" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F63&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CATTLE_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table US10YR_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -11316,87 +11288,87 @@
         <v>29</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>create table AUDUSD_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPUSD_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table EURUSD_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table XAUUSD_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table NZDUSD_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table USDJPY_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPNZD_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N64" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F64&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table SPX_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O64" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F64&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CATTLE_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table US10YR_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -11405,87 +11377,87 @@
         <v>30</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>create table AUDUSD_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPUSD_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table EURUSD_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table XAUUSD_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table NZDUSD_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table USDJPY_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>create table GBPNZD_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="N65" t="str">
-        <f>"create table "&amp;N$13&amp;"_"&amp;$F65&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table SPX_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="O65" t="str">
-        <f>"create table "&amp;O$13&amp;"_"&amp;$F65&amp;"_FILLED ("&amp;$D$5&amp;" "&amp;$E$5&amp;", "&amp;$D$6&amp;" "&amp;$E$6&amp;", "&amp;$D$7&amp;" "&amp;$E$7&amp;", "&amp;$D$8&amp;" "&amp;$E$8&amp;", "&amp;$D$9&amp;" "&amp;$E$9&amp;", "&amp;$D$10&amp;" "&amp;$E$10&amp;", "&amp;$D$11&amp;" "&amp;$E$11&amp;") tablespace "&amp;$B$1&amp;";"</f>
+        <f t="shared" si="21"/>
         <v>create table ETXEUR_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CATTLE_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table CORN_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table HOIL_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table NGAS_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table PLATINUM_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="V65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table RICE_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SBO_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="X65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SOYBEANS_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>create table SUGAR_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="Z65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table US10YR_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AA65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table WHEAT_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>create table XRB_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
@@ -11505,87 +11477,87 @@
         <v>8</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:R74" si="20">"alter table "&amp;G$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;G$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="G68:R74" si="26">"alter table "&amp;G$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;G$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table AUDUSD_M1_FILLED add constraint AUDUSD_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:M74" si="21">"alter table "&amp;H$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;H$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="H68:M74" si="27">"alter table "&amp;H$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;H$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table GBPUSD_M1_FILLED add constraint GBPUSD_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_M1_FILLED add constraint EURUSD_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_M1_FILLED add constraint XAUUSD_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_M1_FILLED add constraint NZDUSD_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_M1_FILLED add constraint USDJPY_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_M1_FILLED add constraint GBPNZD_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N68" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="N68:O74" si="28">"alter table "&amp;N$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table SPX_M1_FILLED add constraint SPX_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O68" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_M1_FILLED add constraint ETXEUR_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_M1_FILLED add constraint CATTLE_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_M1_FILLED add constraint CORN_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" ref="S68:AB74" si="22">"alter table "&amp;S$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;S$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" ref="S68:AB74" si="29">"alter table "&amp;S$13&amp;"_"&amp;$F68&amp;"_FILLED add constraint "&amp;S$13&amp;"_"&amp;$F68&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
         <v>alter table HOIL_M1_FILLED add constraint HOIL_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_M1_FILLED add constraint NGAS_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_M1_FILLED add constraint PLATINUM_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_M1_FILLED add constraint RICE_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_M1_FILLED add constraint SBO_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_M1_FILLED add constraint SOYBEANS_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_M1_FILLED add constraint SUGAR_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_M1_FILLED add constraint US10YR_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_M1_FILLED add constraint WHEAT_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_M1_FILLED add constraint XRB_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -11595,87 +11567,87 @@
         <v>27</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table AUDUSD_M5_FILLED add constraint AUDUSD_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPUSD_M5_FILLED add constraint GBPUSD_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_M5_FILLED add constraint EURUSD_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_M5_FILLED add constraint XAUUSD_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_M5_FILLED add constraint NZDUSD_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_M5_FILLED add constraint USDJPY_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_M5_FILLED add constraint GBPNZD_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N69" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F69&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F69&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table SPX_M5_FILLED add constraint SPX_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O69" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F69&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F69&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_M5_FILLED add constraint ETXEUR_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_M5_FILLED add constraint CATTLE_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_M5_FILLED add constraint CORN_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table HOIL_M5_FILLED add constraint HOIL_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_M5_FILLED add constraint NGAS_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_M5_FILLED add constraint PLATINUM_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_M5_FILLED add constraint RICE_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_M5_FILLED add constraint SBO_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_M5_FILLED add constraint SOYBEANS_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_M5_FILLED add constraint SUGAR_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_M5_FILLED add constraint US10YR_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_M5_FILLED add constraint WHEAT_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_M5_FILLED add constraint XRB_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -11685,87 +11657,87 @@
         <v>5</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table AUDUSD_M15_FILLED add constraint AUDUSD_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPUSD_M15_FILLED add constraint GBPUSD_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_M15_FILLED add constraint EURUSD_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_M15_FILLED add constraint XAUUSD_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_M15_FILLED add constraint NZDUSD_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_M15_FILLED add constraint USDJPY_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_M15_FILLED add constraint GBPNZD_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N70" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F70&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F70&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table SPX_M15_FILLED add constraint SPX_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O70" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F70&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F70&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_M15_FILLED add constraint ETXEUR_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_M15_FILLED add constraint CATTLE_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_M15_FILLED add constraint CORN_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table HOIL_M15_FILLED add constraint HOIL_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_M15_FILLED add constraint NGAS_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_M15_FILLED add constraint PLATINUM_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_M15_FILLED add constraint RICE_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_M15_FILLED add constraint SBO_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_M15_FILLED add constraint SOYBEANS_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_M15_FILLED add constraint SUGAR_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_M15_FILLED add constraint US10YR_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_M15_FILLED add constraint WHEAT_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_M15_FILLED add constraint XRB_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -11775,87 +11747,87 @@
         <v>6</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table AUDUSD_M30_FILLED add constraint AUDUSD_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPUSD_M30_FILLED add constraint GBPUSD_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_M30_FILLED add constraint EURUSD_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_M30_FILLED add constraint XAUUSD_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_M30_FILLED add constraint NZDUSD_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_M30_FILLED add constraint USDJPY_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_M30_FILLED add constraint GBPNZD_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N71" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F71&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F71&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table SPX_M30_FILLED add constraint SPX_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O71" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F71&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F71&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_M30_FILLED add constraint ETXEUR_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_M30_FILLED add constraint CATTLE_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_M30_FILLED add constraint CORN_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table HOIL_M30_FILLED add constraint HOIL_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_M30_FILLED add constraint NGAS_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_M30_FILLED add constraint PLATINUM_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_M30_FILLED add constraint RICE_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_M30_FILLED add constraint SBO_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_M30_FILLED add constraint SOYBEANS_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_M30_FILLED add constraint SUGAR_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_M30_FILLED add constraint US10YR_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_M30_FILLED add constraint WHEAT_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_M30_FILLED add constraint XRB_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -11865,87 +11837,87 @@
         <v>28</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table AUDUSD_H1_FILLED add constraint AUDUSD_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPUSD_H1_FILLED add constraint GBPUSD_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_H1_FILLED add constraint EURUSD_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_H1_FILLED add constraint XAUUSD_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_H1_FILLED add constraint NZDUSD_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_H1_FILLED add constraint USDJPY_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_H1_FILLED add constraint GBPNZD_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N72" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F72&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F72&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table SPX_H1_FILLED add constraint SPX_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O72" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F72&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F72&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_H1_FILLED add constraint ETXEUR_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_H1_FILLED add constraint CATTLE_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_H1_FILLED add constraint CORN_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table HOIL_H1_FILLED add constraint HOIL_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_H1_FILLED add constraint NGAS_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_H1_FILLED add constraint PLATINUM_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_H1_FILLED add constraint RICE_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_H1_FILLED add constraint SBO_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_H1_FILLED add constraint SOYBEANS_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_H1_FILLED add constraint SUGAR_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_H1_FILLED add constraint US10YR_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_H1_FILLED add constraint WHEAT_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_H1_FILLED add constraint XRB_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -11955,87 +11927,87 @@
         <v>29</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table AUDUSD_H4_FILLED add constraint AUDUSD_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPUSD_H4_FILLED add constraint GBPUSD_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_H4_FILLED add constraint EURUSD_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_H4_FILLED add constraint XAUUSD_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_H4_FILLED add constraint NZDUSD_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_H4_FILLED add constraint USDJPY_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_H4_FILLED add constraint GBPNZD_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N73" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F73&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F73&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table SPX_H4_FILLED add constraint SPX_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O73" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F73&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F73&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_H4_FILLED add constraint ETXEUR_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_H4_FILLED add constraint CATTLE_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_H4_FILLED add constraint CORN_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table HOIL_H4_FILLED add constraint HOIL_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_H4_FILLED add constraint NGAS_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_H4_FILLED add constraint PLATINUM_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_H4_FILLED add constraint RICE_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_H4_FILLED add constraint SBO_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_H4_FILLED add constraint SOYBEANS_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_H4_FILLED add constraint SUGAR_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_H4_FILLED add constraint US10YR_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_H4_FILLED add constraint WHEAT_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_H4_FILLED add constraint XRB_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -12045,87 +12017,87 @@
         <v>30</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table AUDUSD_D1_FILLED add constraint AUDUSD_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPUSD_D1_FILLED add constraint GBPUSD_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table EURUSD_D1_FILLED add constraint EURUSD_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table XAUUSD_D1_FILLED add constraint XAUUSD_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table NZDUSD_D1_FILLED add constraint NZDUSD_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table USDJPY_D1_FILLED add constraint USDJPY_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>alter table GBPNZD_D1_FILLED add constraint GBPNZD_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="N74" t="str">
-        <f>"alter table "&amp;N$13&amp;"_"&amp;$F74&amp;"_FILLED add constraint "&amp;N$13&amp;"_"&amp;$F74&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table SPX_D1_FILLED add constraint SPX_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="O74" t="str">
-        <f>"alter table "&amp;O$13&amp;"_"&amp;$F74&amp;"_FILLED add constraint "&amp;O$13&amp;"_"&amp;$F74&amp;"_FILLED_PK primary key(NewDateTime) using index tablespace "&amp;$B$2&amp;";"</f>
+        <f t="shared" si="28"/>
         <v>alter table ETXEUR_D1_FILLED add constraint ETXEUR_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CATTLE_D1_FILLED add constraint CATTLE_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>alter table CORN_D1_FILLED add constraint CORN_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table HOIL_D1_FILLED add constraint HOIL_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table NGAS_D1_FILLED add constraint NGAS_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table PLATINUM_D1_FILLED add constraint PLATINUM_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table RICE_D1_FILLED add constraint RICE_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SBO_D1_FILLED add constraint SBO_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="X74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SOYBEANS_D1_FILLED add constraint SOYBEANS_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table SUGAR_D1_FILLED add constraint SUGAR_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table US10YR_D1_FILLED add constraint US10YR_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table WHEAT_D1_FILLED add constraint WHEAT_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>alter table XRB_D1_FILLED add constraint XRB_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
@@ -12204,7 +12176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -12239,7 +12211,7 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12268,7 +12240,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
@@ -12286,7 +12258,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="35"/>
@@ -12412,7 +12384,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B18" s="18">
         <v>2555385</v>
@@ -12450,7 +12422,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="35"/>
@@ -12500,7 +12472,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="35"/>
@@ -12508,7 +12480,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B26" s="18">
         <v>1277846</v>
@@ -12536,7 +12508,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B28" s="18">
         <v>1629887</v>
@@ -12577,7 +12549,7 @@
         <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -12585,12 +12557,12 @@
         <v>119</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -12611,19 +12583,19 @@
         <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -13536,7 +13508,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_ETXEUR_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\ETXEUR.ctl</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" ref="N21:N48" si="4">IF($D21=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;N$3&amp;"_M1_"&amp;$C21&amp;".csv' &gt;&gt;"&amp;$B$1&amp;N$3&amp;".ctl")</f>
+        <f t="shared" ref="N21" si="4">IF($D21=0,"","echo infile '"&amp;$B$1&amp;"DAT_MT_"&amp;N$3&amp;"_M1_"&amp;$C21&amp;".csv' &gt;&gt;"&amp;$B$1&amp;N$3&amp;".ctl")</f>
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_UKXGBP_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\UKXGBP.ctl</v>
       </c>
       <c r="O21" t="str">
@@ -14341,7 +14313,7 @@
         <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -14386,13 +14358,13 @@
         <v>56</v>
       </c>
       <c r="X2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -15633,10 +15605,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -15644,7 +15616,7 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="40" t="str">
         <f>"(for /r "&amp;CHAR(34)&amp;$B$1&amp;CHAR(34)&amp;" %F in (Futures*.zip) do unzip %F  -d %~dnpF)"</f>
@@ -15656,7 +15628,7 @@
         <v>119</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">

--- a/AlgoDB/AlgoDB_Management.xlsx
+++ b/AlgoDB/AlgoDB_Management.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felicini\dev\aaa\AlgoDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\AAA\AlgoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13128" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DataFile_Rename" sheetId="29" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="439">
   <si>
     <t>GBPUSD</t>
   </si>
@@ -1396,6 +1396,9 @@
   </si>
   <si>
     <t>Grant</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -3780,14 +3783,14 @@
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>423</v>
       </c>
@@ -3795,49 +3798,49 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>"select 'alter database rename file '||chr(39)||name||chr(39)||' to '||chr(39)||'"&amp;$B$1&amp;"'||substr(name,instr(name,'\',-1)+1,100)||chr(39)||';' cmd from v$datafile"</f>
         <v>select 'alter database rename file '||chr(39)||name||chr(39)||' to '||chr(39)||'D:\OraData\'||substr(name,instr(name,'\',-1)+1,100)||chr(39)||';' cmd from v$datafile</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>"select 'alter database rename file '||chr(39)||member||chr(39)||' to '||chr(39)||'"&amp;$B$1&amp;"'||substr(member,instr(member,'\',-1)+1,100)||chr(39)||';' cmd from v$logfile"</f>
         <v>select 'alter database rename file '||chr(39)||member||chr(39)||' to '||chr(39)||'D:\OraData\'||substr(member,instr(member,'\',-1)+1,100)||chr(39)||';' cmd from v$logfile</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>"select 'alter database rename file '||chr(39)||name||chr(39)||' to '||chr(39)||'"&amp;$B$1&amp;"'||substr(name,instr(name,'\',-1)+1,100)||chr(39)||';' cmd from v$tempfile;"</f>
         <v>select 'alter database rename file '||chr(39)||name||chr(39)||' to '||chr(39)||'D:\OraData\'||substr(name,instr(name,'\',-1)+1,100)||chr(39)||';' cmd from v$tempfile;</v>
@@ -3857,17 +3860,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>120</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P27" t="s">
         <v>122</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
         <v>124</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P29" t="s">
         <v>126</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P30" t="s">
         <v>128</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P31" t="s">
         <v>130</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P32" t="s">
         <v>132</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P33" t="s">
         <v>134</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P34" t="s">
         <v>136</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P35" t="s">
         <v>138</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P36" t="s">
         <v>140</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P37" t="s">
         <v>142</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>145</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>147</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P40" t="s">
         <v>149</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P41" t="s">
         <v>151</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
         <v>153</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P43" t="s">
         <v>155</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P44" t="s">
         <v>157</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P45" t="s">
         <v>160</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P46" t="s">
         <v>162</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P47" t="s">
         <v>164</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:17" x14ac:dyDescent="0.3">
       <c r="P48" t="s">
         <v>166</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q49" t="s">
         <v>165</v>
       </c>
@@ -4547,13 +4550,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="2" max="4" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>alter table gbpusd_h4_filled drop constraint gbpusd_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>alter table eurusd_h4_filled drop constraint eurusd_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>alter table audusd_h4_filled drop constraint audusd_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>alter table oil_h4_filled drop constraint oil_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>alter table gold_h4_filled drop constraint gold_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4875,7 +4878,7 @@
         <v>alter table ftse_h4_filled drop constraint ftse_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4920,10 +4923,10 @@
         <v>alter table spx_h4_filled drop constraint spx_h4_filled_pk;</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>41274</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>delete from gbpusd_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>delete from eurusd_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>delete from audusd_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>delete from oil_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>delete from gold_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>delete from ftse_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5294,28 +5297,28 @@
         <v>delete from spx_h4_filled where newdatetime&gt;to_date('31/12/2012','DD/MM/YYYY');</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>update gbpusd_m1 set NewDateTime=to_date((origdate||origtime),'YYYY.MM.DDHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>update eurusd_m1 set NewDateTime=to_date((origdate||origtime),'YYYY.MM.DDHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>update audusd_m1 set NewDateTime=to_date((origdate||origtime),'YYYY.MM.DDHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>update oil_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>update gold_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -5369,7 +5372,7 @@
         <v>update ftse_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5378,23 +5381,23 @@
         <v>update spx_m1 set NewDateTime=to_date((origdate||origtime),'MM/DD/YYYYHH24:MI') where newdatetime is null;</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>alter table gbpusd_m1 add constraint gbpusd_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>alter table eurusd_m1 add constraint eurusd_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>alter table audusd_m1 add constraint audusd_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -5430,7 +5433,7 @@
         <v>alter table oil_m1 add constraint oil_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>alter table gold_m1 add constraint gold_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>alter table ftse_m1 add constraint ftse_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -5457,17 +5460,17 @@
         <v>alter table spx_m1 add constraint spx_m1_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>alter table gbpusd_m1_filled drop constraint gbpusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>alter table eurusd_m1_filled drop constraint eurusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>alter table audusd_m1_filled drop constraint audusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>alter table oil_m1_filled drop constraint oil_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>alter table gold_m1_filled drop constraint gold_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>alter table ftse_m1_filled drop constraint ftse_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>alter table spx_m1_filled drop constraint spx_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5539,17 +5542,17 @@
         <v>alter table nzdusd_m1_filled drop constraint nzdusd_m1_filled_pk;</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>execute DataFill('GBPUSD','M1')</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>execute DataFill('EURUSD','M1')</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>execute DataFill('AUDUSD','M1')</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>execute DataFill('OIL','M1')</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>execute DataFill('GOLD','M1')</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>execute DataFill('FTSE','M1')</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -5612,17 +5615,17 @@
         <v>execute DataFill('SPX','M1')</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>alter table gbpusd_m1_filled add constraint gbpusd_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>alter table eurusd_m1_filled add constraint eurusd_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>alter table audusd_m1_filled add constraint audusd_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>alter table oil_m1_filled add constraint oil_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>alter table gold_m1_filled add constraint gold_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>alter table ftse_m1_filled add constraint ftse_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>alter table spx_m1_filled add constraint spx_m1_filled_pk primary key (NewDateTime) using index tablespace MyNNIDX;</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>54</v>
       </c>
@@ -5704,26 +5707,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f>"drop tablespace "&amp;C3&amp;";"</f>
         <v>drop tablespace HistoryData;</v>
@@ -5760,7 +5763,7 @@
         <v>create tablespace HistoryData datafile 'D:\app\oracle\oradata\algo\HistoryData01.dbf' size 16384M;</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f t="shared" ref="B4:B8" si="1">"drop tablespace "&amp;C4&amp;";"</f>
         <v>drop tablespace HistoryIdx;</v>
@@ -5779,7 +5782,7 @@
         <v>create tablespace HistoryIdx datafile 'D:\app\oracle\oradata\algo\HistoryIdx01.dbf' size 4096M;</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GAData;</v>
@@ -5798,7 +5801,7 @@
         <v>create tablespace GAData datafile 'D:\app\oracle\oradata\algo\GAData01.dbf' size 3072M;</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GAIdx;</v>
@@ -5817,7 +5820,7 @@
         <v>create tablespace GAIdx datafile 'D:\app\oracle\oradata\algo\GAIdx01.dbf' size 512M;</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GridData;</v>
@@ -5836,7 +5839,7 @@
         <v>create tablespace GridData datafile 'D:\app\oracle\oradata\algo\GridData01.dbf' size 4096M;</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>drop tablespace GridIdx;</v>
@@ -5855,7 +5858,7 @@
         <v>create tablespace GridIdx datafile 'D:\app\oracle\oradata\algo\GridIdx01.dbf' size 2048M;</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>211</v>
       </c>
@@ -5882,7 +5885,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>428</v>
       </c>
@@ -5902,7 +5905,7 @@
       </c>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>430</v>
       </c>
@@ -5922,7 +5925,7 @@
       </c>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>431</v>
       </c>
@@ -5942,7 +5945,7 @@
       </c>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>429</v>
       </c>
@@ -5962,7 +5965,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E15"/>
       <c r="L15" s="37"/>
     </row>
@@ -5978,25 +5981,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>"connect "&amp;Tablespaces_and_Users!J11&amp;"/"&amp;Tablespaces_and_Users!K11</f>
         <v>connect /</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>219</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>221</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>223</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>225</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>227</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>228</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>229</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>231</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>232</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>233</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>234</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>235</v>
       </c>
@@ -6092,27 +6095,27 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>241</v>
       </c>
@@ -6130,44 +6133,44 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>"connect "&amp;Tablespaces_and_Users!J11&amp;"/"&amp;Tablespaces_and_Users!K11</f>
         <v>connect /</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!J12&amp;";"</f>
         <v>grant select any table to ;</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!J13&amp;";"</f>
         <v>grant select any table to ;</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!J14&amp;";"</f>
         <v>grant select any table to ;</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>"grant select any table to "&amp;Tablespaces_and_Users!J15&amp;";"</f>
         <v>grant select any table to ;</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>243</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>245</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>249</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>261</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>267</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -6279,7 +6282,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>273</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -6311,7 +6314,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>279</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>245</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>249</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>255</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>259</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>261</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>271</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>273</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>275</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>277</v>
       </c>
@@ -6471,7 +6474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>279</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>281</v>
       </c>
@@ -6487,7 +6490,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>245</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -6511,7 +6514,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -6543,7 +6546,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>257</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>259</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>261</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>263</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>265</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>269</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>271</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>273</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>275</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>277</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>281</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>243</v>
       </c>
@@ -6655,7 +6658,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>247</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>251</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>253</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -6703,7 +6706,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>257</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>259</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>265</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>267</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>273</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>275</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>277</v>
       </c>
@@ -6791,7 +6794,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>279</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>281</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>243</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>245</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>249</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>261</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>265</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>267</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>269</v>
       </c>
@@ -6919,7 +6922,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>275</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>277</v>
       </c>
@@ -6951,7 +6954,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>279</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>281</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>243</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>245</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>247</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>249</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>251</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>253</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>255</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>259</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>261</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>263</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>265</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>267</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>269</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>271</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>273</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>275</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>277</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>279</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>281</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>243</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>247</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>249</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>251</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>253</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>255</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>257</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>259</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>263</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>265</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>267</v>
       </c>
@@ -7231,7 +7234,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>269</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>271</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>275</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>277</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>279</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>281</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>403</v>
       </c>
@@ -7299,27 +7302,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB82"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="13" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="13" topLeftCell="G60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13:AB13"/>
+      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
@@ -7346,7 +7349,7 @@
       </c>
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -7502,7 +7505,7 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G13" s="46" t="s">
         <v>2</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="D14" s="1"/>
@@ -7579,7 +7582,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>410</v>
       </c>
@@ -7678,7 +7681,7 @@
         <v>drop table XRB_M1;</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>77</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>drop table XRB_M5;</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>167</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>drop table XRB_M15;</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="11"/>
       <c r="D18" s="10"/>
@@ -7977,7 +7980,7 @@
         <v>drop table XRB_M30;</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
       <c r="D19" s="10"/>
@@ -8074,7 +8077,7 @@
         <v>drop table XRB_H1;</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="D20" s="10"/>
@@ -8171,7 +8174,7 @@
         <v>drop table XRB_H4;</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="D21" s="10"/>
@@ -8268,14 +8271,14 @@
         <v>drop table XRB_D1;</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="D23" s="10"/>
@@ -8284,7 +8287,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="13"/>
       <c r="F24" s="1" t="s">
@@ -8379,7 +8382,7 @@
         <v>create table XRB_M1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="13"/>
       <c r="F25" s="1" t="s">
@@ -8474,7 +8477,7 @@
         <v>create table XRB_M5 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="13"/>
       <c r="F26" s="1" t="s">
@@ -8569,7 +8572,7 @@
         <v>create table XRB_M15 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="13"/>
       <c r="F27" s="1" t="s">
@@ -8664,7 +8667,7 @@
         <v>create table XRB_M30 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="F28" s="1" t="s">
@@ -8759,7 +8762,7 @@
         <v>create table XRB_H1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="F29" s="1" t="s">
@@ -8854,7 +8857,7 @@
         <v>create table XRB_H4 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="F30" s="1" t="s">
@@ -8949,14 +8952,14 @@
         <v>create table XRB_D1 (OrigDate char(24), OrigTime char(24), Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), NewDateTime date) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="D32" s="10"/>
@@ -8965,7 +8968,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="D33" s="10"/>
@@ -9062,7 +9065,7 @@
         <v>alter table XRB_M1 add constraint XRB_M1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="D34" s="10"/>
@@ -9159,7 +9162,7 @@
         <v>alter table XRB_M5 add constraint XRB_M5_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="D35" s="10"/>
@@ -9256,7 +9259,7 @@
         <v>alter table XRB_M15 add constraint XRB_M15_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="D36" s="10"/>
@@ -9353,7 +9356,7 @@
         <v>alter table XRB_M30 add constraint XRB_M30_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="D37" s="10"/>
@@ -9450,7 +9453,7 @@
         <v>alter table XRB_H1 add constraint XRB_H1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="D38" s="10"/>
@@ -9547,7 +9550,7 @@
         <v>alter table XRB_H4 add constraint XRB_H4_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="D39" s="10"/>
@@ -9644,14 +9647,14 @@
         <v>alter table XRB_D1 add constraint XRB_D1_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="11"/>
       <c r="D41" s="10"/>
@@ -9660,7 +9663,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="D42" s="10"/>
@@ -9759,7 +9762,7 @@
         <v>execute DataCompact('XRB_M1','XRB_M5',5);</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="D43" s="10"/>
@@ -9858,7 +9861,7 @@
         <v>execute DataCompact('XRB_M1','XRB_M15',15);</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="11"/>
       <c r="D44" s="10"/>
@@ -9957,7 +9960,7 @@
         <v>execute DataCompact('XRB_M1','XRB_M30',30);</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="11"/>
       <c r="D45" s="10"/>
@@ -10056,7 +10059,7 @@
         <v>execute DataCompact('XRB_M1','XRB_H1',60);</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="11"/>
       <c r="D46" s="10"/>
@@ -10155,7 +10158,7 @@
         <v>execute DataCompact('XRB_M1','XRB_H4',240);</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
       <c r="D47" s="10"/>
@@ -10254,21 +10257,21 @@
         <v>execute DataCompact('XRB_M1','XRB_D1',1440);</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="11"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="11"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="13"/>
       <c r="D50" s="10"/>
@@ -10286,7 +10289,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="13"/>
       <c r="F51" s="1" t="s">
@@ -10377,7 +10380,7 @@
         <v>drop table XRB_M1_FILLED;</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="13"/>
       <c r="F52" s="1" t="s">
@@ -10468,7 +10471,7 @@
         <v>drop table XRB_M5_FILLED;</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="F53" s="1" t="s">
@@ -10559,7 +10562,7 @@
         <v>drop table XRB_M15_FILLED;</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="F54" s="1" t="s">
@@ -10650,7 +10653,7 @@
         <v>drop table XRB_H1_FILLED;</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="F55" s="1" t="s">
@@ -10741,7 +10744,7 @@
         <v>drop table XRB_H4_FILLED;</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="F56" s="1" t="s">
@@ -10832,13 +10835,13 @@
         <v>drop table XRB_D1_FILLED;</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="E58" s="10"/>
       <c r="F58" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>create table XRB_M1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F60" s="1" t="s">
         <v>27</v>
       </c>
@@ -11016,7 +11019,7 @@
         <v>create table XRB_M5_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F61" s="1" t="s">
         <v>5</v>
       </c>
@@ -11105,7 +11108,7 @@
         <v>create table XRB_M15_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F62" s="1" t="s">
         <v>6</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>create table XRB_M30_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F63" s="1" t="s">
         <v>28</v>
       </c>
@@ -11283,7 +11286,7 @@
         <v>create table XRB_H1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F64" s="1" t="s">
         <v>29</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>create table XRB_H4_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="65" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:28" x14ac:dyDescent="0.3">
       <c r="F65" s="1" t="s">
         <v>30</v>
       </c>
@@ -11461,17 +11464,17 @@
         <v>create table XRB_D1_FILLED (NewDateTime date, Open number(10,5), High number(10,5), Low number(10,5), Close number(10,5), Volume number(8), IsFilled number(1)) tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="66" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E67" s="10"/>
       <c r="F67" s="21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E68" s="10"/>
       <c r="F68" s="1" t="s">
         <v>8</v>
@@ -11561,7 +11564,7 @@
         <v>alter table XRB_M1_FILLED add constraint XRB_M1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="69" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E69" s="10"/>
       <c r="F69" s="1" t="s">
         <v>27</v>
@@ -11651,7 +11654,7 @@
         <v>alter table XRB_M5_FILLED add constraint XRB_M5_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="70" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E70" s="10"/>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -11741,7 +11744,7 @@
         <v>alter table XRB_M15_FILLED add constraint XRB_M15_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="71" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E71" s="10"/>
       <c r="F71" s="1" t="s">
         <v>6</v>
@@ -11831,7 +11834,7 @@
         <v>alter table XRB_M30_FILLED add constraint XRB_M30_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="72" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E72" s="10"/>
       <c r="F72" s="1" t="s">
         <v>28</v>
@@ -11921,7 +11924,7 @@
         <v>alter table XRB_H1_FILLED add constraint XRB_H1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="73" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E73" s="10"/>
       <c r="F73" s="1" t="s">
         <v>29</v>
@@ -12011,7 +12014,7 @@
         <v>alter table XRB_H4_FILLED add constraint XRB_H4_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="74" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E74" s="10"/>
       <c r="F74" s="1" t="s">
         <v>30</v>
@@ -12101,17 +12104,17 @@
         <v>alter table XRB_D1_FILLED add constraint XRB_D1_FILLED_PK primary key(NewDateTime) using index tablespace HistoryData;</v>
       </c>
     </row>
-    <row r="75" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E75" s="10"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E76" s="10"/>
       <c r="F76" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E77" s="10">
         <v>5</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E78" s="10">
         <v>15</v>
       </c>
@@ -12127,7 +12130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E79" s="10">
         <v>30</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E80" s="10">
         <v>60</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E81" s="10">
         <v>240</v>
       </c>
@@ -12151,12 +12154,593 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E82" s="10">
         <v>1440</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="F84" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="85" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E85" s="10">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" t="str">
+        <f>"alter table "&amp;G$13&amp;"_"&amp;$F85&amp;" add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);"</f>
+        <v>alter table AUDUSD_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" ref="H85:W90" si="30">"alter table "&amp;H$13&amp;"_"&amp;$F85&amp;" add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);"</f>
+        <v>alter table GBPUSD_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table EURUSD_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table XAUUSD_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NZDUSD_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table USDJPY_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPNZD_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SPX_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table ETXEUR_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table UKXGBP_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CATTLE_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CORN_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table HOIL_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NGAS_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table PLATINUM_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table RICE_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="W85" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SBO_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="X85" t="str">
+        <f t="shared" ref="X85:AB90" si="31">"alter table "&amp;X$13&amp;"_"&amp;$F85&amp;" add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);"</f>
+        <v>alter table SOYBEANS_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Y85" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SUGAR_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table US10YR_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table WHEAT_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table XRB_M5 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+    </row>
+    <row r="86" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E86" s="10">
+        <v>15</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" ref="G86:P90" si="32">"alter table "&amp;G$13&amp;"_"&amp;$F86&amp;" add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);"</f>
+        <v>alter table AUDUSD_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPUSD_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table EURUSD_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table XAUUSD_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NZDUSD_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table USDJPY_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPNZD_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SPX_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table ETXEUR_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table UKXGBP_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CATTLE_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CORN_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table HOIL_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NGAS_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table PLATINUM_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table RICE_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="W86" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SBO_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="X86" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SOYBEANS_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Y86" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SUGAR_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table US10YR_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table WHEAT_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table XRB_M15 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+    </row>
+    <row r="87" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E87" s="10">
+        <v>30</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="32"/>
+        <v>alter table AUDUSD_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPUSD_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table EURUSD_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table XAUUSD_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NZDUSD_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table USDJPY_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPNZD_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SPX_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table ETXEUR_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table UKXGBP_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CATTLE_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CORN_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table HOIL_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NGAS_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table PLATINUM_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table RICE_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="W87" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SBO_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="X87" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SOYBEANS_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Y87" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SUGAR_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table US10YR_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table WHEAT_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table XRB_M30 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+    </row>
+    <row r="88" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E88" s="10">
+        <v>60</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="32"/>
+        <v>alter table AUDUSD_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPUSD_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table EURUSD_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table XAUUSD_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NZDUSD_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table USDJPY_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPNZD_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SPX_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table ETXEUR_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table UKXGBP_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CATTLE_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CORN_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table HOIL_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NGAS_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table PLATINUM_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table RICE_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="W88" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SBO_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="X88" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SOYBEANS_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Y88" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SUGAR_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table US10YR_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table WHEAT_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table XRB_H1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+    </row>
+    <row r="89" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E89" s="10">
+        <v>240</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="32"/>
+        <v>alter table AUDUSD_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPUSD_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table EURUSD_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table XAUUSD_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NZDUSD_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table USDJPY_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPNZD_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SPX_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table ETXEUR_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table UKXGBP_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CATTLE_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CORN_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table HOIL_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NGAS_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table PLATINUM_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="V89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table RICE_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="W89" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SBO_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="X89" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SOYBEANS_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Y89" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SUGAR_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table US10YR_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table WHEAT_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table XRB_H4 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+    </row>
+    <row r="90" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E90" s="10">
+        <v>1440</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="32"/>
+        <v>alter table AUDUSD_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPUSD_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table EURUSD_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table XAUUSD_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NZDUSD_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table USDJPY_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table GBPNZD_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SPX_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table ETXEUR_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table UKXGBP_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CATTLE_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="R90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table CORN_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table HOIL_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table NGAS_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table PLATINUM_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="V90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table RICE_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="W90" t="str">
+        <f t="shared" si="30"/>
+        <v>alter table SBO_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="X90" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SOYBEANS_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Y90" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table SUGAR_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table US10YR_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table WHEAT_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="31"/>
+        <v>alter table XRB_D1 add(MACD number, CCI number, ATR number, BOLLH number, BOLLM number, BOLLL number, DEMA number, MA number, MOM number);</v>
       </c>
     </row>
   </sheetData>
@@ -12180,33 +12764,33 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>68</v>
       </c>
@@ -12214,17 +12798,17 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>69</v>
       </c>
@@ -12238,7 +12822,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>414</v>
       </c>
@@ -12246,7 +12830,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>65</v>
       </c>
@@ -12256,7 +12840,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>415</v>
       </c>
@@ -12264,7 +12848,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>58</v>
       </c>
@@ -12278,7 +12862,7 @@
         <v>41467.71875</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
@@ -12292,7 +12876,7 @@
         <v>41467.71875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>55</v>
       </c>
@@ -12306,7 +12890,7 @@
         <v>41467.71875</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>60</v>
       </c>
@@ -12320,7 +12904,7 @@
         <v>41467.71875</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>61</v>
       </c>
@@ -12334,7 +12918,7 @@
         <v>41467.602083333331</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>62</v>
       </c>
@@ -12348,7 +12932,7 @@
         <v>41467.602083333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>63</v>
       </c>
@@ -12362,7 +12946,7 @@
         <v>41309.415972222225</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>64</v>
       </c>
@@ -12372,7 +12956,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -12382,7 +12966,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>409</v>
       </c>
@@ -12396,7 +12980,7 @@
         <v>43465.677777777775</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>179</v>
       </c>
@@ -12410,7 +12994,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>56</v>
       </c>
@@ -12420,7 +13004,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>413</v>
       </c>
@@ -12428,7 +13012,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>1</v>
       </c>
@@ -12442,7 +13026,7 @@
         <v>43465.707638888889</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>0</v>
       </c>
@@ -12456,7 +13040,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>67</v>
       </c>
@@ -12470,7 +13054,7 @@
         <v>43465.706944444442</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>426</v>
       </c>
@@ -12478,7 +13062,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>408</v>
       </c>
@@ -12492,7 +13076,7 @@
         <v>43465.331944444442</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>7</v>
       </c>
@@ -12506,7 +13090,7 @@
         <v>43465.675694444442</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>427</v>
       </c>
@@ -12534,17 +13118,17 @@
       <selection activeCell="N35" sqref="N35:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -12552,7 +13136,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -12560,7 +13144,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3" s="23" t="s">
         <v>201</v>
       </c>
@@ -12598,7 +13182,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
         <v>176</v>
       </c>
@@ -12648,7 +13232,7 @@
         <v>echo load data &gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2000</v>
       </c>
@@ -12697,7 +13281,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>+C5+1</f>
         <v>2001</v>
@@ -12747,7 +13331,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" ref="C7:C19" si="3">+C6+1</f>
         <v>2002</v>
@@ -12797,7 +13381,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8">
         <f t="shared" si="3"/>
         <v>2003</v>
@@ -12847,7 +13431,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9">
         <f t="shared" si="3"/>
         <v>2004</v>
@@ -12897,7 +13481,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" si="3"/>
         <v>2005</v>
@@ -12947,7 +13531,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>+C10+1</f>
         <v>2006</v>
@@ -12997,7 +13581,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" si="3"/>
         <v>2007</v>
@@ -13047,7 +13631,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" si="3"/>
         <v>2008</v>
@@ -13097,7 +13681,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" si="3"/>
         <v>2009</v>
@@ -13147,7 +13731,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -13200,7 +13784,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2010.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>+C15+1</f>
         <v>2011</v>
@@ -13253,7 +13837,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2011.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -13306,7 +13890,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2012.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -13359,7 +13943,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2013.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13412,7 +13996,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2014.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>2015</v>
       </c>
@@ -13464,7 +14048,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2015.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2016</v>
       </c>
@@ -13516,7 +14100,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2016.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2017</v>
       </c>
@@ -13568,7 +14152,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2017.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23">
         <f t="shared" ref="C23:C33" si="6">+C22+1</f>
         <v>2018</v>
@@ -13621,7 +14205,7 @@
         <v>echo infile 'C:\Users\gcaglion\Downloads\DAT_MT_WTIUSD_M1_2018.csv' &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24">
         <f t="shared" si="6"/>
         <v>2019</v>
@@ -13671,7 +14255,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="6"/>
         <v>2020</v>
@@ -13721,7 +14305,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="6"/>
         <v>2021</v>
@@ -13771,7 +14355,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="6"/>
         <v>2022</v>
@@ -13821,7 +14405,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="6"/>
         <v>2023</v>
@@ -13871,7 +14455,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29">
         <f t="shared" si="6"/>
         <v>2024</v>
@@ -13921,7 +14505,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30">
         <f t="shared" si="6"/>
         <v>2025</v>
@@ -13971,7 +14555,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31">
         <f t="shared" si="6"/>
         <v>2026</v>
@@ -14021,7 +14605,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32">
         <f t="shared" si="6"/>
         <v>2027</v>
@@ -14071,7 +14655,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33">
         <f t="shared" si="6"/>
         <v>2028</v>
@@ -14121,7 +14705,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" s="22" t="s">
         <v>177</v>
       </c>
@@ -14171,7 +14755,7 @@
         <v>echo append into table WTIUSD_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'YYYY.MM.DDHH24:MI')") &gt;&gt;C:\Users\gcaglion\Downloads\WTIUSD.ctl</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" s="22" t="s">
         <v>178</v>
       </c>
@@ -14221,7 +14805,7 @@
         <v>sqlldr History/HistoryPwd@Algo control=C:\Users\gcaglion\Downloads\WTIUSD.ctl log=C:\Users\gcaglion\Downloads\WTIUSD.log readsize=2000000 bindsize=2000000</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" s="22" t="s">
         <v>196</v>
       </c>
@@ -14288,12 +14872,12 @@
       <selection activeCell="X3" sqref="X3:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -14367,7 +14951,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -14471,7 +15055,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_M5',5);</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -14575,7 +15159,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_M15',15);</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -14679,7 +15263,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_M30',30);</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -14783,7 +15367,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_H1',60);</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>240</v>
       </c>
@@ -14887,7 +15471,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_H4',240);</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1440</v>
       </c>
@@ -14991,7 +15575,7 @@
         <v>execute DataCompact('WTIUSD_M1','WTIUSD_D1',1440);</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C10" t="str">
         <f>"truncate table "&amp;C$2&amp;"_"&amp;$B3&amp;";"</f>
         <v>truncate table AUDUSD_M5;</v>
@@ -15089,7 +15673,7 @@
         <v>truncate table WTIUSD_M5;</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" t="str">
         <f t="shared" ref="C11:S15" si="13">"truncate table "&amp;C$2&amp;"_"&amp;$B4&amp;";"</f>
         <v>truncate table AUDUSD_M15;</v>
@@ -15187,7 +15771,7 @@
         <v>truncate table WTIUSD_M15;</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" t="str">
         <f t="shared" si="13"/>
         <v>truncate table AUDUSD_M30;</v>
@@ -15285,7 +15869,7 @@
         <v>truncate table WTIUSD_M30;</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" t="str">
         <f t="shared" si="13"/>
         <v>truncate table AUDUSD_H1;</v>
@@ -15383,7 +15967,7 @@
         <v>truncate table WTIUSD_H1;</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" t="str">
         <f>"truncate table "&amp;C$2&amp;"_"&amp;$B7&amp;";"</f>
         <v>truncate table AUDUSD_H4;</v>
@@ -15481,7 +16065,7 @@
         <v>truncate table WTIUSD_H4;</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C15" t="str">
         <f t="shared" si="13"/>
         <v>truncate table AUDUSD_D1;</v>
@@ -15595,15 +16179,15 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -15611,7 +16195,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -15623,7 +16207,7 @@
         <v>(for /r "D:\Historical_Futures_and_Indices\" %F in (Futures*.zip) do unzip %F  -d %~dnpF)</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -15631,7 +16215,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>174</v>
       </c>
@@ -15654,7 +16238,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>187</v>
       </c>
@@ -15673,7 +16257,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -15692,7 +16276,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
@@ -15708,7 +16292,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>28</v>
       </c>
@@ -15724,7 +16308,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>6</v>
       </c>
@@ -15741,7 +16325,7 @@
       <c r="H9" s="36"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
@@ -15757,7 +16341,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
@@ -15773,7 +16357,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>27</v>
       </c>
@@ -15789,7 +16373,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
@@ -15805,7 +16389,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>28</v>
       </c>
@@ -15821,7 +16405,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>6</v>
       </c>
@@ -15837,7 +16421,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>184</v>
       </c>
@@ -15868,7 +16452,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\LC??.csv C:\temp\HistData\Futures2014Q1M1\LC.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>8</v>
@@ -15897,7 +16481,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\C??.csv C:\temp\HistData\Futures2014Q1M1\C.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>8</v>
@@ -15926,7 +16510,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\HO??.csv C:\temp\HistData\Futures2014Q1M1\HO.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>8</v>
@@ -15955,7 +16539,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\NG??.csv C:\temp\HistData\Futures2014Q1M1\NG.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>8</v>
@@ -15984,7 +16568,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\PL??.csv C:\temp\HistData\Futures2014Q1M1\PL.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>8</v>
@@ -16013,7 +16597,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\RR??.csv C:\temp\HistData\Futures2014Q1M1\RR.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>8</v>
@@ -16042,7 +16626,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\BO??.csv C:\temp\HistData\Futures2014Q1M1\BO.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>8</v>
@@ -16071,7 +16655,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\S??.csv C:\temp\HistData\Futures2014Q1M1\S.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>8</v>
@@ -16100,7 +16684,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\SB??.csv C:\temp\HistData\Futures2014Q1M1\SB.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>8</v>
@@ -16129,7 +16713,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\TY??.csv C:\temp\HistData\Futures2014Q1M1\TY.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>8</v>
@@ -16158,7 +16742,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\W??.csv C:\temp\HistData\Futures2014Q1M1\W.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>8</v>
@@ -16187,7 +16771,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M1\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M1\XRB??.csv C:\temp\HistData\Futures2014Q1M1\XRB.csv</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>27</v>
@@ -16216,7 +16800,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\LC??.csv C:\temp\HistData\Futures2014Q1M5\LC.csv</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>27</v>
@@ -16245,7 +16829,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\C??.csv C:\temp\HistData\Futures2014Q1M5\C.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>27</v>
@@ -16274,7 +16858,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\HO??.csv C:\temp\HistData\Futures2014Q1M5\HO.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>27</v>
@@ -16303,7 +16887,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\NG??.csv C:\temp\HistData\Futures2014Q1M5\NG.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>27</v>
@@ -16332,7 +16916,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\PL??.csv C:\temp\HistData\Futures2014Q1M5\PL.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>27</v>
@@ -16361,7 +16945,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\RR??.csv C:\temp\HistData\Futures2014Q1M5\RR.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>27</v>
@@ -16390,7 +16974,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\BO??.csv C:\temp\HistData\Futures2014Q1M5\BO.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="31" t="s">
         <v>27</v>
@@ -16419,7 +17003,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\S??.csv C:\temp\HistData\Futures2014Q1M5\S.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
         <v>27</v>
@@ -16448,7 +17032,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\SB??.csv C:\temp\HistData\Futures2014Q1M5\SB.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
         <v>27</v>
@@ -16477,7 +17061,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\TY??.csv C:\temp\HistData\Futures2014Q1M5\TY.csv</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
         <v>27</v>
@@ -16506,7 +17090,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\W??.csv C:\temp\HistData\Futures2014Q1M5\W.csv</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="31" t="s">
         <v>27</v>
@@ -16535,7 +17119,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M5\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M5\XRB??.csv C:\temp\HistData\Futures2014Q1M5\XRB.csv</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>5</v>
@@ -16564,7 +17148,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\LC??.csv C:\temp\HistData\Futures2014Q1M15\LC.csv</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="31" t="s">
         <v>5</v>
@@ -16593,7 +17177,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\C??.csv C:\temp\HistData\Futures2014Q1M15\C.csv</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="31" t="s">
         <v>5</v>
@@ -16622,7 +17206,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\HO??.csv C:\temp\HistData\Futures2014Q1M15\HO.csv</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
       <c r="B43" s="31" t="s">
         <v>5</v>
@@ -16651,7 +17235,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\NG??.csv C:\temp\HistData\Futures2014Q1M15\NG.csv</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="31" t="s">
         <v>5</v>
@@ -16680,7 +17264,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\PL??.csv C:\temp\HistData\Futures2014Q1M15\PL.csv</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
         <v>5</v>
@@ -16709,7 +17293,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\RR??.csv C:\temp\HistData\Futures2014Q1M15\RR.csv</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="31" t="s">
         <v>5</v>
@@ -16738,7 +17322,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\BO??.csv C:\temp\HistData\Futures2014Q1M15\BO.csv</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
       <c r="B47" s="31" t="s">
         <v>5</v>
@@ -16767,7 +17351,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\S??.csv C:\temp\HistData\Futures2014Q1M15\S.csv</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
         <v>5</v>
@@ -16796,7 +17380,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\SB??.csv C:\temp\HistData\Futures2014Q1M15\SB.csv</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
         <v>5</v>
@@ -16825,7 +17409,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\TY??.csv C:\temp\HistData\Futures2014Q1M15\TY.csv</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>5</v>
@@ -16854,7 +17438,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\W??.csv C:\temp\HistData\Futures2014Q1M15\W.csv</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>5</v>
@@ -16883,7 +17467,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M15\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M15\XRB??.csv C:\temp\HistData\Futures2014Q1M15\XRB.csv</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="31" t="s">
         <v>6</v>
@@ -16912,7 +17496,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\LC??.csv C:\temp\HistData\Futures2014Q1M30\LC.csv</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
         <v>6</v>
@@ -16941,7 +17525,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\C.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\C??.csv C:\temp\HistData\Futures2014Q1M30\C.csv</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
         <v>6</v>
@@ -16970,7 +17554,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\HO??.csv C:\temp\HistData\Futures2014Q1M30\HO.csv</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
         <v>6</v>
@@ -16999,7 +17583,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\NG??.csv C:\temp\HistData\Futures2014Q1M30\NG.csv</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
         <v>6</v>
@@ -17028,7 +17612,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\PL??.csv C:\temp\HistData\Futures2014Q1M30\PL.csv</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
         <v>6</v>
@@ -17057,7 +17641,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\RR??.csv C:\temp\HistData\Futures2014Q1M30\RR.csv</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
         <v>6</v>
@@ -17086,7 +17670,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\BO??.csv C:\temp\HistData\Futures2014Q1M30\BO.csv</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
         <v>6</v>
@@ -17115,7 +17699,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\S.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\S??.csv C:\temp\HistData\Futures2014Q1M30\S.csv</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
         <v>6</v>
@@ -17144,7 +17728,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\SB??.csv C:\temp\HistData\Futures2014Q1M30\SB.csv</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
         <v>6</v>
@@ -17173,7 +17757,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\TY??.csv C:\temp\HistData\Futures2014Q1M30\TY.csv</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
         <v>6</v>
@@ -17202,7 +17786,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\W.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\W??.csv C:\temp\HistData\Futures2014Q1M30\W.csv</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
         <v>6</v>
@@ -17231,7 +17815,7 @@
         <v>del C:\temp\HistData\Futures2014Q1M30\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1M30\XRB??.csv C:\temp\HistData\Futures2014Q1M30\XRB.csv</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
         <v>28</v>
@@ -17260,7 +17844,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\LC??.csv C:\temp\HistData\Futures2014Q1H1\LC.csv</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
       <c r="B65" s="31" t="s">
         <v>28</v>
@@ -17289,7 +17873,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\C.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\C??.csv C:\temp\HistData\Futures2014Q1H1\C.csv</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="31" t="s">
         <v>28</v>
@@ -17318,7 +17902,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\HO??.csv C:\temp\HistData\Futures2014Q1H1\HO.csv</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="31" t="s">
         <v>28</v>
@@ -17347,7 +17931,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\NG??.csv C:\temp\HistData\Futures2014Q1H1\NG.csv</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="31" t="s">
         <v>28</v>
@@ -17376,7 +17960,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\PL??.csv C:\temp\HistData\Futures2014Q1H1\PL.csv</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
         <v>28</v>
@@ -17405,7 +17989,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\RR??.csv C:\temp\HistData\Futures2014Q1H1\RR.csv</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
         <v>28</v>
@@ -17434,7 +18018,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\BO??.csv C:\temp\HistData\Futures2014Q1H1\BO.csv</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
         <v>28</v>
@@ -17463,7 +18047,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\S.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\S??.csv C:\temp\HistData\Futures2014Q1H1\S.csv</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
         <v>28</v>
@@ -17492,7 +18076,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\SB??.csv C:\temp\HistData\Futures2014Q1H1\SB.csv</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
         <v>28</v>
@@ -17521,7 +18105,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\TY??.csv C:\temp\HistData\Futures2014Q1H1\TY.csv</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30"/>
       <c r="B74" s="31" t="s">
         <v>28</v>
@@ -17550,7 +18134,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\W.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\W??.csv C:\temp\HistData\Futures2014Q1H1\W.csv</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
         <v>28</v>
@@ -17579,7 +18163,7 @@
         <v>del C:\temp\HistData\Futures2014Q1H1\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1H1\XRB??.csv C:\temp\HistData\Futures2014Q1H1\XRB.csv</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30"/>
       <c r="B76" s="31" t="s">
         <v>30</v>
@@ -17608,7 +18192,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\LC.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\LC??.csv C:\temp\HistData\Futures2014Q1D1\LC.csv</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="30"/>
       <c r="B77" s="31" t="s">
         <v>30</v>
@@ -17637,7 +18221,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\C.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\C??.csv C:\temp\HistData\Futures2014Q1D1\C.csv</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="31" t="s">
         <v>30</v>
@@ -17666,7 +18250,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\HO.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\HO??.csv C:\temp\HistData\Futures2014Q1D1\HO.csv</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
         <v>30</v>
@@ -17695,7 +18279,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\NG.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\NG??.csv C:\temp\HistData\Futures2014Q1D1\NG.csv</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
         <v>30</v>
@@ -17724,7 +18308,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\PL.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\PL??.csv C:\temp\HistData\Futures2014Q1D1\PL.csv</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
         <v>30</v>
@@ -17753,7 +18337,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\RR.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\RR??.csv C:\temp\HistData\Futures2014Q1D1\RR.csv</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="31" t="s">
         <v>30</v>
@@ -17782,7 +18366,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\BO.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\BO??.csv C:\temp\HistData\Futures2014Q1D1\BO.csv</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="31" t="s">
         <v>30</v>
@@ -17811,7 +18395,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\S.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\S??.csv C:\temp\HistData\Futures2014Q1D1\S.csv</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="31" t="s">
         <v>30</v>
@@ -17840,7 +18424,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\SB.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\SB??.csv C:\temp\HistData\Futures2014Q1D1\SB.csv</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="30"/>
       <c r="B85" s="31" t="s">
         <v>30</v>
@@ -17869,7 +18453,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\TY.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\TY??.csv C:\temp\HistData\Futures2014Q1D1\TY.csv</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="31" t="s">
         <v>30</v>
@@ -17898,7 +18482,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\W.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\W??.csv C:\temp\HistData\Futures2014Q1D1\W.csv</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30"/>
       <c r="B87" s="31" t="s">
         <v>30</v>
@@ -17927,7 +18511,7 @@
         <v>del C:\temp\HistData\Futures2014Q1D1\XRB.csv &amp; copy C:\temp\HistData\Futures2014Q1D1\XRB??.csv C:\temp\HistData\Futures2014Q1D1\XRB.csv</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>189</v>
       </c>
@@ -17939,7 +18523,7 @@
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="28" t="s">
         <v>8</v>
       </c>
@@ -17967,7 +18551,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\C.csv' append into table CORN_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\CORN-M1.ctl</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" s="28" t="s">
         <v>8</v>
       </c>
@@ -17995,7 +18579,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\HO.csv' append into table HOIL_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\HOIL-M1.ctl</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B91" s="28" t="s">
         <v>8</v>
       </c>
@@ -18023,7 +18607,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\NG.csv' append into table NGAS_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\NGAS-M1.ctl</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B92" s="28" t="s">
         <v>8</v>
       </c>
@@ -18051,7 +18635,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\PL.csv' append into table PLATINUM_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\PLATINUM-M1.ctl</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B93" s="28" t="s">
         <v>8</v>
       </c>
@@ -18079,7 +18663,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\RR.csv' append into table RICE_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\RICE-M1.ctl</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="28" t="s">
         <v>8</v>
       </c>
@@ -18107,7 +18691,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\BO.csv' append into table SBO_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\SBO-M1.ctl</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" s="28" t="s">
         <v>8</v>
       </c>
@@ -18135,7 +18719,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\S.csv' append into table SOYBEANS_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\SOYBEANS-M1.ctl</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="28" t="s">
         <v>8</v>
       </c>
@@ -18163,7 +18747,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\SB.csv' append into table SUGAR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\SUGAR-M1.ctl</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="28" t="s">
         <v>8</v>
       </c>
@@ -18191,7 +18775,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\TY.csv' append into table US10YR_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\US10YR-M1.ctl</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="28" t="s">
         <v>8</v>
       </c>
@@ -18219,7 +18803,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\W.csv' append into table WHEAT_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\WHEAT-M1.ctl</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="28" t="s">
         <v>8</v>
       </c>
@@ -18247,7 +18831,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M1\XRB.csv' append into table XRB_M1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M1\XRB-M1.ctl</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="28" t="s">
         <v>27</v>
       </c>
@@ -18275,7 +18859,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\LC.csv' append into table CATTLE_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\CATTLE-M5.ctl</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="28" t="s">
         <v>27</v>
       </c>
@@ -18303,7 +18887,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\C.csv' append into table CORN_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\CORN-M5.ctl</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="28" t="s">
         <v>27</v>
       </c>
@@ -18331,7 +18915,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\HO.csv' append into table HOIL_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\HOIL-M5.ctl</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="28" t="s">
         <v>27</v>
       </c>
@@ -18359,7 +18943,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\NG.csv' append into table NGAS_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\NGAS-M5.ctl</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="28" t="s">
         <v>27</v>
       </c>
@@ -18387,7 +18971,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\PL.csv' append into table PLATINUM_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\PLATINUM-M5.ctl</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="28" t="s">
         <v>27</v>
       </c>
@@ -18415,7 +18999,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\RR.csv' append into table RICE_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\RICE-M5.ctl</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="28" t="s">
         <v>27</v>
       </c>
@@ -18443,7 +19027,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\BO.csv' append into table SBO_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\SBO-M5.ctl</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="28" t="s">
         <v>27</v>
       </c>
@@ -18471,7 +19055,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\S.csv' append into table SOYBEANS_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\SOYBEANS-M5.ctl</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="28" t="s">
         <v>27</v>
       </c>
@@ -18499,7 +19083,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\SB.csv' append into table SUGAR_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\SUGAR-M5.ctl</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="28" t="s">
         <v>27</v>
       </c>
@@ -18527,7 +19111,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\TY.csv' append into table US10YR_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\US10YR-M5.ctl</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="28" t="s">
         <v>27</v>
       </c>
@@ -18555,7 +19139,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\W.csv' append into table WHEAT_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\WHEAT-M5.ctl</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="28" t="s">
         <v>27</v>
       </c>
@@ -18583,7 +19167,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M5\XRB.csv' append into table XRB_M5 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M5\XRB-M5.ctl</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="28" t="s">
         <v>5</v>
       </c>
@@ -18611,7 +19195,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\LC.csv' append into table CATTLE_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\CATTLE-M15.ctl</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="28" t="s">
         <v>5</v>
       </c>
@@ -18639,7 +19223,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\C.csv' append into table CORN_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\CORN-M15.ctl</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="28" t="s">
         <v>5</v>
       </c>
@@ -18667,7 +19251,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\HO.csv' append into table HOIL_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\HOIL-M15.ctl</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="28" t="s">
         <v>5</v>
       </c>
@@ -18695,7 +19279,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\NG.csv' append into table NGAS_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\NGAS-M15.ctl</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="28" t="s">
         <v>5</v>
       </c>
@@ -18723,7 +19307,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\PL.csv' append into table PLATINUM_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\PLATINUM-M15.ctl</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="28" t="s">
         <v>5</v>
       </c>
@@ -18751,7 +19335,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\RR.csv' append into table RICE_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\RICE-M15.ctl</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="28" t="s">
         <v>5</v>
       </c>
@@ -18779,7 +19363,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\BO.csv' append into table SBO_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\SBO-M15.ctl</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="28" t="s">
         <v>5</v>
       </c>
@@ -18807,7 +19391,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\S.csv' append into table SOYBEANS_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\SOYBEANS-M15.ctl</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="28" t="s">
         <v>5</v>
       </c>
@@ -18835,7 +19419,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\SB.csv' append into table SUGAR_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\SUGAR-M15.ctl</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="28" t="s">
         <v>5</v>
       </c>
@@ -18863,7 +19447,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\TY.csv' append into table US10YR_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\US10YR-M15.ctl</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="28" t="s">
         <v>5</v>
       </c>
@@ -18891,7 +19475,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\W.csv' append into table WHEAT_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\WHEAT-M15.ctl</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="28" t="s">
         <v>5</v>
       </c>
@@ -18919,7 +19503,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M15\XRB.csv' append into table XRB_M15 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M15\XRB-M15.ctl</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="28" t="s">
         <v>6</v>
       </c>
@@ -18947,7 +19531,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\LC.csv' append into table CATTLE_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\CATTLE-M30.ctl</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="28" t="s">
         <v>6</v>
       </c>
@@ -18975,7 +19559,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\C.csv' append into table CORN_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\CORN-M30.ctl</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="28" t="s">
         <v>6</v>
       </c>
@@ -19003,7 +19587,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\HO.csv' append into table HOIL_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\HOIL-M30.ctl</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="28" t="s">
         <v>6</v>
       </c>
@@ -19031,7 +19615,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\NG.csv' append into table NGAS_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\NGAS-M30.ctl</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" s="28" t="s">
         <v>6</v>
       </c>
@@ -19059,7 +19643,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\PL.csv' append into table PLATINUM_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\PLATINUM-M30.ctl</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="28" t="s">
         <v>6</v>
       </c>
@@ -19087,7 +19671,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\RR.csv' append into table RICE_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\RICE-M30.ctl</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="28" t="s">
         <v>6</v>
       </c>
@@ -19115,7 +19699,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\BO.csv' append into table SBO_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\SBO-M30.ctl</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="28" t="s">
         <v>6</v>
       </c>
@@ -19143,7 +19727,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\S.csv' append into table SOYBEANS_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\SOYBEANS-M30.ctl</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="28" t="s">
         <v>6</v>
       </c>
@@ -19171,7 +19755,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\SB.csv' append into table SUGAR_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\SUGAR-M30.ctl</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="28" t="s">
         <v>6</v>
       </c>
@@ -19199,7 +19783,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\TY.csv' append into table US10YR_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\US10YR-M30.ctl</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="28" t="s">
         <v>6</v>
       </c>
@@ -19227,7 +19811,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\W.csv' append into table WHEAT_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\WHEAT-M30.ctl</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="28" t="s">
         <v>6</v>
       </c>
@@ -19255,7 +19839,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1M30\XRB.csv' append into table XRB_M30 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1M30\XRB-M30.ctl</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="28" t="s">
         <v>28</v>
       </c>
@@ -19283,7 +19867,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\LC.csv' append into table CATTLE_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\CATTLE-H1.ctl</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="28" t="s">
         <v>28</v>
       </c>
@@ -19311,7 +19895,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\C.csv' append into table CORN_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\CORN-H1.ctl</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="28" t="s">
         <v>28</v>
       </c>
@@ -19339,7 +19923,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\HO.csv' append into table HOIL_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\HOIL-H1.ctl</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="28" t="s">
         <v>28</v>
       </c>
@@ -19367,7 +19951,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\NG.csv' append into table NGAS_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\NGAS-H1.ctl</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="28" t="s">
         <v>28</v>
       </c>
@@ -19395,7 +19979,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\PL.csv' append into table PLATINUM_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\PLATINUM-H1.ctl</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="28" t="s">
         <v>28</v>
       </c>
@@ -19423,7 +20007,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\RR.csv' append into table RICE_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\RICE-H1.ctl</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="28" t="s">
         <v>28</v>
       </c>
@@ -19451,7 +20035,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\BO.csv' append into table SBO_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\SBO-H1.ctl</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
         <v>28</v>
       </c>
@@ -19479,7 +20063,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\S.csv' append into table SOYBEANS_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\SOYBEANS-H1.ctl</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="28" t="s">
         <v>28</v>
       </c>
@@ -19507,7 +20091,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\SB.csv' append into table SUGAR_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\SUGAR-H1.ctl</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="28" t="s">
         <v>28</v>
       </c>
@@ -19535,7 +20119,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\TY.csv' append into table US10YR_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\US10YR-H1.ctl</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="28" t="s">
         <v>28</v>
       </c>
@@ -19563,7 +20147,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\W.csv' append into table WHEAT_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\WHEAT-H1.ctl</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="28" t="s">
         <v>28</v>
       </c>
@@ -19591,7 +20175,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1H1\XRB.csv' append into table XRB_H1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1H1\XRB-H1.ctl</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="28" t="s">
         <v>30</v>
       </c>
@@ -19619,7 +20203,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\LC.csv' append into table CATTLE_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\CATTLE-D1.ctl</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="28" t="s">
         <v>30</v>
       </c>
@@ -19647,7 +20231,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\C.csv' append into table CORN_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\CORN-D1.ctl</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="28" t="s">
         <v>30</v>
       </c>
@@ -19675,7 +20259,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\HO.csv' append into table HOIL_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\HOIL-D1.ctl</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="28" t="s">
         <v>30</v>
       </c>
@@ -19703,7 +20287,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\NG.csv' append into table NGAS_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\NGAS-D1.ctl</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="28" t="s">
         <v>30</v>
       </c>
@@ -19731,7 +20315,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\PL.csv' append into table PLATINUM_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\PLATINUM-D1.ctl</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="28" t="s">
         <v>30</v>
       </c>
@@ -19759,7 +20343,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\RR.csv' append into table RICE_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\RICE-D1.ctl</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" s="28" t="s">
         <v>30</v>
       </c>
@@ -19787,7 +20371,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\BO.csv' append into table SBO_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\SBO-D1.ctl</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="28" t="s">
         <v>30</v>
       </c>
@@ -19815,7 +20399,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\S.csv' append into table SOYBEANS_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\SOYBEANS-D1.ctl</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="28" t="s">
         <v>30</v>
       </c>
@@ -19843,7 +20427,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\SB.csv' append into table SUGAR_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\SUGAR-D1.ctl</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="28" t="s">
         <v>30</v>
       </c>
@@ -19871,7 +20455,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\TY.csv' append into table US10YR_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\US10YR-D1.ctl</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="28" t="s">
         <v>30</v>
       </c>
@@ -19899,7 +20483,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\W.csv' append into table WHEAT_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\WHEAT-D1.ctl</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
         <v>30</v>
       </c>
@@ -19927,7 +20511,7 @@
         <v>echo load data  infile 'C:\temp\HistData\Futures2014Q1D1\XRB.csv' append into table XRB_D1 fields terminated by "," (OrigDate, OrigTime, Open, High, Low, Close, NewDateTime expression "to_date((:OrigDate||:OrigTime),'MM/DD/YYYY HH24MI')") &gt;C:\temp\HistData\Futures2014Q1D1\XRB-D1.ctl</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="24" t="s">
         <v>8</v>
       </c>
@@ -19955,7 +20539,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\CORN-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-CORN-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="24" t="s">
         <v>8</v>
       </c>
@@ -19983,7 +20567,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\HOIL-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-HOIL-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" s="24" t="s">
         <v>8</v>
       </c>
@@ -20011,7 +20595,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\NGAS-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-NGAS-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" s="24" t="s">
         <v>8</v>
       </c>
@@ -20039,7 +20623,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\PLATINUM-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-PLATINUM-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="24" t="s">
         <v>8</v>
       </c>
@@ -20067,7 +20651,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\RICE-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-RICE-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="24" t="s">
         <v>8</v>
       </c>
@@ -20095,7 +20679,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\SBO-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-SBO-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" s="24" t="s">
         <v>8</v>
       </c>
@@ -20123,7 +20707,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\SOYBEANS-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-SOYBEANS-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="24" t="s">
         <v>8</v>
       </c>
@@ -20151,7 +20735,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\SUGAR-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-SUGAR-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" s="24" t="s">
         <v>8</v>
       </c>
@@ -20179,7 +20763,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\US10YR-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-US10YR-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" s="24" t="s">
         <v>8</v>
       </c>
@@ -20207,7 +20791,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\WHEAT-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-WHEAT-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" s="24" t="s">
         <v>8</v>
       </c>
@@ -20235,7 +20819,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M1\XRB-M1.ctl log=C:\temp\HistData\Futures2014Q1M1-XRB-M1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" s="24" t="s">
         <v>27</v>
       </c>
@@ -20263,7 +20847,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\CATTLE-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-CATTLE-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" s="24" t="s">
         <v>27</v>
       </c>
@@ -20291,7 +20875,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\CORN-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-CORN-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" s="24" t="s">
         <v>27</v>
       </c>
@@ -20319,7 +20903,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\HOIL-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-HOIL-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" s="24" t="s">
         <v>27</v>
       </c>
@@ -20347,7 +20931,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\NGAS-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-NGAS-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" s="24" t="s">
         <v>27</v>
       </c>
@@ -20375,7 +20959,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\PLATINUM-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-PLATINUM-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="24" t="s">
         <v>27</v>
       </c>
@@ -20403,7 +20987,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\RICE-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-RICE-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="24" t="s">
         <v>27</v>
       </c>
@@ -20431,7 +21015,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\SBO-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-SBO-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="24" t="s">
         <v>27</v>
       </c>
@@ -20459,7 +21043,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\SOYBEANS-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-SOYBEANS-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="24" t="s">
         <v>27</v>
       </c>
@@ -20487,7 +21071,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\SUGAR-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-SUGAR-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="24" t="s">
         <v>27</v>
       </c>
@@ -20515,7 +21099,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\US10YR-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-US10YR-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="24" t="s">
         <v>27</v>
       </c>
@@ -20543,7 +21127,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\WHEAT-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-WHEAT-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="24" t="s">
         <v>27</v>
       </c>
@@ -20571,7 +21155,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M5\XRB-M5.ctl log=C:\temp\HistData\Futures2014Q1M5-XRB-M5.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="24" t="s">
         <v>5</v>
       </c>
@@ -20599,7 +21183,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\CATTLE-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-CATTLE-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="24" t="s">
         <v>5</v>
       </c>
@@ -20627,7 +21211,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\CORN-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-CORN-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="24" t="s">
         <v>5</v>
       </c>
@@ -20655,7 +21239,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\HOIL-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-HOIL-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="24" t="s">
         <v>5</v>
       </c>
@@ -20683,7 +21267,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\NGAS-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-NGAS-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="24" t="s">
         <v>5</v>
       </c>
@@ -20711,7 +21295,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\PLATINUM-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-PLATINUM-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" s="24" t="s">
         <v>5</v>
       </c>
@@ -20739,7 +21323,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\RICE-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-RICE-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" s="24" t="s">
         <v>5</v>
       </c>
@@ -20767,7 +21351,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\SBO-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-SBO-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="24" t="s">
         <v>5</v>
       </c>
@@ -20795,7 +21379,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\SOYBEANS-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-SOYBEANS-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" s="24" t="s">
         <v>5</v>
       </c>
@@ -20823,7 +21407,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\SUGAR-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-SUGAR-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" s="24" t="s">
         <v>5</v>
       </c>
@@ -20851,7 +21435,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\US10YR-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-US10YR-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="24" t="s">
         <v>5</v>
       </c>
@@ -20879,7 +21463,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\WHEAT-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-WHEAT-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="24" t="s">
         <v>5</v>
       </c>
@@ -20907,7 +21491,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M15\XRB-M15.ctl log=C:\temp\HistData\Futures2014Q1M15-XRB-M15.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="24" t="s">
         <v>6</v>
       </c>
@@ -20935,7 +21519,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\CATTLE-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-CATTLE-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="24" t="s">
         <v>6</v>
       </c>
@@ -20963,7 +21547,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\CORN-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-CORN-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B197" s="24" t="s">
         <v>6</v>
       </c>
@@ -20991,7 +21575,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\HOIL-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-HOIL-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B198" s="24" t="s">
         <v>6</v>
       </c>
@@ -21019,7 +21603,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\NGAS-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-NGAS-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B199" s="24" t="s">
         <v>6</v>
       </c>
@@ -21047,7 +21631,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\PLATINUM-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-PLATINUM-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B200" s="24" t="s">
         <v>6</v>
       </c>
@@ -21075,7 +21659,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\RICE-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-RICE-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B201" s="24" t="s">
         <v>6</v>
       </c>
@@ -21103,7 +21687,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\SBO-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-SBO-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" s="24" t="s">
         <v>6</v>
       </c>
@@ -21131,7 +21715,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\SOYBEANS-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-SOYBEANS-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="24" t="s">
         <v>6</v>
       </c>
@@ -21159,7 +21743,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\SUGAR-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-SUGAR-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" s="24" t="s">
         <v>6</v>
       </c>
@@ -21187,7 +21771,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\US10YR-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-US10YR-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B205" s="24" t="s">
         <v>6</v>
       </c>
@@ -21215,7 +21799,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\WHEAT-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-WHEAT-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="24" t="s">
         <v>6</v>
       </c>
@@ -21243,7 +21827,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1M30\XRB-M30.ctl log=C:\temp\HistData\Futures2014Q1M30-XRB-M30.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B207" s="24" t="s">
         <v>28</v>
       </c>
@@ -21271,7 +21855,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\CATTLE-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-CATTLE-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B208" s="24" t="s">
         <v>28</v>
       </c>
@@ -21299,7 +21883,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\CORN-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-CORN-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="24" t="s">
         <v>28</v>
       </c>
@@ -21327,7 +21911,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\HOIL-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-HOIL-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B210" s="24" t="s">
         <v>28</v>
       </c>
@@ -21355,7 +21939,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\NGAS-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-NGAS-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="24" t="s">
         <v>28</v>
       </c>
@@ -21383,7 +21967,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\PLATINUM-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-PLATINUM-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B212" s="24" t="s">
         <v>28</v>
       </c>
@@ -21411,7 +21995,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\RICE-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-RICE-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="24" t="s">
         <v>28</v>
       </c>
@@ -21439,7 +22023,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\SBO-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-SBO-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" s="24" t="s">
         <v>28</v>
       </c>
@@ -21467,7 +22051,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\SOYBEANS-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-SOYBEANS-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="24" t="s">
         <v>28</v>
       </c>
@@ -21495,7 +22079,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\SUGAR-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-SUGAR-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="24" t="s">
         <v>28</v>
       </c>
@@ -21523,7 +22107,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\US10YR-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-US10YR-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="24" t="s">
         <v>28</v>
       </c>
@@ -21551,7 +22135,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\WHEAT-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-WHEAT-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="24" t="s">
         <v>28</v>
       </c>
@@ -21579,7 +22163,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1H1\XRB-H1.ctl log=C:\temp\HistData\Futures2014Q1H1-XRB-H1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="24" t="s">
         <v>30</v>
       </c>
@@ -21607,7 +22191,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\CATTLE-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-CATTLE-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" s="24" t="s">
         <v>30</v>
       </c>
@@ -21635,7 +22219,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\CORN-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-CORN-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="24" t="s">
         <v>30</v>
       </c>
@@ -21663,7 +22247,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\HOIL-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-HOIL-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="24" t="s">
         <v>30</v>
       </c>
@@ -21691,7 +22275,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\NGAS-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-NGAS-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="24" t="s">
         <v>30</v>
       </c>
@@ -21719,7 +22303,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\PLATINUM-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-PLATINUM-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="24" t="s">
         <v>30</v>
       </c>
@@ -21747,7 +22331,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\RICE-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-RICE-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="24" t="s">
         <v>30</v>
       </c>
@@ -21775,7 +22359,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\SBO-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-SBO-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="24" t="s">
         <v>30</v>
       </c>
@@ -21803,7 +22387,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\SOYBEANS-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-SOYBEANS-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="24" t="s">
         <v>30</v>
       </c>
@@ -21831,7 +22415,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\SUGAR-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-SUGAR-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="24" t="s">
         <v>30</v>
       </c>
@@ -21859,7 +22443,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\US10YR-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-US10YR-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="24" t="s">
         <v>30</v>
       </c>
@@ -21887,7 +22471,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\WHEAT-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-WHEAT-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="24" t="s">
         <v>30</v>
       </c>
@@ -21915,7 +22499,7 @@
         <v>sqlldr userid=History/HistoryPwd@Algo control=C:\temp\HistData\Futures2014Q1D1\XRB-D1.ctl log=C:\temp\HistData\Futures2014Q1D1-XRB-D1.log skip=1 readsize=2000000 bindsize=2000000 errors=10000</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D231" t="str">
         <f>"findstr /c:"&amp;CHAR(34)&amp;"not loaded due to data errors"&amp;CHAR(34)&amp;" /d:"&amp;$B$2&amp;" *.log"</f>
         <v>findstr /c:"not loaded due to data errors" /d:C:\temp\HistData\ *.log</v>
